--- a/BasicTypes/Dictionary/RawData.xlsx
+++ b/BasicTypes/Dictionary/RawData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="138">
   <si>
     <t>a</t>
   </si>
@@ -241,6 +241,195 @@
   </si>
   <si>
     <t>ilo, maŝino</t>
+  </si>
+  <si>
+    <t>insa</t>
+  </si>
+  <si>
+    <t>inside, inner world, centre, stomach</t>
+  </si>
+  <si>
+    <t>inner, internal</t>
+  </si>
+  <si>
+    <t>eno, interno, interna mondo, centro, ventro</t>
+  </si>
+  <si>
+    <t>ena, interna</t>
+  </si>
+  <si>
+    <t>kiom naŭze!</t>
+  </si>
+  <si>
+    <t>malpura, naŭza</t>
+  </si>
+  <si>
+    <t>malpuro, poluo, rubo</t>
+  </si>
+  <si>
+    <t>malpurigi, polui</t>
+  </si>
+  <si>
+    <t>pollute, dirty</t>
+  </si>
+  <si>
+    <t>ew! yuck!</t>
+  </si>
+  <si>
+    <t>dirt, pollution, garbage, filth</t>
+  </si>
+  <si>
+    <t>dirty, gross, filthy</t>
+  </si>
+  <si>
+    <t>jaki</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>person, people, human, being, somebody, anybody</t>
+  </si>
+  <si>
+    <t>pronoun</t>
+  </si>
+  <si>
+    <t>one, someone</t>
+  </si>
+  <si>
+    <t>human, somebody's, personal, of people</t>
+  </si>
+  <si>
+    <t>personify, humanize, personalize</t>
+  </si>
+  <si>
+    <t>homo, ulo, persono, estaĵo, iu</t>
+  </si>
+  <si>
+    <t>homa, ies, persona</t>
+  </si>
+  <si>
+    <t>personigi, homigi</t>
+  </si>
+  <si>
+    <t>jelo</t>
+  </si>
+  <si>
+    <t>yellow, light green</t>
+  </si>
+  <si>
+    <t>flava, helverda</t>
+  </si>
+  <si>
+    <t>jo</t>
+  </si>
+  <si>
+    <t>have, contain</t>
+  </si>
+  <si>
+    <t>having</t>
+  </si>
+  <si>
+    <t>kama</t>
+  </si>
+  <si>
+    <t>havado</t>
+  </si>
+  <si>
+    <t>ricevi, preni</t>
+  </si>
+  <si>
+    <t>kala</t>
+  </si>
+  <si>
+    <t>fish, sea creature</t>
+  </si>
+  <si>
+    <t>fiŝo, marbesto</t>
+  </si>
+  <si>
+    <t>sound, noise, voice</t>
+  </si>
+  <si>
+    <t>sono, bruo, voĉo</t>
+  </si>
+  <si>
+    <t>soni, brui, sonori</t>
+  </si>
+  <si>
+    <t>sonigi, ludi</t>
+  </si>
+  <si>
+    <t>make noise</t>
+  </si>
+  <si>
+    <t>sound, ring, play</t>
+  </si>
+  <si>
+    <t>kalama</t>
+  </si>
+  <si>
+    <t>come, become, arrive, happen, pursue actions to arrive to (a certain state), manage to, start to</t>
+  </si>
+  <si>
+    <t>event, happening, chance, arrival, beginning</t>
+  </si>
+  <si>
+    <t>coming, future</t>
+  </si>
+  <si>
+    <t>bring about, summon, come up</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> veni, iĝi, aperi, alveni, okazi, agi por veni al (iu stato), sukcesi, ek</t>
+  </si>
+  <si>
+    <t>evento, okazo, hazardo, veno, komenco</t>
+  </si>
+  <si>
+    <t>venanta, estonta</t>
+  </si>
+  <si>
+    <t>venigi</t>
+  </si>
+  <si>
+    <t>kasi</t>
+  </si>
+  <si>
+    <t>plant, leaf, herb, tree, wood</t>
+  </si>
+  <si>
+    <t>planto, folio, herbo, arbo, ligno</t>
+  </si>
+  <si>
+    <t>ken</t>
+  </si>
+  <si>
+    <t>can, is able to, is allowed to, may, is possible</t>
+  </si>
+  <si>
+    <t>possibility, ability, power to do things, permission</t>
+  </si>
+  <si>
+    <t>make possible, enable, allow, permit</t>
+  </si>
+  <si>
+    <t>la-fragment</t>
+  </si>
+  <si>
+    <t>it is possible that, maybe</t>
+  </si>
+  <si>
+    <t>povi, kapabli, rajti</t>
+  </si>
+  <si>
+    <t>povo, kapablo, rajto</t>
+  </si>
+  <si>
+    <t>ebligi, rajtigi, permesi</t>
+  </si>
+  <si>
+    <t>eblas, ke</t>
   </si>
 </sst>
 </file>
@@ -601,21 +790,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="27.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="4" max="8" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -632,22 +821,31 @@
         <v>35</v>
       </c>
       <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -658,7 +856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -669,29 +867,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -701,17 +899,17 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -721,36 +919,36 @@
       <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -758,14 +956,14 @@
         <v>26</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="F10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -773,14 +971,14 @@
         <v>26</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="F11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -788,14 +986,14 @@
         <v>27</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="F12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -803,14 +1001,14 @@
         <v>27</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="F13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -821,17 +1019,20 @@
       <c r="E14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G14" t="s">
+      <c r="J14" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -842,17 +1043,20 @@
       <c r="E15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -863,8 +1067,11 @@
       <c r="E16" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -875,42 +1082,45 @@
       <c r="E17" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -921,7 +1131,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -932,7 +1142,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -943,7 +1153,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -954,29 +1164,29 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F25" t="s">
+      <c r="I25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -984,7 +1194,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -992,7 +1202,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1002,20 +1212,20 @@
       <c r="C28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1025,39 +1235,742 @@
       <c r="C29" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32" t="s">
+        <v>76</v>
+      </c>
+      <c r="J32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="I33" t="s">
+        <v>78</v>
+      </c>
+      <c r="J33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" t="s">
+        <v>86</v>
+      </c>
+      <c r="J34" t="s">
+        <v>87</v>
+      </c>
+      <c r="L34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" t="s">
+        <v>82</v>
+      </c>
+      <c r="J35" t="s">
+        <v>81</v>
+      </c>
+      <c r="L35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I36" t="s">
+        <v>90</v>
+      </c>
+      <c r="J36" t="s">
+        <v>93</v>
+      </c>
+      <c r="L36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I37" t="s">
+        <v>95</v>
+      </c>
+      <c r="J37" t="s">
+        <v>96</v>
+      </c>
+      <c r="L37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>98</v>
+      </c>
+      <c r="J38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="J39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" t="s">
+        <v>103</v>
+      </c>
+      <c r="L40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I41" t="s">
+        <v>105</v>
+      </c>
+      <c r="L41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I44" t="s">
+        <v>110</v>
+      </c>
+      <c r="L44" t="s">
+        <v>114</v>
+      </c>
+      <c r="M44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I45" t="s">
+        <v>111</v>
+      </c>
+      <c r="L45" t="s">
+        <v>113</v>
+      </c>
+      <c r="M45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I46" t="s">
+        <v>118</v>
+      </c>
+      <c r="J46" t="s">
+        <v>119</v>
+      </c>
+      <c r="L46" t="s">
+        <v>117</v>
+      </c>
+      <c r="M46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I47" t="s">
+        <v>122</v>
+      </c>
+      <c r="J47" t="s">
+        <v>123</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H50" t="s">
+        <v>133</v>
+      </c>
+      <c r="I50" t="s">
+        <v>130</v>
+      </c>
+      <c r="L50" t="s">
+        <v>129</v>
+      </c>
+      <c r="M50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H51" t="s">
+        <v>137</v>
+      </c>
+      <c r="I51" t="s">
+        <v>135</v>
+      </c>
+      <c r="L51" t="s">
+        <v>134</v>
+      </c>
+      <c r="M51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/BasicTypes/Dictionary/RawData.xlsx
+++ b/BasicTypes/Dictionary/RawData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="611">
   <si>
     <t>a</t>
   </si>
@@ -430,6 +430,1425 @@
   </si>
   <si>
     <t>eblas, ke</t>
+  </si>
+  <si>
+    <t>kepeken</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>prep</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>uzi</t>
+  </si>
+  <si>
+    <t>kili</t>
+  </si>
+  <si>
+    <t>fruit, pulpy vegetable, mushroom</t>
+  </si>
+  <si>
+    <t>frukto, pulpa legomo, fungo</t>
+  </si>
+  <si>
+    <t>also, too, even, indeed</t>
+  </si>
+  <si>
+    <t>kin</t>
+  </si>
+  <si>
+    <t>ankaŭ, eĉ, ja</t>
+  </si>
+  <si>
+    <t>indeed</t>
+  </si>
+  <si>
+    <t>kipisi</t>
+  </si>
+  <si>
+    <t>to cut</t>
+  </si>
+  <si>
+    <t>kiwen</t>
+  </si>
+  <si>
+    <t>hard, solid, stone-like, made of stone, made of metal</t>
+  </si>
+  <si>
+    <t>hard thing, rock, stone, metal, mineral, clay</t>
+  </si>
+  <si>
+    <t>malmola, dura, solida, ŝton(ec)a, metala</t>
+  </si>
+  <si>
+    <t>malmolaĵo, ŝtono, metalo, mineralo, argilo</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>semi-solid or squishy substance, e.g. paste, powder, gum</t>
+  </si>
+  <si>
+    <t>duonsolida aŭ premebla substanco, ekz. pasto, pulvoro, gumo</t>
+  </si>
+  <si>
+    <t>kon</t>
+  </si>
+  <si>
+    <t>air, wind, smell, soul</t>
+  </si>
+  <si>
+    <t>air-like, ethereal, gaseous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aero, vento, odoro, animo </t>
+  </si>
+  <si>
+    <t>aera, gasa</t>
+  </si>
+  <si>
+    <t>kule</t>
+  </si>
+  <si>
+    <t>colour, paint</t>
+  </si>
+  <si>
+    <t>colourful</t>
+  </si>
+  <si>
+    <t>koloro, farbo</t>
+  </si>
+  <si>
+    <t>kolora, bunta</t>
+  </si>
+  <si>
+    <t>kolori, farbi</t>
+  </si>
+  <si>
+    <t>kute</t>
+  </si>
+  <si>
+    <t>listen, hear</t>
+  </si>
+  <si>
+    <t>auditory, hearing</t>
+  </si>
+  <si>
+    <t>aŭskulti, aŭdi</t>
+  </si>
+  <si>
+    <t>aŭda, aŭskulta</t>
+  </si>
+  <si>
+    <t>group, community, society, company, people</t>
+  </si>
+  <si>
+    <t>communal, shared, public, of the society</t>
+  </si>
+  <si>
+    <t>grupo, komunumo, socio, firmao, popolo</t>
+  </si>
+  <si>
+    <t>komuna, publika, socia</t>
+  </si>
+  <si>
+    <t>kulupu</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>lape</t>
+  </si>
+  <si>
+    <t>sleep, rest</t>
+  </si>
+  <si>
+    <t>dormi, ripozi a dormanta, dorma, ripoza</t>
+  </si>
+  <si>
+    <t>sleeping, of sleep</t>
+  </si>
+  <si>
+    <t>dormo, ripozo</t>
+  </si>
+  <si>
+    <t>laso</t>
+  </si>
+  <si>
+    <t>blue, blue-green</t>
+  </si>
+  <si>
+    <t>blua, bluverda</t>
+  </si>
+  <si>
+    <t>lawa</t>
+  </si>
+  <si>
+    <t>head, mind</t>
+  </si>
+  <si>
+    <t>main, leading, in charge</t>
+  </si>
+  <si>
+    <t>lead, control, rule, steer</t>
+  </si>
+  <si>
+    <t>kapo, menso</t>
+  </si>
+  <si>
+    <t>ĉefa, estra</t>
+  </si>
+  <si>
+    <t>estri, regi</t>
+  </si>
+  <si>
+    <t>len</t>
+  </si>
+  <si>
+    <t>clothing, cloth, fabric</t>
+  </si>
+  <si>
+    <t>vesto(j), vestaĵo, ŝtofo</t>
+  </si>
+  <si>
+    <t>lete</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>malvarmo</t>
+  </si>
+  <si>
+    <t>cold, uncooked</t>
+  </si>
+  <si>
+    <t>cool down, chill</t>
+  </si>
+  <si>
+    <t>malvarma, frida, nekuirita</t>
+  </si>
+  <si>
+    <t>malvarmigi</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>lili</t>
+  </si>
+  <si>
+    <t>small, little, young, a bit, short, few, less</t>
+  </si>
+  <si>
+    <t>reduce, shorten, shrink, lessen</t>
+  </si>
+  <si>
+    <t>malgranda, eta, juna, iomete, mallonga, malalta, malmulte, malpli</t>
+  </si>
+  <si>
+    <t>malpliigi, mallongigi, malgrandigi</t>
+  </si>
+  <si>
+    <t>linja</t>
+  </si>
+  <si>
+    <t>long, very thin, floppy thing, string, rope, hair, thread, cord, chain</t>
+  </si>
+  <si>
+    <t>longa, tre maldika, malfirma objekto,  ŝnuro, haro(j), ĉeno</t>
+  </si>
+  <si>
+    <t>lipu</t>
+  </si>
+  <si>
+    <t>flat and bendable thing, paper, card, ticket</t>
+  </si>
+  <si>
+    <t>plata kaj faldebla objekto,  papero, karto, bileto</t>
+  </si>
+  <si>
+    <t>loje</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>ruĝa</t>
+  </si>
+  <si>
+    <t>luka</t>
+  </si>
+  <si>
+    <t>hand, arm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mano, brako</t>
+  </si>
+  <si>
+    <t>lukin</t>
+  </si>
+  <si>
+    <t>see, look at, watch, read</t>
+  </si>
+  <si>
+    <t>look, watch out, pay attention</t>
+  </si>
+  <si>
+    <t>visual,visually</t>
+  </si>
+  <si>
+    <t>vidi, rigardi, spekti, observi, legi</t>
+  </si>
+  <si>
+    <t>rigardi, atenti</t>
+  </si>
+  <si>
+    <t>vida, vide</t>
+  </si>
+  <si>
+    <t>lupa</t>
+  </si>
+  <si>
+    <t>hole, orifice, window, door</t>
+  </si>
+  <si>
+    <t>truo, aperturo, orifico, fenestro, pordo</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>tero, lando, ekstera tereno, tereno</t>
+  </si>
+  <si>
+    <t>land, earth, country, outdoor area, area</t>
+  </si>
+  <si>
+    <t>mama</t>
+  </si>
+  <si>
+    <t>parent, mother, father</t>
+  </si>
+  <si>
+    <t>of the parent, parental, maternal, fatherly</t>
+  </si>
+  <si>
+    <t>patrino, patro</t>
+  </si>
+  <si>
+    <t>gepatra, patra, patrina</t>
+  </si>
+  <si>
+    <t>mani</t>
+  </si>
+  <si>
+    <t>money, material wealth, currency, dollar, capital</t>
+  </si>
+  <si>
+    <t>mono, materia havaĵo, valuto, dolaro, kapitalo</t>
+  </si>
+  <si>
+    <t>meli</t>
+  </si>
+  <si>
+    <t>woman, female, girl, wife, girlfriend</t>
+  </si>
+  <si>
+    <t>female, feminine, womanly</t>
+  </si>
+  <si>
+    <t>ino, virino, edzino, koramikino, femalo</t>
+  </si>
+  <si>
+    <t>ina, ineca</t>
+  </si>
+  <si>
+    <t>mi</t>
+  </si>
+  <si>
+    <t>mi, ni</t>
+  </si>
+  <si>
+    <t>mia, nia</t>
+  </si>
+  <si>
+    <t>I, we</t>
+  </si>
+  <si>
+    <t>my, our</t>
+  </si>
+  <si>
+    <t>mije</t>
+  </si>
+  <si>
+    <t>man, male, boy, husband, boyfriend</t>
+  </si>
+  <si>
+    <t>male, masculine, manly</t>
+  </si>
+  <si>
+    <t>viro, edzo, masklo</t>
+  </si>
+  <si>
+    <t>vira, vireca</t>
+  </si>
+  <si>
+    <t>moku</t>
+  </si>
+  <si>
+    <t>food, meal</t>
+  </si>
+  <si>
+    <t>eat, drink, swallow, ingest, consume</t>
+  </si>
+  <si>
+    <t>manĝo,manĝaĵo</t>
+  </si>
+  <si>
+    <t>manĝi, trinki, gluti, enstomakigi, konsumi</t>
+  </si>
+  <si>
+    <t>moli</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>die, be dead</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>dead, deadly, fatal</t>
+  </si>
+  <si>
+    <t>morto</t>
+  </si>
+  <si>
+    <t>morti, esti morta</t>
+  </si>
+  <si>
+    <t>morta, mortiga</t>
+  </si>
+  <si>
+    <t>mortigi</t>
+  </si>
+  <si>
+    <t>monsi</t>
+  </si>
+  <si>
+    <t>back, rear end, butt, behind</t>
+  </si>
+  <si>
+    <t>back, rear</t>
+  </si>
+  <si>
+    <t>dorso, malantaŭo, pugo</t>
+  </si>
+  <si>
+    <t>dorsa, malantaŭa</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>blek! ŭa! miaŭ! ra!</t>
+  </si>
+  <si>
+    <t>woof! meow! moo! </t>
+  </si>
+  <si>
+    <t>mun</t>
+  </si>
+  <si>
+    <t>moon</t>
+  </si>
+  <si>
+    <t>lunar</t>
+  </si>
+  <si>
+    <t>luno</t>
+  </si>
+  <si>
+    <t>luna</t>
+  </si>
+  <si>
+    <t>musi</t>
+  </si>
+  <si>
+    <t>fun, playing, game, recreation, art, entertainment</t>
+  </si>
+  <si>
+    <t>artful, fun, recreational</t>
+  </si>
+  <si>
+    <t>play, have fun</t>
+  </si>
+  <si>
+    <t>amuse, entertain</t>
+  </si>
+  <si>
+    <t>amuzo, ludo, distaĵo, arto</t>
+  </si>
+  <si>
+    <t>arta, amuza, distra, luda</t>
+  </si>
+  <si>
+    <t>ludi, amuziĝi</t>
+  </si>
+  <si>
+    <t>amuzi, distri</t>
+  </si>
+  <si>
+    <t>mute</t>
+  </si>
+  <si>
+    <t>many, very, much, several, a lot, abundant, numerous, more</t>
+  </si>
+  <si>
+    <t>amount, quantity</t>
+  </si>
+  <si>
+    <t>make many, make much</t>
+  </si>
+  <si>
+    <t>multaj, tre, pluraj, multe, pli da</t>
+  </si>
+  <si>
+    <t>kvanto, multo, kiomo</t>
+  </si>
+  <si>
+    <t>multigi</t>
+  </si>
+  <si>
+    <t>namako</t>
+  </si>
+  <si>
+    <t>extra, addtional, spice</t>
+  </si>
+  <si>
+    <t>nanpa</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
+  <si>
+    <t>nasa</t>
+  </si>
+  <si>
+    <t>silly, crazy, foolish, drunk, strange, stupid, weird</t>
+  </si>
+  <si>
+    <t>drive crazy, make weird</t>
+  </si>
+  <si>
+    <t>freneza, stulta, ebria, stranga</t>
+  </si>
+  <si>
+    <t>frenezigi, strangigi</t>
+  </si>
+  <si>
+    <t>nasin</t>
+  </si>
+  <si>
+    <t>way, manner, custom, road, path, doctrine, system, method</t>
+  </si>
+  <si>
+    <t>maniero, vojo, strato, kutimo, -ismo, sistemo, metodo</t>
+  </si>
+  <si>
+    <t>nena</t>
+  </si>
+  <si>
+    <t>bump, nose, hill, mountain, button</t>
+  </si>
+  <si>
+    <t>elstaraĵo, nazo, monto,monteto, butono</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>this, that</t>
+  </si>
+  <si>
+    <t>tiu, ĉi tiu, ĉi-, jena</t>
+  </si>
+  <si>
+    <t>word, name</t>
+  </si>
+  <si>
+    <t> vorto, nomo</t>
+  </si>
+  <si>
+    <t>nimi</t>
+  </si>
+  <si>
+    <t>noka</t>
+  </si>
+  <si>
+    <t>leg, foot</t>
+  </si>
+  <si>
+    <t> kruro, gambo, piedo</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>he!</t>
+  </si>
+  <si>
+    <t>hey!</t>
+  </si>
+  <si>
+    <t>oko</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>okulo</t>
+  </si>
+  <si>
+    <t>olin</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>to love</t>
+  </si>
+  <si>
+    <t>ama</t>
+  </si>
+  <si>
+    <t>ami</t>
+  </si>
+  <si>
+    <t>ona</t>
+  </si>
+  <si>
+    <t>he, she, it, they</t>
+  </si>
+  <si>
+    <t>she, he, it, they</t>
+  </si>
+  <si>
+    <t>her, his, its, their</t>
+  </si>
+  <si>
+    <t>ŝi, li, ĝi, ili</t>
+  </si>
+  <si>
+    <t>ŝia, lia, ĝia, ilia</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>open, turn on</t>
+  </si>
+  <si>
+    <t>malfermi, ŝalti</t>
+  </si>
+  <si>
+    <t>pakala</t>
+  </si>
+  <si>
+    <t>blunder, accident, mistake, destruction, damage, breaking</t>
+  </si>
+  <si>
+    <t>screw up, fuck up, botch, ruin, break, hurt, injure, damage, spoil, ruin</t>
+  </si>
+  <si>
+    <t>screw up, fall apart, break</t>
+  </si>
+  <si>
+    <t>damn! fuck!</t>
+  </si>
+  <si>
+    <t>fuŝo, akcidento, katastrofo, detruo, eraro, damaĝo, rompo </t>
+  </si>
+  <si>
+    <t>fuŝi, rompi, vundi, damaĝi</t>
+  </si>
+  <si>
+    <t>fuŝiĝi, disfali, rompiĝi </t>
+  </si>
+  <si>
+    <t>fek!</t>
+  </si>
+  <si>
+    <t>pali</t>
+  </si>
+  <si>
+    <t>activity, work, deed, project</t>
+  </si>
+  <si>
+    <t>active, work-related, operating, working</t>
+  </si>
+  <si>
+    <t>do, make, build, create</t>
+  </si>
+  <si>
+    <t>act, work, function</t>
+  </si>
+  <si>
+    <t>agado, ag(ad)o, laboro, faro, projekto </t>
+  </si>
+  <si>
+    <t>aga, labora, aktiva, funkcia</t>
+  </si>
+  <si>
+    <t>fari, konstrui, krei </t>
+  </si>
+  <si>
+    <t>agi, labori, funkcii</t>
+  </si>
+  <si>
+    <t>palisa</t>
+  </si>
+  <si>
+    <t>long and hard object, rod, stick, branch</t>
+  </si>
+  <si>
+    <t>longa kaj  malmola objekto, stango, bastono, branĉo, vergo</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>grain, cereal, bread</t>
+  </si>
+  <si>
+    <t>pana</t>
+  </si>
+  <si>
+    <t>give, put, send, place, release, emit, cause</t>
+  </si>
+  <si>
+    <t>giving, transfer, exchange</t>
+  </si>
+  <si>
+    <t>doni, meti, sendi, eligi, kaŭzi </t>
+  </si>
+  <si>
+    <t>dono, sendado, interŝanĝo</t>
+  </si>
+  <si>
+    <t>pata</t>
+  </si>
+  <si>
+    <t>brother</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>pilin</t>
+  </si>
+  <si>
+    <t>feelings, emotion, heart</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>feel, think, sense, touch</t>
+  </si>
+  <si>
+    <t>sentoj, emocio, koro</t>
+  </si>
+  <si>
+    <t>senti sin</t>
+  </si>
+  <si>
+    <t>senti, opinii, pensi, sensi, tuŝi, palpi</t>
+  </si>
+  <si>
+    <t>pimeja</t>
+  </si>
+  <si>
+    <t>black, dark</t>
+  </si>
+  <si>
+    <t>darkness, shadows</t>
+  </si>
+  <si>
+    <t>darken</t>
+  </si>
+  <si>
+    <t>nigra, malluma, malhela</t>
+  </si>
+  <si>
+    <t>mallumo, nigro</t>
+  </si>
+  <si>
+    <t> mallumigi</t>
+  </si>
+  <si>
+    <t>pini</t>
+  </si>
+  <si>
+    <t>pipi</t>
+  </si>
+  <si>
+    <t>end, tip</t>
+  </si>
+  <si>
+    <t>completed, finished, past, done, ago</t>
+  </si>
+  <si>
+    <t>finish, close, end, turn off</t>
+  </si>
+  <si>
+    <t>fino, ekstremo, pinto</t>
+  </si>
+  <si>
+    <t>fina, finita, pasinta, farita, antaŭ</t>
+  </si>
+  <si>
+    <t>fini, fermi, malŝalti</t>
+  </si>
+  <si>
+    <t>bug, insect, spider</t>
+  </si>
+  <si>
+    <t>insekto, araneo</t>
+  </si>
+  <si>
+    <t>poka</t>
+  </si>
+  <si>
+    <t>in the accompaniment of, with</t>
+  </si>
+  <si>
+    <t>neighbouring</t>
+  </si>
+  <si>
+    <t>side, hip, area next to</t>
+  </si>
+  <si>
+    <t>flanko, kokso, apudo</t>
+  </si>
+  <si>
+    <t>en la akompano de, kun</t>
+  </si>
+  <si>
+    <t>apuda, najbara</t>
+  </si>
+  <si>
+    <t>poki</t>
+  </si>
+  <si>
+    <t>container, box, bowl, cup, glass</t>
+  </si>
+  <si>
+    <t>ujo, skatolo, bovlo, taso, glaso</t>
+  </si>
+  <si>
+    <t>pona</t>
+  </si>
+  <si>
+    <t>good, simplicity, positivity</t>
+  </si>
+  <si>
+    <t>good, simple, positive, nice, correct, right</t>
+  </si>
+  <si>
+    <t>great! good! thanks! OK! cool! yay!</t>
+  </si>
+  <si>
+    <t>improve, fix, repair, make good</t>
+  </si>
+  <si>
+    <t>bona, simplo, pozitivo</t>
+  </si>
+  <si>
+    <t>bona, simpla, pozitiva, afabla, ĝusta</t>
+  </si>
+  <si>
+    <t>bone! bonege! dankon! en ordo!</t>
+  </si>
+  <si>
+    <t>bonigi,plibonigi, ripari</t>
+  </si>
+  <si>
+    <t>sama</t>
+  </si>
+  <si>
+    <t>seli</t>
+  </si>
+  <si>
+    <t>selo</t>
+  </si>
+  <si>
+    <t>seme</t>
+  </si>
+  <si>
+    <t>sewi</t>
+  </si>
+  <si>
+    <t>sijelo</t>
+  </si>
+  <si>
+    <t>sike</t>
+  </si>
+  <si>
+    <t>sin</t>
+  </si>
+  <si>
+    <t>sina</t>
+  </si>
+  <si>
+    <t>sinpin</t>
+  </si>
+  <si>
+    <t>sitelen</t>
+  </si>
+  <si>
+    <t>sona</t>
+  </si>
+  <si>
+    <t>soweli</t>
+  </si>
+  <si>
+    <t>suli</t>
+  </si>
+  <si>
+    <t>suno</t>
+  </si>
+  <si>
+    <t>supa</t>
+  </si>
+  <si>
+    <t>suwi</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>taso</t>
+  </si>
+  <si>
+    <t>tawa</t>
+  </si>
+  <si>
+    <t>telo</t>
+  </si>
+  <si>
+    <t>tenpo</t>
+  </si>
+  <si>
+    <t>toki</t>
+  </si>
+  <si>
+    <t>tomo</t>
+  </si>
+  <si>
+    <t>tu</t>
+  </si>
+  <si>
+    <t>unpa</t>
+  </si>
+  <si>
+    <t>uta</t>
+  </si>
+  <si>
+    <t>utala</t>
+  </si>
+  <si>
+    <t>walo</t>
+  </si>
+  <si>
+    <t>wan</t>
+  </si>
+  <si>
+    <t>waso</t>
+  </si>
+  <si>
+    <t>wawa</t>
+  </si>
+  <si>
+    <t>weka</t>
+  </si>
+  <si>
+    <t>wile</t>
+  </si>
+  <si>
+    <t>to want, need, wish, have to, must, will, should</t>
+  </si>
+  <si>
+    <t>desire, need, will</t>
+  </si>
+  <si>
+    <t>necessary</t>
+  </si>
+  <si>
+    <t>voli, bezoni, deziri, devi</t>
+  </si>
+  <si>
+    <t>deziro, bezono, devo, volo </t>
+  </si>
+  <si>
+    <t>necesa, deviga, bezonata</t>
+  </si>
+  <si>
+    <t>away, absent, missing</t>
+  </si>
+  <si>
+    <t>absence</t>
+  </si>
+  <si>
+    <t>throw away, remove, get rid of</t>
+  </si>
+  <si>
+    <t>fora, forestanta, mankanta</t>
+  </si>
+  <si>
+    <t>foresto, manko</t>
+  </si>
+  <si>
+    <t> forigi</t>
+  </si>
+  <si>
+    <t>energy, strength, power</t>
+  </si>
+  <si>
+    <t>energetic, strong, fierce, intense, sure, confident</t>
+  </si>
+  <si>
+    <t>strengthen, energize, empower</t>
+  </si>
+  <si>
+    <t>energio, potenco, forto, vigleco</t>
+  </si>
+  <si>
+    <t>energia, forta, intensa, potenca, certa, memfida</t>
+  </si>
+  <si>
+    <t>fortigi, vigligi</t>
+  </si>
+  <si>
+    <t>bird, winged animal</t>
+  </si>
+  <si>
+    <t>birdo, flugilhava besto</t>
+  </si>
+  <si>
+    <t>one, a</t>
+  </si>
+  <si>
+    <t>unit, element, particle, part, piece</t>
+  </si>
+  <si>
+    <t>unite, make one</t>
+  </si>
+  <si>
+    <t>unu, iu</t>
+  </si>
+  <si>
+    <t>unuo, elemento, ero, parto, peco</t>
+  </si>
+  <si>
+    <t>unuigi</t>
+  </si>
+  <si>
+    <t>white, light colored</t>
+  </si>
+  <si>
+    <t>white thing or part, whiteness, lightness</t>
+  </si>
+  <si>
+    <t>blanka, hela</t>
+  </si>
+  <si>
+    <t>blanko, blankaĵo, blankeco, heleco</t>
+  </si>
+  <si>
+    <t>conflict, disharmony, competition, fight, war, battle, attack, blow, argument, physical or verbal violence</t>
+  </si>
+  <si>
+    <t>hit, strike, attack, compete against</t>
+  </si>
+  <si>
+    <t>konflikto, malharmonio, konkuro, batalo, milito, atako, disputo, fizika aŭ verba perforto</t>
+  </si>
+  <si>
+    <t>bati, frapi, ataki, konkuri kun, atenci</t>
+  </si>
+  <si>
+    <t>mouth</t>
+  </si>
+  <si>
+    <t>oral</t>
+  </si>
+  <si>
+    <t>buŝo</t>
+  </si>
+  <si>
+    <t>buŝa</t>
+  </si>
+  <si>
+    <t>sex, sexuality</t>
+  </si>
+  <si>
+    <t>erotic, sexual</t>
+  </si>
+  <si>
+    <t>have sex with, sleep with, fuck</t>
+  </si>
+  <si>
+    <t>have sex</t>
+  </si>
+  <si>
+    <t>amori, seksumi</t>
+  </si>
+  <si>
+    <t>seksumi kun, amori kun, fiki</t>
+  </si>
+  <si>
+    <t>erotika, seksuma, amora</t>
+  </si>
+  <si>
+    <t>seksumo, amoro, fikado, volupto</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>duo, pair</t>
+  </si>
+  <si>
+    <t>double, separate, cut, divide in two</t>
+  </si>
+  <si>
+    <t>du</t>
+  </si>
+  <si>
+    <t>duo, paro</t>
+  </si>
+  <si>
+    <t>duobligi, duigi, dividi, tranĉi en du</t>
+  </si>
+  <si>
+    <t>indoor constructed space, house, home, room, building</t>
+  </si>
+  <si>
+    <t>urban, domestic, household</t>
+  </si>
+  <si>
+    <t>interna konstruita spaco, ekz. domo, hejmo, ĉambro, konstruaĵ</t>
+  </si>
+  <si>
+    <t>urba, doma, hejma</t>
+  </si>
+  <si>
+    <t>language, talking, speech, communication</t>
+  </si>
+  <si>
+    <t>talking, verbal</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>talk, chat, communicate</t>
+  </si>
+  <si>
+    <t>hello! hi!</t>
+  </si>
+  <si>
+    <t>lingvo, parolado, komunikado </t>
+  </si>
+  <si>
+    <t>parola, lingva, komunika</t>
+  </si>
+  <si>
+    <t>diri</t>
+  </si>
+  <si>
+    <t>paroli, babili, komuniki</t>
+  </si>
+  <si>
+    <t>saluton!</t>
+  </si>
+  <si>
+    <t>time, period of time, moment, duration, situation</t>
+  </si>
+  <si>
+    <t>tempo, tempoperiodo, momento, daŭro, situacio</t>
+  </si>
+  <si>
+    <t>water, liquid, juice, sauce</t>
+  </si>
+  <si>
+    <t>water, wash with water</t>
+  </si>
+  <si>
+    <t>akvo, likvaĵo, suko, saŭco </t>
+  </si>
+  <si>
+    <t>akvumi, lavi per akvo</t>
+  </si>
+  <si>
+    <t>to, in order to, towards, for, until</t>
+  </si>
+  <si>
+    <t>go to, walk, travel, move, leave</t>
+  </si>
+  <si>
+    <t>movement, transportation</t>
+  </si>
+  <si>
+    <t>moving, mobile</t>
+  </si>
+  <si>
+    <t>move, displace</t>
+  </si>
+  <si>
+    <t>al, por, ĝis</t>
+  </si>
+  <si>
+    <t>iri al, vojaĝi, moviĝi, foriri</t>
+  </si>
+  <si>
+    <t>movo, transportado</t>
+  </si>
+  <si>
+    <t>mova</t>
+  </si>
+  <si>
+    <t>movi</t>
+  </si>
+  <si>
+    <t>only, sole</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>nur, nura, sola</t>
+  </si>
+  <si>
+    <t>sed</t>
+  </si>
+  <si>
+    <t>from, by, because of, since</t>
+  </si>
+  <si>
+    <t>de, pro, el </t>
+  </si>
+  <si>
+    <t>deveno, kialo, origino</t>
+  </si>
+  <si>
+    <t>origin, cause</t>
+  </si>
+  <si>
+    <t>candy, sweet food</t>
+  </si>
+  <si>
+    <t>sweet, cute</t>
+  </si>
+  <si>
+    <t>sweeten</t>
+  </si>
+  <si>
+    <t>dolĉaĵo</t>
+  </si>
+  <si>
+    <t>dolĉa, aminda</t>
+  </si>
+  <si>
+    <t>dolĉigi</t>
+  </si>
+  <si>
+    <t>horizontal surface, furniture, table, chair, pillow, floor</t>
+  </si>
+  <si>
+    <t>horizontala supraĵo,  meblo, tablo, seĝo, kuseno, planko</t>
+  </si>
+  <si>
+    <t>sun, light</t>
+  </si>
+  <si>
+    <t>suno, lumo</t>
+  </si>
+  <si>
+    <t>big, tall, long, adult, important</t>
+  </si>
+  <si>
+    <t>enlarge, lengthen</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t> granda, alta, longa, plenaĝa, grava</t>
+  </si>
+  <si>
+    <t>grandigi, longigi</t>
+  </si>
+  <si>
+    <t>grandeco</t>
+  </si>
+  <si>
+    <t>animal,  land mammal, lovable animal</t>
+  </si>
+  <si>
+    <t>besto,  tera mambesto, aminda besto</t>
+  </si>
+  <si>
+    <t>knowledge, wisdom, intelligence, understanding</t>
+  </si>
+  <si>
+    <t>know, understand, know how to</t>
+  </si>
+  <si>
+    <t>know, understand</t>
+  </si>
+  <si>
+    <t>learn, study</t>
+  </si>
+  <si>
+    <t>scioj, saĝeco, inteligenteco, kompreno</t>
+  </si>
+  <si>
+    <t>scii, kompreni, koni</t>
+  </si>
+  <si>
+    <t>scii, kompreni</t>
+  </si>
+  <si>
+    <t>lerni, studi</t>
+  </si>
+  <si>
+    <t>picture, image</t>
+  </si>
+  <si>
+    <t>draw, write</t>
+  </si>
+  <si>
+    <t>bildo, foto, imago, desegno</t>
+  </si>
+  <si>
+    <t>desegni, skribi</t>
+  </si>
+  <si>
+    <t>front, chest, torso, face, wall</t>
+  </si>
+  <si>
+    <t>antaŭo, brusto, torso, vizaĝo, muro</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>new, fresh, another, more</t>
+  </si>
+  <si>
+    <t>renew, renovate, freshen</t>
+  </si>
+  <si>
+    <t>nova, freŝa, alia, ankorŭ (da) </t>
+  </si>
+  <si>
+    <t>novigi,renovigi</t>
+  </si>
+  <si>
+    <t>circle, wheel, sphere, ball, cycle</t>
+  </si>
+  <si>
+    <t>round, cyclical</t>
+  </si>
+  <si>
+    <t>rondo, cirklo, rado, sfero, bulo, pilko, cikloronda, cikla</t>
+  </si>
+  <si>
+    <t>ronda, cikla</t>
+  </si>
+  <si>
+    <t>body, physical state</t>
+  </si>
+  <si>
+    <t>korpo, fizika stato</t>
+  </si>
+  <si>
+    <t>high, up, above, top, over, on</t>
+  </si>
+  <si>
+    <t>superior, elevated, religious, formal</t>
+  </si>
+  <si>
+    <t>alto, supro, supero, suro</t>
+  </si>
+  <si>
+    <t>supera, alta, nobla, religia, formala</t>
+  </si>
+  <si>
+    <t>what, which</t>
+  </si>
+  <si>
+    <t>ki-x</t>
+  </si>
+  <si>
+    <t>outside, surface, skin, shell, bark, shape, peel</t>
+  </si>
+  <si>
+    <t>ekstero, supraĵo, haŭto, ŝelo, formo</t>
+  </si>
+  <si>
+    <t>fire, warmth, heat</t>
+  </si>
+  <si>
+    <t>hot, warm, cooked</t>
+  </si>
+  <si>
+    <t>heat, warm up, cook</t>
+  </si>
+  <si>
+    <t>fajro, varmo</t>
+  </si>
+  <si>
+    <t>varma, kuirita</t>
+  </si>
+  <si>
+    <t>varmigi, kuiri</t>
+  </si>
+  <si>
+    <t>same, similar, equal, of equal status or position</t>
+  </si>
+  <si>
+    <t>like, as, seem</t>
+  </si>
+  <si>
+    <t>sama, simila, egala, samgrava, samsituacia</t>
+  </si>
+  <si>
+    <t>kiel, ŝajni</t>
   </si>
 </sst>
 </file>
@@ -484,11 +1903,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,21 +2215,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:N247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="8" width="27.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
+    <col min="6" max="6" width="42.140625" customWidth="1"/>
+    <col min="9" max="13" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -812,381 +2239,384 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="L2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="L3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="I4" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" t="s">
+      <c r="E9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="I10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="I11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="I12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="I13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
       <c r="E14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="M14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="M15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="E16" s="1" t="s">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="M16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="E17" s="2" t="s">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="M17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L18" t="s">
+      <c r="E18" t="s">
         <v>48</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C20" t="s">
+      <c r="N20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s">
+      <c r="N21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E22" t="s">
+      <c r="M22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E23" t="s">
+      <c r="M23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I25" t="s">
+      <c r="C25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1194,7 +2624,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1202,7 +2632,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1210,22 +2640,22 @@
         <v>61</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1233,72 +2663,72 @@
         <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="B32" t="s">
         <v>75</v>
       </c>
-      <c r="I32" t="s">
+      <c r="C32" t="s">
         <v>76</v>
       </c>
-      <c r="J32" t="s">
+      <c r="D32" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>75</v>
       </c>
-      <c r="I33" t="s">
+      <c r="C33" t="s">
         <v>78</v>
       </c>
-      <c r="J33" t="s">
+      <c r="D33" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1306,19 +2736,19 @@
         <v>88</v>
       </c>
       <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
+      <c r="L34" t="s">
         <v>85</v>
       </c>
-      <c r="I34" t="s">
-        <v>86</v>
-      </c>
-      <c r="J34" t="s">
-        <v>87</v>
-      </c>
-      <c r="L34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1326,651 +2756,2999 @@
         <v>88</v>
       </c>
       <c r="C35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" t="s">
+        <v>83</v>
+      </c>
+      <c r="L35" t="s">
         <v>80</v>
       </c>
-      <c r="I35" t="s">
-        <v>82</v>
-      </c>
-      <c r="J35" t="s">
-        <v>81</v>
-      </c>
-      <c r="L35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F36" t="s">
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" t="s">
         <v>92</v>
       </c>
-      <c r="I36" t="s">
-        <v>90</v>
-      </c>
-      <c r="J36" t="s">
-        <v>93</v>
-      </c>
-      <c r="L36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I37" t="s">
+      <c r="C37" t="s">
         <v>95</v>
       </c>
-      <c r="J37" t="s">
+      <c r="D37" t="s">
         <v>96</v>
       </c>
-      <c r="L37" t="s">
+      <c r="E37" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
       <c r="B38" t="s">
         <v>98</v>
       </c>
-      <c r="J38" t="s">
+      <c r="D38" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
       <c r="B39" t="s">
         <v>98</v>
       </c>
-      <c r="J39" t="s">
+      <c r="D39" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I40" t="s">
+      <c r="C40" t="s">
         <v>103</v>
       </c>
-      <c r="L40" t="s">
+      <c r="E40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I41" t="s">
+      <c r="C41" t="s">
         <v>105</v>
       </c>
-      <c r="L41" t="s">
+      <c r="E41" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I42" t="s">
+      <c r="C42" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I43" t="s">
+      <c r="C43" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I44" t="s">
+      <c r="C44" t="s">
         <v>110</v>
       </c>
-      <c r="L44" t="s">
+      <c r="E44" t="s">
         <v>114</v>
       </c>
-      <c r="M44" t="s">
+      <c r="F44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I45" t="s">
+      <c r="C45" t="s">
         <v>111</v>
       </c>
-      <c r="L45" t="s">
+      <c r="E45" t="s">
         <v>113</v>
       </c>
-      <c r="M45" t="s">
+      <c r="F45" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I46" t="s">
+      <c r="C46" t="s">
         <v>118</v>
       </c>
-      <c r="J46" t="s">
+      <c r="D46" t="s">
         <v>119</v>
       </c>
-      <c r="L46" t="s">
+      <c r="E46" t="s">
         <v>117</v>
       </c>
-      <c r="M46" t="s">
+      <c r="F46" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I47" t="s">
+      <c r="C47" t="s">
         <v>122</v>
       </c>
-      <c r="J47" t="s">
+      <c r="D47" t="s">
         <v>123</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="M47" t="s">
+      <c r="F47" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I48" t="s">
+      <c r="C48" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I49" t="s">
+      <c r="C49" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H50" t="s">
+      <c r="C50" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" t="s">
+        <v>131</v>
+      </c>
+      <c r="K50" t="s">
         <v>133</v>
       </c>
-      <c r="I50" t="s">
-        <v>130</v>
-      </c>
-      <c r="L50" t="s">
-        <v>129</v>
-      </c>
-      <c r="M50" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H51" t="s">
+      <c r="C51" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" t="s">
+        <v>134</v>
+      </c>
+      <c r="F51" t="s">
+        <v>136</v>
+      </c>
+      <c r="K51" t="s">
         <v>137</v>
       </c>
-      <c r="I51" t="s">
-        <v>135</v>
-      </c>
-      <c r="L51" t="s">
-        <v>134</v>
-      </c>
-      <c r="M51" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" t="s">
+        <v>139</v>
+      </c>
+      <c r="H52" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" t="s">
+        <v>143</v>
+      </c>
+      <c r="H53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K57" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" t="s">
+        <v>168</v>
+      </c>
+      <c r="E66" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" t="s">
+        <v>169</v>
+      </c>
+      <c r="D67" t="s">
+        <v>170</v>
+      </c>
+      <c r="E67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D68" t="s">
+        <v>174</v>
+      </c>
+      <c r="E68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D69" t="s">
+        <v>176</v>
+      </c>
+      <c r="E69" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C70" t="s">
+        <v>177</v>
+      </c>
+      <c r="D70" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" t="s">
+        <v>179</v>
+      </c>
+      <c r="D71" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="N72" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="N73" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" t="s">
+        <v>184</v>
+      </c>
+      <c r="D74" t="s">
+        <v>186</v>
+      </c>
+      <c r="F74" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C75" t="s">
+        <v>187</v>
+      </c>
+      <c r="F75" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D78" t="s">
+        <v>193</v>
+      </c>
+      <c r="E78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C79" t="s">
+        <v>195</v>
+      </c>
+      <c r="D79" t="s">
+        <v>196</v>
+      </c>
+      <c r="E79" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C80" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C81" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C82" t="s">
+        <v>202</v>
+      </c>
+      <c r="D82" t="s">
+        <v>204</v>
+      </c>
+      <c r="E82" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C83" t="s">
+        <v>203</v>
+      </c>
+      <c r="D83" t="s">
+        <v>206</v>
+      </c>
+      <c r="E83" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D86" t="s">
+        <v>210</v>
+      </c>
+      <c r="E86" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D87" t="s">
+        <v>212</v>
+      </c>
+      <c r="E87" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C88" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C89" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D92" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D93" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C94" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C95" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D96" t="s">
+        <v>229</v>
+      </c>
+      <c r="E96" t="s">
+        <v>227</v>
+      </c>
+      <c r="F96" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D97" t="s">
+        <v>232</v>
+      </c>
+      <c r="E97" t="s">
+        <v>230</v>
+      </c>
+      <c r="F97" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C108" t="s">
+        <v>255</v>
+      </c>
+      <c r="D108" t="s">
+        <v>256</v>
+      </c>
+      <c r="I108" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C110" t="s">
+        <v>258</v>
+      </c>
+      <c r="D110" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C111" t="s">
+        <v>260</v>
+      </c>
+      <c r="D111" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C112" t="s">
+        <v>263</v>
+      </c>
+      <c r="E112" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C113" t="s">
+        <v>265</v>
+      </c>
+      <c r="E113" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C114" t="s">
+        <v>268</v>
+      </c>
+      <c r="D114" t="s">
+        <v>271</v>
+      </c>
+      <c r="E114" t="s">
+        <v>270</v>
+      </c>
+      <c r="F114" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C115" t="s">
+        <v>272</v>
+      </c>
+      <c r="D115" t="s">
+        <v>274</v>
+      </c>
+      <c r="E115" t="s">
+        <v>275</v>
+      </c>
+      <c r="F115" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C117" t="s">
+        <v>279</v>
+      </c>
+      <c r="D117" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="L119" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C120" t="s">
+        <v>285</v>
+      </c>
+      <c r="D120" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C121" t="s">
+        <v>287</v>
+      </c>
+      <c r="D121" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C122" t="s">
+        <v>290</v>
+      </c>
+      <c r="D122" t="s">
+        <v>291</v>
+      </c>
+      <c r="E122" t="s">
+        <v>293</v>
+      </c>
+      <c r="F122" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C123" t="s">
+        <v>294</v>
+      </c>
+      <c r="D123" t="s">
+        <v>295</v>
+      </c>
+      <c r="E123" t="s">
+        <v>297</v>
+      </c>
+      <c r="F123" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C124" t="s">
+        <v>300</v>
+      </c>
+      <c r="D124" t="s">
+        <v>299</v>
+      </c>
+      <c r="E124" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C125" t="s">
+        <v>303</v>
+      </c>
+      <c r="D125" t="s">
+        <v>302</v>
+      </c>
+      <c r="E125" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B127" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>7</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="L142" t="s">
+        <v>332</v>
+      </c>
+      <c r="N142" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="L143" t="s">
+        <v>331</v>
+      </c>
+      <c r="N143" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C144" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C145" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C146" t="s">
+        <v>337</v>
+      </c>
+      <c r="D146" t="s">
+        <v>337</v>
+      </c>
+      <c r="E146" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C147" t="s">
+        <v>300</v>
+      </c>
+      <c r="D147" t="s">
+        <v>339</v>
+      </c>
+      <c r="E147" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I148" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="L152" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="L153" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="33" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C159" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C162" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>7</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C163" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="N164" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F166" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>7</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C172" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>7</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C173" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C176" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C177" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="33" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="L178" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="L179" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="33" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="I187" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>7</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>7</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>7</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C196" t="s">
+        <v>580</v>
+      </c>
+      <c r="D196" t="s">
+        <v>581</v>
+      </c>
+      <c r="I196" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>7</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C197" t="s">
+        <v>24</v>
+      </c>
+      <c r="D197" t="s">
+        <v>582</v>
+      </c>
+      <c r="I197" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>7</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>7</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J202" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>7</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="J203" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>7</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C206" t="s">
+        <v>560</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>7</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>7</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>7</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>7</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="H215" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="M216" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>7</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="M217" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>5</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="H219" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>5</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>7</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>5</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>7</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>5</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="L224" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>7</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="L225" s="5" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>7</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>5</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C228" t="s">
+        <v>505</v>
+      </c>
+      <c r="D228" t="s">
+        <v>504</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>7</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D229" t="s">
+        <v>507</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>5</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>7</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>5</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>7</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>5</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>7</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>5</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D236" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>7</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>7</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>5</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>7</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>5</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>7</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>7</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>5</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>7</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/BasicTypes/Dictionary/RawData.xlsx
+++ b/BasicTypes/Dictionary/RawData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="621">
   <si>
     <t>a</t>
   </si>
@@ -414,9 +414,6 @@
     <t>make possible, enable, allow, permit</t>
   </si>
   <si>
-    <t>la-fragment</t>
-  </si>
-  <si>
     <t>it is possible that, maybe</t>
   </si>
   <si>
@@ -1849,6 +1846,39 @@
   </si>
   <si>
     <t>kiel, ŝajni</t>
+  </si>
+  <si>
+    <t>anpa</t>
+  </si>
+  <si>
+    <t>bottom, lower part, under, below, floor, beneath</t>
+  </si>
+  <si>
+    <t>low, lower, bottom, down</t>
+  </si>
+  <si>
+    <t>malsupro, subo, suba parto, planko</t>
+  </si>
+  <si>
+    <t>malsupra, suba</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>be (located) in/at/on</t>
+  </si>
+  <si>
+    <t>be there, be present, be real/true, exist, be awake</t>
+  </si>
+  <si>
+    <t>esti en,ĉe,sur,je</t>
+  </si>
+  <si>
+    <t>ĉeesti, esti tie, veri, ekzisti, esti veka</t>
+  </si>
+  <si>
+    <t>conditional</t>
   </si>
 </sst>
 </file>
@@ -2215,11 +2245,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N247"/>
+  <dimension ref="A1:N251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,7 +2284,7 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I1" t="s">
         <v>91</v>
@@ -2263,7 +2293,7 @@
         <v>104</v>
       </c>
       <c r="K1" t="s">
-        <v>132</v>
+        <v>620</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -2521,44 +2551,54 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>610</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>611</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>610</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>613</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N20" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2566,10 +2606,16 @@
         <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N21" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2577,10 +2623,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="N22" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2588,10 +2634,10 @@
         <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="N23" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2599,10 +2645,10 @@
         <v>5</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>56</v>
+        <v>5</v>
+      </c>
+      <c r="M24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2610,10 +2656,10 @@
         <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" t="s">
-        <v>57</v>
+        <v>5</v>
+      </c>
+      <c r="M25" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2621,7 +2667,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2629,7 +2678,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2637,22 +2689,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2660,22 +2697,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2683,10 +2705,22 @@
         <v>5</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2694,78 +2728,72 @@
         <v>7</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
         <v>75</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>76</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D34" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
         <v>75</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>78</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" t="s">
-        <v>83</v>
-      </c>
-      <c r="L35" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -2773,19 +2801,19 @@
         <v>5</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
-      </c>
-      <c r="I36" t="s">
-        <v>92</v>
+        <v>84</v>
+      </c>
+      <c r="L36" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -2793,66 +2821,78 @@
         <v>7</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" t="s">
+        <v>83</v>
+      </c>
+      <c r="L37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
         <v>95</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
         <v>96</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E39" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
         <v>98</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D40" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
         <v>98</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D41" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -2860,10 +2900,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+      <c r="E42" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -2871,10 +2914,13 @@
         <v>7</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+      <c r="E43" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -2882,16 +2928,10 @@
         <v>5</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" t="s">
-        <v>114</v>
-      </c>
-      <c r="F44" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -2899,16 +2939,10 @@
         <v>7</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" t="s">
-        <v>113</v>
-      </c>
-      <c r="F45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -2916,19 +2950,16 @@
         <v>5</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E46" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F46" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -2936,19 +2967,16 @@
         <v>7</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
-      </c>
-      <c r="D47" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
+      </c>
+      <c r="E47" t="s">
+        <v>113</v>
       </c>
       <c r="F47" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -2956,10 +2984,19 @@
         <v>5</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>118</v>
+      </c>
+      <c r="D48" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -2967,10 +3004,19 @@
         <v>7</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>122</v>
+      </c>
+      <c r="D49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -2978,19 +3024,10 @@
         <v>5</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
-      </c>
-      <c r="E50" t="s">
-        <v>129</v>
-      </c>
-      <c r="F50" t="s">
-        <v>131</v>
-      </c>
-      <c r="K50" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -2998,69 +3035,78 @@
         <v>7</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" t="s">
+        <v>129</v>
+      </c>
+      <c r="F52" t="s">
+        <v>131</v>
+      </c>
+      <c r="K52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" t="s">
         <v>135</v>
       </c>
-      <c r="E51" t="s">
-        <v>134</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="K53" t="s">
         <v>136</v>
       </c>
-      <c r="K51" t="s">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="E54" t="s">
         <v>138</v>
       </c>
-      <c r="E52" t="s">
+      <c r="H54" t="s">
         <v>139</v>
       </c>
-      <c r="H52" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" t="s">
-        <v>138</v>
-      </c>
-      <c r="E53" t="s">
-        <v>143</v>
-      </c>
-      <c r="H53" t="s">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C54" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C55" t="s">
-        <v>146</v>
+      <c r="H55" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3068,10 +3114,10 @@
         <v>5</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
+      </c>
+      <c r="C56" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3079,13 +3125,10 @@
         <v>7</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="K57" t="s">
-        <v>150</v>
+        <v>143</v>
+      </c>
+      <c r="C57" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3093,10 +3136,10 @@
         <v>5</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D58" t="s">
-        <v>152</v>
+        <v>147</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3104,10 +3147,13 @@
         <v>7</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D59" t="s">
-        <v>58</v>
+        <v>147</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K59" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3115,13 +3161,10 @@
         <v>5</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C60" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D60" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3129,13 +3172,10 @@
         <v>7</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C61" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D61" t="s">
-        <v>156</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3143,10 +3183,13 @@
         <v>5</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
+      </c>
+      <c r="C62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3154,10 +3197,13 @@
         <v>7</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
+      </c>
+      <c r="C63" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3165,13 +3211,10 @@
         <v>5</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3179,13 +3222,10 @@
         <v>7</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C65" t="s">
-        <v>164</v>
-      </c>
-      <c r="D65" t="s">
-        <v>165</v>
+        <v>157</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3193,16 +3233,13 @@
         <v>5</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C66" t="s">
-        <v>167</v>
-      </c>
-      <c r="D66" t="s">
-        <v>168</v>
-      </c>
-      <c r="E66" t="s">
-        <v>167</v>
+        <v>160</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3210,16 +3247,13 @@
         <v>7</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C67" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D67" t="s">
-        <v>170</v>
-      </c>
-      <c r="E67" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3227,13 +3261,16 @@
         <v>5</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
+      </c>
+      <c r="C68" t="s">
+        <v>166</v>
       </c>
       <c r="D68" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E68" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3241,13 +3278,16 @@
         <v>7</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
+      </c>
+      <c r="C69" t="s">
+        <v>168</v>
       </c>
       <c r="D69" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E69" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3255,13 +3295,13 @@
         <v>5</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C70" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D70" t="s">
-        <v>178</v>
+        <v>173</v>
+      </c>
+      <c r="E70" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3269,13 +3309,13 @@
         <v>7</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C71" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D71" t="s">
-        <v>180</v>
+        <v>175</v>
+      </c>
+      <c r="E71" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3283,10 +3323,13 @@
         <v>5</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="N72" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="C72" t="s">
+        <v>176</v>
+      </c>
+      <c r="D72" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3294,10 +3337,13 @@
         <v>7</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="N73" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="C73" t="s">
+        <v>178</v>
+      </c>
+      <c r="D73" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3305,16 +3351,10 @@
         <v>5</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C74" t="s">
-        <v>184</v>
-      </c>
-      <c r="D74" t="s">
-        <v>186</v>
-      </c>
-      <c r="F74" t="s">
-        <v>184</v>
+        <v>181</v>
+      </c>
+      <c r="N74" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3322,13 +3362,10 @@
         <v>7</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C75" t="s">
-        <v>187</v>
-      </c>
-      <c r="F75" t="s">
-        <v>185</v>
+        <v>181</v>
+      </c>
+      <c r="N75" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3336,10 +3373,16 @@
         <v>5</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
+      </c>
+      <c r="C76" t="s">
+        <v>183</v>
+      </c>
+      <c r="D76" t="s">
+        <v>185</v>
+      </c>
+      <c r="F76" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3347,10 +3390,13 @@
         <v>7</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
+      </c>
+      <c r="C77" t="s">
+        <v>186</v>
+      </c>
+      <c r="F77" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3358,16 +3404,10 @@
         <v>5</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D78" t="s">
-        <v>193</v>
-      </c>
-      <c r="E78" t="s">
-        <v>194</v>
+        <v>187</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3375,16 +3415,10 @@
         <v>7</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C79" t="s">
-        <v>195</v>
-      </c>
-      <c r="D79" t="s">
-        <v>196</v>
-      </c>
-      <c r="E79" t="s">
-        <v>197</v>
+        <v>187</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3392,204 +3426,213 @@
         <v>5</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D80" t="s">
+        <v>192</v>
+      </c>
+      <c r="E80" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" t="s">
+        <v>194</v>
+      </c>
+      <c r="D81" t="s">
+        <v>195</v>
+      </c>
+      <c r="E81" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C82" t="s">
         <v>198</v>
       </c>
-      <c r="C80" t="s">
+    </row>
+    <row r="83" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C83" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C81" t="s">
+    <row r="84" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82" s="3" t="s">
+      <c r="C84" t="s">
         <v>201</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D84" t="s">
+        <v>203</v>
+      </c>
+      <c r="E84" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85" t="s">
         <v>202</v>
       </c>
-      <c r="D82" t="s">
-        <v>204</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="D85" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C83" t="s">
-        <v>203</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="E85" t="s">
         <v>206</v>
       </c>
-      <c r="E83" t="s">
+    </row>
+    <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>5</v>
-      </c>
-      <c r="B84" s="3" t="s">
+    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" s="3" t="s">
+      <c r="D88" t="s">
+        <v>209</v>
+      </c>
+      <c r="E88" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D86" t="s">
-        <v>210</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="D89" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E89" t="s">
         <v>212</v>
       </c>
-      <c r="E87" t="s">
+    </row>
+    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" s="3" t="s">
+      <c r="C90" t="s">
         <v>214</v>
       </c>
-      <c r="C88" t="s">
+    </row>
+    <row r="91" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C91" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C89" t="s">
+    <row r="92" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90" s="3" t="s">
+      <c r="C92" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C90" s="4" t="s">
+    </row>
+    <row r="93" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C91" s="2" t="s">
+    <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>5</v>
-      </c>
-      <c r="B92" s="3" t="s">
+      <c r="D94" t="s">
         <v>220</v>
       </c>
-      <c r="D92" t="s">
+    </row>
+    <row r="95" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D95" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>7</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D93" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>5</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C94" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>7</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C95" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>5</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D96" t="s">
-        <v>229</v>
-      </c>
-      <c r="E96" t="s">
-        <v>227</v>
-      </c>
-      <c r="F96" t="s">
-        <v>228</v>
+        <v>615</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3597,16 +3640,13 @@
         <v>7</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D97" t="s">
-        <v>232</v>
-      </c>
-      <c r="E97" t="s">
-        <v>230</v>
-      </c>
-      <c r="F97" t="s">
-        <v>231</v>
+        <v>615</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3614,10 +3654,10 @@
         <v>5</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
+      </c>
+      <c r="C98" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3625,21 +3665,27 @@
         <v>7</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="C99" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>5</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>238</v>
+        <v>225</v>
+      </c>
+      <c r="D100" t="s">
+        <v>228</v>
+      </c>
+      <c r="E100" t="s">
+        <v>226</v>
+      </c>
+      <c r="F100" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3647,10 +3693,16 @@
         <v>7</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
+      </c>
+      <c r="D101" t="s">
+        <v>231</v>
+      </c>
+      <c r="E101" t="s">
+        <v>229</v>
+      </c>
+      <c r="F101" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3658,13 +3710,10 @@
         <v>5</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3672,13 +3721,10 @@
         <v>7</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="33" x14ac:dyDescent="0.25">
@@ -3686,13 +3732,10 @@
         <v>5</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>246</v>
+        <v>235</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3700,7 +3743,10 @@
         <v>7</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>244</v>
+        <v>235</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3708,13 +3754,13 @@
         <v>5</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3722,30 +3768,27 @@
         <v>7</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>5</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C108" t="s">
-        <v>255</v>
-      </c>
-      <c r="D108" t="s">
-        <v>256</v>
-      </c>
-      <c r="I108" t="s">
-        <v>255</v>
+        <v>243</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3753,13 +3796,7 @@
         <v>7</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3767,13 +3804,13 @@
         <v>5</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C110" t="s">
-        <v>258</v>
-      </c>
-      <c r="D110" t="s">
-        <v>259</v>
+        <v>246</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3781,13 +3818,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C111" t="s">
-        <v>260</v>
-      </c>
-      <c r="D111" t="s">
-        <v>261</v>
+        <v>246</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3795,13 +3832,16 @@
         <v>5</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C112" t="s">
-        <v>263</v>
-      </c>
-      <c r="E112" t="s">
-        <v>264</v>
+        <v>254</v>
+      </c>
+      <c r="D112" t="s">
+        <v>255</v>
+      </c>
+      <c r="I112" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3809,13 +3849,13 @@
         <v>7</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C113" t="s">
-        <v>265</v>
-      </c>
-      <c r="E113" t="s">
-        <v>266</v>
+        <v>251</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3823,19 +3863,13 @@
         <v>5</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C114" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D114" t="s">
-        <v>271</v>
-      </c>
-      <c r="E114" t="s">
-        <v>270</v>
-      </c>
-      <c r="F114" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3843,19 +3877,13 @@
         <v>7</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C115" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D115" t="s">
-        <v>274</v>
-      </c>
-      <c r="E115" t="s">
-        <v>275</v>
-      </c>
-      <c r="F115" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3863,13 +3891,13 @@
         <v>5</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>278</v>
+        <v>261</v>
+      </c>
+      <c r="C116" t="s">
+        <v>262</v>
+      </c>
+      <c r="E116" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3877,13 +3905,13 @@
         <v>7</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C117" t="s">
-        <v>279</v>
-      </c>
-      <c r="D117" t="s">
-        <v>280</v>
+        <v>264</v>
+      </c>
+      <c r="E117" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3891,10 +3919,19 @@
         <v>5</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="L118" s="1" t="s">
-        <v>283</v>
+        <v>266</v>
+      </c>
+      <c r="C118" t="s">
+        <v>267</v>
+      </c>
+      <c r="D118" t="s">
+        <v>270</v>
+      </c>
+      <c r="E118" t="s">
+        <v>269</v>
+      </c>
+      <c r="F118" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3902,10 +3939,19 @@
         <v>7</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="L119" t="s">
-        <v>282</v>
+        <v>266</v>
+      </c>
+      <c r="C119" t="s">
+        <v>271</v>
+      </c>
+      <c r="D119" t="s">
+        <v>273</v>
+      </c>
+      <c r="E119" t="s">
+        <v>274</v>
+      </c>
+      <c r="F119" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3913,13 +3959,13 @@
         <v>5</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C120" t="s">
-        <v>285</v>
-      </c>
-      <c r="D120" t="s">
-        <v>286</v>
+        <v>275</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3927,13 +3973,13 @@
         <v>7</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C121" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D121" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3941,19 +3987,10 @@
         <v>5</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C122" t="s">
-        <v>290</v>
-      </c>
-      <c r="D122" t="s">
-        <v>291</v>
-      </c>
-      <c r="E122" t="s">
-        <v>293</v>
-      </c>
-      <c r="F122" t="s">
-        <v>292</v>
+        <v>280</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3961,19 +3998,10 @@
         <v>7</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C123" t="s">
-        <v>294</v>
-      </c>
-      <c r="D123" t="s">
-        <v>295</v>
-      </c>
-      <c r="E123" t="s">
-        <v>297</v>
-      </c>
-      <c r="F123" t="s">
-        <v>296</v>
+        <v>280</v>
+      </c>
+      <c r="L123" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3981,16 +4009,13 @@
         <v>5</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="C124" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="D124" t="s">
-        <v>299</v>
-      </c>
-      <c r="E124" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3998,16 +4023,13 @@
         <v>7</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="C125" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="D125" t="s">
-        <v>302</v>
-      </c>
-      <c r="E125" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4015,10 +4037,19 @@
         <v>5</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>306</v>
+        <v>288</v>
+      </c>
+      <c r="C126" t="s">
+        <v>289</v>
+      </c>
+      <c r="D126" t="s">
+        <v>290</v>
+      </c>
+      <c r="E126" t="s">
+        <v>292</v>
+      </c>
+      <c r="F126" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4026,7 +4057,19 @@
         <v>7</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>305</v>
+        <v>288</v>
+      </c>
+      <c r="C127" t="s">
+        <v>293</v>
+      </c>
+      <c r="D127" t="s">
+        <v>294</v>
+      </c>
+      <c r="E127" t="s">
+        <v>296</v>
+      </c>
+      <c r="F127" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4034,434 +4077,440 @@
         <v>5</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C128" t="s">
+        <v>299</v>
+      </c>
+      <c r="D128" t="s">
+        <v>298</v>
+      </c>
+      <c r="E128" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C129" t="s">
+        <v>302</v>
+      </c>
+      <c r="D129" t="s">
+        <v>301</v>
+      </c>
+      <c r="E129" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C128" s="1" t="s">
+    </row>
+    <row r="133" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>7</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C129" s="2" t="s">
+    <row r="134" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B130" s="3" t="s">
+      <c r="D134" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="E134" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E130" s="1" t="s">
+    </row>
+    <row r="135" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>7</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D131" s="2" t="s">
+      <c r="E135" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E131" s="2" t="s">
+    </row>
+    <row r="136" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B132" s="3" t="s">
+      <c r="C136" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C132" s="1" t="s">
+    </row>
+    <row r="137" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>7</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C133" s="2" t="s">
+    <row r="138" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B134" s="3" t="s">
+      <c r="C138" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C134" s="1" t="s">
+    </row>
+    <row r="139" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>7</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C135" s="2" t="s">
+    <row r="140" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B136" s="3" t="s">
+      <c r="D140" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D136" s="1" t="s">
+    </row>
+    <row r="141" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>7</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D137" s="2" t="s">
+    <row r="142" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B138" s="3" t="s">
+    <row r="143" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>7</v>
-      </c>
-      <c r="B139" s="3" t="s">
+      <c r="C144" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C140" s="1" t="s">
+      <c r="C145" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>7</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C141" s="2" t="s">
+    <row r="146" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B142" s="3" t="s">
+      <c r="L146" t="s">
+        <v>331</v>
+      </c>
+      <c r="N146" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="L147" t="s">
         <v>330</v>
       </c>
-      <c r="L142" t="s">
+      <c r="N147" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="N142" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>7</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="L143" t="s">
-        <v>331</v>
-      </c>
-      <c r="N143" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B144" s="3" t="s">
+      <c r="C148" t="s">
         <v>333</v>
       </c>
-      <c r="C144" t="s">
+    </row>
+    <row r="149" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C149" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>7</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C145" t="s">
+    <row r="150" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B146" s="3" t="s">
+      <c r="C150" t="s">
         <v>336</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D150" t="s">
+        <v>336</v>
+      </c>
+      <c r="E150" t="s">
         <v>337</v>
       </c>
-      <c r="D146" t="s">
-        <v>337</v>
-      </c>
-      <c r="E146" t="s">
+    </row>
+    <row r="151" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C151" t="s">
+        <v>299</v>
+      </c>
+      <c r="D151" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>7</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C147" t="s">
-        <v>300</v>
-      </c>
-      <c r="D147" t="s">
+      <c r="E151" t="s">
         <v>339</v>
       </c>
-      <c r="E147" t="s">
+    </row>
+    <row r="152" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="3" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B148" s="3" t="s">
+      <c r="C152" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I152" t="s">
         <v>341</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D148" s="1" t="s">
+    </row>
+    <row r="153" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="I148" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>7</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C149" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D149" s="2" t="s">
+    </row>
+    <row r="154" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="3" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B150" s="3" t="s">
+      <c r="E154" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E150" s="1" t="s">
+    </row>
+    <row r="155" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>7</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="E151" s="2" t="s">
+    <row r="156" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" s="3" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B152" s="3" t="s">
+      <c r="C156" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="F156" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="L156" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="L152" s="4" t="s">
+    </row>
+    <row r="157" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>7</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C153" s="2" t="s">
+      <c r="E157" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="L157" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F153" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="L153" s="2" t="s">
+    </row>
+    <row r="158" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B154" s="3" t="s">
+      <c r="C158" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="F158" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F154" s="1" t="s">
+    </row>
+    <row r="159" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>7</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C155" s="2" t="s">
+      <c r="D159" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="E159" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="F159" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="F155" s="2" t="s">
+    </row>
+    <row r="160" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" s="3" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" ht="33" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B156" s="3" t="s">
+      <c r="C160" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>7</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>7</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C159" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>5</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="161" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4469,13 +4518,10 @@
         <v>7</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="162" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4483,10 +4529,10 @@
         <v>5</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C162" t="s">
-        <v>379</v>
+        <v>370</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4494,7 +4540,7 @@
         <v>7</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C163" t="s">
         <v>58</v>
@@ -4505,10 +4551,13 @@
         <v>5</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="N164" t="s">
-        <v>380</v>
+        <v>372</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4516,7 +4565,13 @@
         <v>7</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>380</v>
+        <v>372</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4524,16 +4579,10 @@
         <v>5</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F166" t="s">
-        <v>383</v>
+        <v>377</v>
+      </c>
+      <c r="C166" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4541,16 +4590,10 @@
         <v>7</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>386</v>
+        <v>377</v>
+      </c>
+      <c r="C167" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4558,16 +4601,10 @@
         <v>5</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>391</v>
+        <v>379</v>
+      </c>
+      <c r="N168" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4575,16 +4612,7 @@
         <v>7</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4592,16 +4620,16 @@
         <v>5</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>399</v>
+        <v>383</v>
+      </c>
+      <c r="F170" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="171" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4609,16 +4637,16 @@
         <v>7</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>402</v>
+        <v>386</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4626,10 +4654,16 @@
         <v>5</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C172" t="s">
-        <v>403</v>
+        <v>387</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="173" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4637,10 +4671,16 @@
         <v>7</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C173" t="s">
-        <v>404</v>
+        <v>387</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="174" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4648,16 +4688,16 @@
         <v>5</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4665,16 +4705,16 @@
         <v>7</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="H175" s="2" t="s">
-        <v>410</v>
+        <v>400</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4682,10 +4722,10 @@
         <v>5</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="C176" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4693,30 +4733,27 @@
         <v>7</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="C177" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" ht="33" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>5</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="L178" s="4" t="s">
-        <v>418</v>
+        <v>406</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4724,33 +4761,27 @@
         <v>7</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="L179" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" ht="33" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>5</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="H180" s="1" t="s">
-        <v>608</v>
+        <v>411</v>
+      </c>
+      <c r="C180" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4758,30 +4789,30 @@
         <v>7</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="H181" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+      <c r="C181" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="33" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>5</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>601</v>
+        <v>415</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>602</v>
+        <v>416</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>603</v>
+        <v>418</v>
+      </c>
+      <c r="L182" s="4" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4789,27 +4820,33 @@
         <v>7</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>604</v>
+        <v>419</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>605</v>
+        <v>420</v>
       </c>
       <c r="E183" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="L183" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="33" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C184" s="4" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>599</v>
+      <c r="H184" s="1" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4817,10 +4854,13 @@
         <v>7</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>600</v>
+        <v>608</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4828,10 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="I186" s="1" t="s">
-        <v>597</v>
+        <v>424</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4839,10 +4885,16 @@
         <v>7</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="I187" t="s">
-        <v>598</v>
+        <v>424</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4850,13 +4902,10 @@
         <v>5</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4864,13 +4913,10 @@
         <v>7</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4878,10 +4924,10 @@
         <v>5</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>591</v>
+        <v>426</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4889,10 +4935,10 @@
         <v>7</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>592</v>
+        <v>426</v>
+      </c>
+      <c r="I191" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4900,13 +4946,13 @@
         <v>5</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>587</v>
+        <v>427</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>592</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -4914,13 +4960,13 @@
         <v>7</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -4928,13 +4974,10 @@
         <v>5</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>584</v>
+        <v>428</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -4942,13 +4985,10 @@
         <v>7</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>586</v>
+        <v>428</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -4956,16 +4996,13 @@
         <v>5</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="C196" t="s">
-        <v>580</v>
-      </c>
-      <c r="D196" t="s">
-        <v>581</v>
-      </c>
-      <c r="I196" t="s">
-        <v>580</v>
+        <v>429</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -4973,16 +5010,13 @@
         <v>7</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="C197" t="s">
-        <v>24</v>
-      </c>
-      <c r="D197" t="s">
-        <v>582</v>
-      </c>
-      <c r="I197" t="s">
-        <v>24</v>
+        <v>429</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -4990,10 +5024,13 @@
         <v>5</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>578</v>
+        <v>430</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5001,10 +5038,13 @@
         <v>7</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>579</v>
+        <v>430</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5012,13 +5052,16 @@
         <v>5</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>575</v>
+        <v>431</v>
+      </c>
+      <c r="C200" t="s">
+        <v>579</v>
+      </c>
+      <c r="D200" t="s">
+        <v>580</v>
+      </c>
+      <c r="I200" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5026,13 +5069,16 @@
         <v>7</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>577</v>
+        <v>431</v>
+      </c>
+      <c r="C201" t="s">
+        <v>24</v>
+      </c>
+      <c r="D201" t="s">
+        <v>581</v>
+      </c>
+      <c r="I201" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5040,19 +5086,10 @@
         <v>5</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="J202" s="1" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5060,19 +5097,10 @@
         <v>7</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="J203" s="2" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5080,10 +5108,13 @@
         <v>5</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>564</v>
+        <v>573</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5091,10 +5122,13 @@
         <v>7</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>565</v>
+        <v>575</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5102,16 +5136,19 @@
         <v>5</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C206" t="s">
-        <v>560</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>558</v>
+        <v>434</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>565</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>559</v>
+        <v>566</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5119,16 +5156,19 @@
         <v>7</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>562</v>
+        <v>570</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="J207" s="2" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5136,10 +5176,10 @@
         <v>5</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
     </row>
     <row r="209" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5147,21 +5187,27 @@
         <v>7</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C209" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C210" t="s">
+        <v>559</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>554</v>
+      <c r="E210" s="1" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="211" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5169,10 +5215,16 @@
         <v>7</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>555</v>
+        <v>562</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="212" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5180,16 +5232,10 @@
         <v>5</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5197,30 +5243,21 @@
         <v>7</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="E213" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>553</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="H214" s="1" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="215" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5228,13 +5265,10 @@
         <v>7</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="H215" s="2" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
     </row>
     <row r="216" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5242,13 +5276,16 @@
         <v>5</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>547</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="M216" t="s">
-        <v>541</v>
+        <v>548</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="217" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5256,13 +5293,16 @@
         <v>7</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>550</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="M217" t="s">
-        <v>543</v>
+        <v>551</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="218" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5270,22 +5310,13 @@
         <v>5</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
     </row>
     <row r="219" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5293,22 +5324,13 @@
         <v>7</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
     </row>
     <row r="220" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5316,13 +5338,13 @@
         <v>5</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>527</v>
+        <v>441</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="M220" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="221" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5330,24 +5352,36 @@
         <v>7</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="E221" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="M221" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>5</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="H222" s="1" t="s">
         <v>529</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>5</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="223" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5355,10 +5389,22 @@
         <v>7</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>525</v>
+        <v>536</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="224" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5366,22 +5412,13 @@
         <v>5</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="L224" s="4" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
     </row>
     <row r="225" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5389,36 +5426,24 @@
         <v>7</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="L225" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="33" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C226" s="4" t="s">
         <v>523</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>5</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="227" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5426,13 +5451,10 @@
         <v>7</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="D227" s="5" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
     </row>
     <row r="228" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5440,16 +5462,22 @@
         <v>5</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C228" t="s">
-        <v>505</v>
-      </c>
-      <c r="D228" t="s">
-        <v>504</v>
+        <v>445</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>514</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>506</v>
+        <v>515</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="L228" s="4" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5457,16 +5485,22 @@
         <v>7</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="D229" t="s">
-        <v>507</v>
+        <v>518</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>519</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>509</v>
+        <v>520</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="L229" s="5" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="230" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5474,19 +5508,13 @@
         <v>5</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="F230" s="4" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
     </row>
     <row r="231" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5494,19 +5522,13 @@
         <v>7</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>500</v>
+        <v>511</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="232" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5514,13 +5536,16 @@
         <v>5</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>493</v>
+        <v>447</v>
+      </c>
+      <c r="C232" t="s">
+        <v>504</v>
+      </c>
+      <c r="D232" t="s">
+        <v>503</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="233" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5528,13 +5553,16 @@
         <v>7</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>495</v>
+        <v>507</v>
+      </c>
+      <c r="D233" t="s">
+        <v>506</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="234" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5542,13 +5570,19 @@
         <v>5</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>488</v>
+        <v>495</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>496</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>489</v>
+        <v>497</v>
+      </c>
+      <c r="F234" s="4" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="235" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5556,13 +5590,19 @@
         <v>7</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>490</v>
+        <v>502</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>491</v>
+        <v>500</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="236" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5570,13 +5610,13 @@
         <v>5</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="D236" t="s">
-        <v>484</v>
+        <v>491</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="237" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5584,13 +5624,13 @@
         <v>7</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="238" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5598,16 +5638,13 @@
         <v>5</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D238" s="4" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="239" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5615,16 +5652,13 @@
         <v>7</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5632,10 +5666,13 @@
         <v>5</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>476</v>
+        <v>484</v>
+      </c>
+      <c r="D240" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -5643,27 +5680,30 @@
         <v>7</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C241" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>5</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D242" s="4" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>5</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="E242" s="4" t="s">
-        <v>472</v>
+      <c r="E242" s="1" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -5671,16 +5711,16 @@
         <v>7</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -5688,16 +5728,10 @@
         <v>5</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -5705,33 +5739,27 @@
         <v>7</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E245" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>5</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>5</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="D246" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>458</v>
+        <v>470</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -5739,16 +5767,84 @@
         <v>7</v>
       </c>
       <c r="B247" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>5</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>7</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>5</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E250" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C247" s="2" t="s">
+    </row>
+    <row r="251" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>7</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D251" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D247" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>461</v>
+      <c r="E251" s="2" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/BasicTypes/Dictionary/RawData.xlsx
+++ b/BasicTypes/Dictionary/RawData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="658">
   <si>
     <t>a</t>
   </si>
@@ -75,9 +75,6 @@
     <t>not</t>
   </si>
   <si>
-    <t>ne, neniu</t>
-  </si>
-  <si>
     <t>nenio, neado, nul</t>
   </si>
   <si>
@@ -1879,6 +1876,120 @@
   </si>
   <si>
     <t>conditional</t>
+  </si>
+  <si>
+    <t>ne</t>
+  </si>
+  <si>
+    <t>completely, wholely</t>
+  </si>
+  <si>
+    <t>tute, komplete</t>
+  </si>
+  <si>
+    <t>differently</t>
+  </si>
+  <si>
+    <t>alie, malsame </t>
+  </si>
+  <si>
+    <t>lowly</t>
+  </si>
+  <si>
+    <t>malsupre, sube</t>
+  </si>
+  <si>
+    <t>permanently</t>
+  </si>
+  <si>
+    <t>daŭre</t>
+  </si>
+  <si>
+    <t>badly, negatively, wrongly, evilly, overly complex, unhealthyly</t>
+  </si>
+  <si>
+    <t>malbone, aĉe, malĝuste, malice, tro komplekse,  malsane</t>
+  </si>
+  <si>
+    <t>internally</t>
+  </si>
+  <si>
+    <t>ene, interne</t>
+  </si>
+  <si>
+    <t>dirtily, grossly, filthily</t>
+  </si>
+  <si>
+    <t>malpure, naŭze</t>
+  </si>
+  <si>
+    <t>humanly,  personally</t>
+  </si>
+  <si>
+    <t>home,  persone</t>
+  </si>
+  <si>
+    <t>solidly</t>
+  </si>
+  <si>
+    <t>malmole, solide</t>
+  </si>
+  <si>
+    <t>colourfully</t>
+  </si>
+  <si>
+    <t>kolore, bunte</t>
+  </si>
+  <si>
+    <t>audibly</t>
+  </si>
+  <si>
+    <t>aŭde, aŭskulte</t>
+  </si>
+  <si>
+    <t>communally, publicly</t>
+  </si>
+  <si>
+    <t>komune, publike, socie</t>
+  </si>
+  <si>
+    <t>dorma, ripoza</t>
+  </si>
+  <si>
+    <t>sleepily</t>
+  </si>
+  <si>
+    <t>dorme, ripoze</t>
+  </si>
+  <si>
+    <t>mainly</t>
+  </si>
+  <si>
+    <t>ĉefe, estre</t>
+  </si>
+  <si>
+    <t>coldly</t>
+  </si>
+  <si>
+    <t>malvarme, fride</t>
+  </si>
+  <si>
+    <t>little, a bit, less</t>
+  </si>
+  <si>
+    <t>iomete, malmulte, malpli</t>
+  </si>
+  <si>
+    <t>visually</t>
+  </si>
+  <si>
+    <t>vide</t>
+  </si>
+  <si>
+    <t>maternally, fatherly</t>
+  </si>
+  <si>
+    <t>gepatre, patre, patrine</t>
   </si>
 </sst>
 </file>
@@ -2248,8 +2359,8 @@
   <dimension ref="A1:N251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2275,34 +2386,34 @@
         <v>16</v>
       </c>
       <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
       </c>
       <c r="G1" t="s">
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
       </c>
       <c r="M1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2377,13 +2488,16 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G7" t="s">
+        <v>620</v>
+      </c>
+      <c r="L7" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2391,10 +2505,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -2402,10 +2516,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2413,13 +2527,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
+      <c r="G10" s="1" t="s">
+        <v>621</v>
       </c>
       <c r="N10" s="3"/>
     </row>
@@ -2428,13 +2545,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>31</v>
+      <c r="G11" s="2" t="s">
+        <v>622</v>
       </c>
       <c r="N11" s="3"/>
     </row>
@@ -2443,13 +2563,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
+      <c r="G12" s="1" t="s">
+        <v>621</v>
       </c>
       <c r="N12" s="3"/>
     </row>
@@ -2458,13 +2581,16 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
+      <c r="G13" s="2" t="s">
+        <v>622</v>
       </c>
       <c r="N13" s="3"/>
     </row>
@@ -2473,22 +2599,25 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" t="s">
         <v>33</v>
       </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>623</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N14" s="3"/>
     </row>
@@ -2497,22 +2626,25 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>624</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="M15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N15" s="3"/>
     </row>
@@ -2521,13 +2653,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N16" s="3"/>
     </row>
@@ -2536,13 +2668,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="M17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N17" s="3"/>
     </row>
@@ -2551,13 +2683,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>612</v>
+      <c r="G18" s="1" t="s">
+        <v>625</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2570,13 +2705,16 @@
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>614</v>
+      <c r="G19" s="2" t="s">
+        <v>626</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2589,16 +2727,19 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>47</v>
+      <c r="G20" s="1" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2606,16 +2747,19 @@
         <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2623,10 +2767,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2634,10 +2778,10 @@
         <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2648,7 +2792,7 @@
         <v>5</v>
       </c>
       <c r="M24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2659,7 +2803,7 @@
         <v>5</v>
       </c>
       <c r="M25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2667,10 +2811,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2678,10 +2822,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2689,7 +2833,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2697,7 +2841,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2705,22 +2849,25 @@
         <v>5</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2728,22 +2875,25 @@
         <v>7</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="F31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2751,10 +2901,10 @@
         <v>5</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -2762,10 +2912,10 @@
         <v>7</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2773,13 +2923,16 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
         <v>75</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>76</v>
       </c>
-      <c r="D34" t="s">
-        <v>77</v>
+      <c r="G34" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2787,13 +2940,16 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
         <v>78</v>
       </c>
-      <c r="D35" t="s">
-        <v>79</v>
+      <c r="G35" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -2801,19 +2957,22 @@
         <v>5</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
         <v>86</v>
       </c>
-      <c r="D36" t="s">
-        <v>87</v>
-      </c>
       <c r="E36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" t="s">
+        <v>633</v>
+      </c>
+      <c r="L36" t="s">
         <v>84</v>
-      </c>
-      <c r="L36" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -2821,19 +2980,22 @@
         <v>7</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" t="s">
         <v>82</v>
       </c>
-      <c r="D37" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" t="s">
-        <v>83</v>
+      <c r="G37" t="s">
+        <v>634</v>
       </c>
       <c r="L37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -2841,19 +3003,22 @@
         <v>5</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
         <v>89</v>
       </c>
-      <c r="C38" t="s">
-        <v>90</v>
-      </c>
       <c r="D38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" t="s">
         <v>93</v>
       </c>
-      <c r="E38" t="s">
-        <v>94</v>
+      <c r="G38" t="s">
+        <v>635</v>
       </c>
       <c r="I38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -2861,16 +3026,19 @@
         <v>7</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" t="s">
         <v>95</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>96</v>
       </c>
-      <c r="E39" t="s">
-        <v>97</v>
+      <c r="G39" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2878,10 +3046,10 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" t="s">
         <v>98</v>
-      </c>
-      <c r="D40" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2889,10 +3057,10 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -2900,13 +3068,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" t="s">
         <v>101</v>
-      </c>
-      <c r="C42" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -2914,13 +3082,13 @@
         <v>7</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" t="s">
         <v>105</v>
-      </c>
-      <c r="E43" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -2928,10 +3096,10 @@
         <v>5</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" t="s">
         <v>107</v>
-      </c>
-      <c r="C44" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -2939,10 +3107,10 @@
         <v>7</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -2950,16 +3118,16 @@
         <v>5</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E46" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" t="s">
         <v>114</v>
-      </c>
-      <c r="F46" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -2967,16 +3135,16 @@
         <v>7</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C47" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" t="s">
         <v>111</v>
-      </c>
-      <c r="E47" t="s">
-        <v>113</v>
-      </c>
-      <c r="F47" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -2984,19 +3152,19 @@
         <v>5</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" t="s">
         <v>118</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>116</v>
+      </c>
+      <c r="F48" t="s">
         <v>119</v>
-      </c>
-      <c r="E48" t="s">
-        <v>117</v>
-      </c>
-      <c r="F48" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3004,19 +3172,19 @@
         <v>7</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" t="s">
         <v>122</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F49" t="s">
         <v>123</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F49" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3024,10 +3192,10 @@
         <v>5</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
         <v>125</v>
-      </c>
-      <c r="C50" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3035,10 +3203,10 @@
         <v>7</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3046,19 +3214,19 @@
         <v>5</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" t="s">
         <v>128</v>
       </c>
-      <c r="C52" t="s">
+      <c r="F52" t="s">
         <v>130</v>
       </c>
-      <c r="E52" t="s">
-        <v>129</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="K52" t="s">
         <v>131</v>
-      </c>
-      <c r="K52" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3066,19 +3234,19 @@
         <v>7</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C53" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F53" t="s">
         <v>134</v>
       </c>
-      <c r="E53" t="s">
-        <v>133</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="K53" t="s">
         <v>135</v>
-      </c>
-      <c r="K53" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3086,13 +3254,13 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" t="s">
         <v>137</v>
       </c>
-      <c r="E54" t="s">
+      <c r="H54" t="s">
         <v>138</v>
-      </c>
-      <c r="H54" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3100,13 +3268,13 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3114,10 +3282,10 @@
         <v>5</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" t="s">
         <v>143</v>
-      </c>
-      <c r="C56" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3125,10 +3293,10 @@
         <v>7</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3136,10 +3304,13 @@
         <v>5</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3147,13 +3318,16 @@
         <v>7</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="G59" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K59" t="s">
         <v>148</v>
-      </c>
-      <c r="K59" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3161,10 +3335,10 @@
         <v>5</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" t="s">
         <v>150</v>
-      </c>
-      <c r="D60" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3172,10 +3346,10 @@
         <v>7</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3183,13 +3357,16 @@
         <v>5</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" t="s">
         <v>152</v>
       </c>
-      <c r="C62" t="s">
-        <v>154</v>
-      </c>
-      <c r="D62" t="s">
-        <v>153</v>
+      <c r="G62" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3197,13 +3374,16 @@
         <v>7</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D63" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+      <c r="G63" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3211,10 +3391,10 @@
         <v>5</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3222,10 +3402,10 @@
         <v>7</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3233,13 +3413,13 @@
         <v>5</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3247,13 +3427,13 @@
         <v>7</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C67" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" t="s">
         <v>163</v>
-      </c>
-      <c r="D67" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3261,16 +3441,19 @@
         <v>5</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" t="s">
         <v>165</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>166</v>
       </c>
-      <c r="D68" t="s">
-        <v>167</v>
-      </c>
       <c r="E68" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="G68" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3278,16 +3461,19 @@
         <v>7</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C69" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69" t="s">
         <v>168</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>169</v>
       </c>
-      <c r="E69" t="s">
-        <v>170</v>
+      <c r="G69" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3295,13 +3481,16 @@
         <v>5</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D70" t="s">
+        <v>172</v>
+      </c>
+      <c r="E70" t="s">
         <v>171</v>
       </c>
-      <c r="D70" t="s">
-        <v>173</v>
-      </c>
-      <c r="E70" t="s">
-        <v>172</v>
+      <c r="G70" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3309,13 +3498,16 @@
         <v>7</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E71" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="G71" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3323,13 +3515,16 @@
         <v>5</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C72" t="s">
+        <v>175</v>
+      </c>
+      <c r="D72" t="s">
         <v>176</v>
       </c>
-      <c r="D72" t="s">
-        <v>177</v>
+      <c r="G72" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3337,13 +3532,16 @@
         <v>7</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C73" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" t="s">
         <v>178</v>
       </c>
-      <c r="D73" t="s">
-        <v>179</v>
+      <c r="G73" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3351,10 +3549,10 @@
         <v>5</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N74" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3362,10 +3560,10 @@
         <v>7</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N75" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3373,16 +3571,19 @@
         <v>5</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C76" t="s">
         <v>182</v>
       </c>
-      <c r="C76" t="s">
-        <v>183</v>
-      </c>
       <c r="D76" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F76" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="G76" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3390,13 +3591,19 @@
         <v>7</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C77" t="s">
-        <v>186</v>
+        <v>185</v>
+      </c>
+      <c r="D77" t="s">
+        <v>645</v>
       </c>
       <c r="F77" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+      <c r="G77" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3404,10 +3611,10 @@
         <v>5</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3415,10 +3622,10 @@
         <v>7</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3426,16 +3633,19 @@
         <v>5</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" t="s">
         <v>191</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>192</v>
       </c>
-      <c r="E80" t="s">
-        <v>193</v>
+      <c r="G80" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3443,16 +3653,19 @@
         <v>7</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C81" t="s">
+        <v>193</v>
+      </c>
+      <c r="D81" t="s">
         <v>194</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>195</v>
       </c>
-      <c r="E81" t="s">
-        <v>196</v>
+      <c r="G81" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3460,10 +3673,10 @@
         <v>5</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C82" t="s">
         <v>197</v>
-      </c>
-      <c r="C82" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3471,10 +3684,10 @@
         <v>7</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3482,16 +3695,19 @@
         <v>5</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C84" t="s">
         <v>200</v>
       </c>
-      <c r="C84" t="s">
-        <v>201</v>
-      </c>
       <c r="D84" t="s">
+        <v>202</v>
+      </c>
+      <c r="E84" t="s">
         <v>203</v>
       </c>
-      <c r="E84" t="s">
-        <v>204</v>
+      <c r="G84" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3499,16 +3715,19 @@
         <v>7</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C85" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D85" t="s">
+        <v>204</v>
+      </c>
+      <c r="E85" t="s">
         <v>205</v>
       </c>
-      <c r="E85" t="s">
-        <v>206</v>
+      <c r="G85" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3516,7 +3735,7 @@
         <v>5</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3524,7 +3743,7 @@
         <v>7</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3532,13 +3751,16 @@
         <v>5</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D88" t="s">
         <v>208</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>209</v>
       </c>
-      <c r="E88" t="s">
-        <v>210</v>
+      <c r="G88" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3546,13 +3768,16 @@
         <v>7</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D89" t="s">
+        <v>210</v>
+      </c>
+      <c r="E89" t="s">
         <v>211</v>
       </c>
-      <c r="E89" t="s">
-        <v>212</v>
+      <c r="G89" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3560,10 +3785,10 @@
         <v>5</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C90" t="s">
         <v>213</v>
-      </c>
-      <c r="C90" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3571,10 +3796,10 @@
         <v>7</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C91" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -3582,10 +3807,10 @@
         <v>5</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3593,10 +3818,10 @@
         <v>7</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3604,10 +3829,10 @@
         <v>5</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D94" t="s">
         <v>219</v>
-      </c>
-      <c r="D94" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3615,10 +3840,10 @@
         <v>7</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D95" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3626,13 +3851,13 @@
         <v>5</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3640,13 +3865,13 @@
         <v>7</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3654,10 +3879,10 @@
         <v>5</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C98" t="s">
         <v>222</v>
-      </c>
-      <c r="C98" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3665,10 +3890,10 @@
         <v>7</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C99" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3676,16 +3901,19 @@
         <v>5</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D100" t="s">
+        <v>227</v>
+      </c>
+      <c r="E100" t="s">
         <v>225</v>
       </c>
-      <c r="D100" t="s">
-        <v>228</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>226</v>
       </c>
-      <c r="F100" t="s">
-        <v>227</v>
+      <c r="G100" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3693,16 +3921,19 @@
         <v>7</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D101" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E101" t="s">
+        <v>228</v>
+      </c>
+      <c r="F101" t="s">
         <v>229</v>
       </c>
-      <c r="F101" t="s">
-        <v>230</v>
+      <c r="G101" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3710,10 +3941,10 @@
         <v>5</v>
       </c>
       <c r="B102" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3721,10 +3952,10 @@
         <v>7</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="33" x14ac:dyDescent="0.25">
@@ -3732,10 +3963,10 @@
         <v>5</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3743,10 +3974,10 @@
         <v>7</v>
       </c>
       <c r="B105" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3754,13 +3985,16 @@
         <v>5</v>
       </c>
       <c r="B106" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>240</v>
+      <c r="G106" s="1" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3768,35 +4002,38 @@
         <v>7</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C107" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="G107" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>5</v>
-      </c>
-      <c r="B108" s="3" t="s">
+      <c r="C108" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C108" s="1" t="s">
+    </row>
+    <row r="109" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>7</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3804,13 +4041,13 @@
         <v>5</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3818,13 +4055,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C111" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3832,16 +4069,16 @@
         <v>5</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C112" t="s">
+        <v>253</v>
+      </c>
+      <c r="D112" t="s">
         <v>254</v>
       </c>
-      <c r="D112" t="s">
-        <v>255</v>
-      </c>
       <c r="I112" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3849,13 +4086,13 @@
         <v>7</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3863,13 +4100,13 @@
         <v>5</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C114" t="s">
         <v>256</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>257</v>
-      </c>
-      <c r="D114" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3877,13 +4114,13 @@
         <v>7</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C115" t="s">
+        <v>258</v>
+      </c>
+      <c r="D115" t="s">
         <v>259</v>
-      </c>
-      <c r="D115" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3891,13 +4128,13 @@
         <v>5</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C116" t="s">
         <v>261</v>
       </c>
-      <c r="C116" t="s">
+      <c r="E116" t="s">
         <v>262</v>
-      </c>
-      <c r="E116" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3905,13 +4142,13 @@
         <v>7</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C117" t="s">
+        <v>263</v>
+      </c>
+      <c r="E117" t="s">
         <v>264</v>
-      </c>
-      <c r="E117" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3919,19 +4156,19 @@
         <v>5</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C118" t="s">
         <v>266</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
+        <v>269</v>
+      </c>
+      <c r="E118" t="s">
+        <v>268</v>
+      </c>
+      <c r="F118" t="s">
         <v>267</v>
-      </c>
-      <c r="D118" t="s">
-        <v>270</v>
-      </c>
-      <c r="E118" t="s">
-        <v>269</v>
-      </c>
-      <c r="F118" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3939,19 +4176,19 @@
         <v>7</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C119" t="s">
+        <v>270</v>
+      </c>
+      <c r="D119" t="s">
+        <v>272</v>
+      </c>
+      <c r="E119" t="s">
+        <v>273</v>
+      </c>
+      <c r="F119" t="s">
         <v>271</v>
-      </c>
-      <c r="D119" t="s">
-        <v>273</v>
-      </c>
-      <c r="E119" t="s">
-        <v>274</v>
-      </c>
-      <c r="F119" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3959,13 +4196,13 @@
         <v>5</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3973,13 +4210,13 @@
         <v>7</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C121" t="s">
+        <v>277</v>
+      </c>
+      <c r="D121" t="s">
         <v>278</v>
-      </c>
-      <c r="D121" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3987,10 +4224,10 @@
         <v>5</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3998,10 +4235,10 @@
         <v>7</v>
       </c>
       <c r="B123" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="L123" t="s">
         <v>280</v>
-      </c>
-      <c r="L123" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4009,13 +4246,13 @@
         <v>5</v>
       </c>
       <c r="B124" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C124" t="s">
         <v>283</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>284</v>
-      </c>
-      <c r="D124" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4023,13 +4260,13 @@
         <v>7</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C125" t="s">
+        <v>285</v>
+      </c>
+      <c r="D125" t="s">
         <v>286</v>
-      </c>
-      <c r="D125" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4037,19 +4274,19 @@
         <v>5</v>
       </c>
       <c r="B126" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C126" t="s">
         <v>288</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>289</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
+        <v>291</v>
+      </c>
+      <c r="F126" t="s">
         <v>290</v>
-      </c>
-      <c r="E126" t="s">
-        <v>292</v>
-      </c>
-      <c r="F126" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4057,19 +4294,19 @@
         <v>7</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C127" t="s">
+        <v>292</v>
+      </c>
+      <c r="D127" t="s">
         <v>293</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
+        <v>295</v>
+      </c>
+      <c r="F127" t="s">
         <v>294</v>
-      </c>
-      <c r="E127" t="s">
-        <v>296</v>
-      </c>
-      <c r="F127" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4077,16 +4314,16 @@
         <v>5</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C128" t="s">
+        <v>298</v>
+      </c>
+      <c r="D128" t="s">
         <v>297</v>
       </c>
-      <c r="C128" t="s">
+      <c r="E128" t="s">
         <v>299</v>
-      </c>
-      <c r="D128" t="s">
-        <v>298</v>
-      </c>
-      <c r="E128" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -4094,16 +4331,16 @@
         <v>7</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C129" t="s">
+        <v>301</v>
+      </c>
+      <c r="D129" t="s">
+        <v>300</v>
+      </c>
+      <c r="E129" t="s">
         <v>302</v>
-      </c>
-      <c r="D129" t="s">
-        <v>301</v>
-      </c>
-      <c r="E129" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -4111,10 +4348,10 @@
         <v>5</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -4122,7 +4359,7 @@
         <v>7</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -4130,10 +4367,10 @@
         <v>5</v>
       </c>
       <c r="B132" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -4141,10 +4378,10 @@
         <v>7</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="33" x14ac:dyDescent="0.25">
@@ -4152,13 +4389,13 @@
         <v>5</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D134" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="E134" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -4166,13 +4403,13 @@
         <v>7</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -4180,10 +4417,10 @@
         <v>5</v>
       </c>
       <c r="B136" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -4191,10 +4428,10 @@
         <v>7</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -4202,10 +4439,10 @@
         <v>5</v>
       </c>
       <c r="B138" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -4213,10 +4450,10 @@
         <v>7</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -4224,10 +4461,10 @@
         <v>5</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -4235,10 +4472,10 @@
         <v>7</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -4246,10 +4483,10 @@
         <v>5</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -4257,10 +4494,10 @@
         <v>7</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -4268,10 +4505,10 @@
         <v>5</v>
       </c>
       <c r="B144" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4279,10 +4516,10 @@
         <v>7</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="146" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4290,13 +4527,13 @@
         <v>5</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L146" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N146" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="147" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4304,13 +4541,13 @@
         <v>7</v>
       </c>
       <c r="B147" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="L147" t="s">
         <v>329</v>
       </c>
-      <c r="L147" t="s">
-        <v>330</v>
-      </c>
       <c r="N147" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="148" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4318,10 +4555,10 @@
         <v>5</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C148" t="s">
         <v>332</v>
-      </c>
-      <c r="C148" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4329,10 +4566,10 @@
         <v>7</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C149" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4340,16 +4577,16 @@
         <v>5</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C150" t="s">
         <v>335</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
+        <v>335</v>
+      </c>
+      <c r="E150" t="s">
         <v>336</v>
-      </c>
-      <c r="D150" t="s">
-        <v>336</v>
-      </c>
-      <c r="E150" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="151" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4357,16 +4594,16 @@
         <v>7</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C151" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D151" t="s">
+        <v>337</v>
+      </c>
+      <c r="E151" t="s">
         <v>338</v>
-      </c>
-      <c r="E151" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4374,16 +4611,16 @@
         <v>5</v>
       </c>
       <c r="B152" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I152" t="s">
         <v>340</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I152" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4391,13 +4628,13 @@
         <v>7</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C153" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4405,10 +4642,10 @@
         <v>5</v>
       </c>
       <c r="B154" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4416,10 +4653,10 @@
         <v>7</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="156" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4427,19 +4664,19 @@
         <v>5</v>
       </c>
       <c r="B156" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="F156" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="F156" s="1" t="s">
+      <c r="L156" s="4" t="s">
         <v>352</v>
-      </c>
-      <c r="L156" s="4" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="157" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4447,19 +4684,19 @@
         <v>7</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C157" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="L157" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="L157" s="2" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="158" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4467,19 +4704,19 @@
         <v>5</v>
       </c>
       <c r="B158" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="F158" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="159" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4487,19 +4724,19 @@
         <v>7</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C159" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="E159" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="F159" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="160" spans="1:14" ht="33" x14ac:dyDescent="0.25">
@@ -4507,10 +4744,10 @@
         <v>5</v>
       </c>
       <c r="B160" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C160" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="161" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4518,10 +4755,10 @@
         <v>7</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="162" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4529,10 +4766,10 @@
         <v>5</v>
       </c>
       <c r="B162" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4540,10 +4777,10 @@
         <v>7</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C163" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4551,13 +4788,13 @@
         <v>5</v>
       </c>
       <c r="B164" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4565,13 +4802,13 @@
         <v>7</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4579,10 +4816,10 @@
         <v>5</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C166" t="s">
         <v>377</v>
-      </c>
-      <c r="C166" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4590,10 +4827,10 @@
         <v>7</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C167" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4601,10 +4838,10 @@
         <v>5</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N168" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4612,7 +4849,7 @@
         <v>7</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4620,16 +4857,16 @@
         <v>5</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="E170" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F170" t="s">
         <v>381</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="F170" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="171" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4637,16 +4874,16 @@
         <v>7</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C171" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F171" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4654,16 +4891,16 @@
         <v>5</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="E172" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="173" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4671,16 +4908,16 @@
         <v>7</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C173" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="174" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4688,16 +4925,16 @@
         <v>5</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C174" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4705,16 +4942,16 @@
         <v>7</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C175" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="E175" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4722,10 +4959,10 @@
         <v>5</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C176" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4733,10 +4970,10 @@
         <v>7</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C177" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4744,16 +4981,16 @@
         <v>5</v>
       </c>
       <c r="B178" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H178" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4761,16 +4998,16 @@
         <v>7</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C179" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H179" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4778,10 +5015,10 @@
         <v>5</v>
       </c>
       <c r="B180" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C180" t="s">
         <v>411</v>
-      </c>
-      <c r="C180" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4789,10 +5026,10 @@
         <v>7</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C181" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="33" x14ac:dyDescent="0.25">
@@ -4800,19 +5037,19 @@
         <v>5</v>
       </c>
       <c r="B182" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="E182" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="L182" s="4" t="s">
         <v>416</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="L182" s="4" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4820,19 +5057,19 @@
         <v>7</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C183" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="E183" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L183" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="L183" s="2" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="33" x14ac:dyDescent="0.25">
@@ -4840,13 +5077,13 @@
         <v>5</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C184" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="H184" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4854,13 +5091,13 @@
         <v>7</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C185" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="H185" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="H185" s="2" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4868,16 +5105,16 @@
         <v>5</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C186" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="E186" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4885,16 +5122,16 @@
         <v>7</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C187" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="E187" s="2" t="s">
         <v>604</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4902,10 +5139,10 @@
         <v>5</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4913,10 +5150,10 @@
         <v>7</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4924,10 +5161,10 @@
         <v>5</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4935,10 +5172,10 @@
         <v>7</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I191" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4946,13 +5183,13 @@
         <v>5</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C192" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -4960,13 +5197,13 @@
         <v>7</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C193" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -4974,10 +5211,10 @@
         <v>5</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -4985,10 +5222,10 @@
         <v>7</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -4996,13 +5233,13 @@
         <v>5</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C196" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5010,13 +5247,13 @@
         <v>7</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C197" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>588</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5024,13 +5261,13 @@
         <v>5</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D198" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E198" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5038,13 +5275,13 @@
         <v>7</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D199" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5052,16 +5289,16 @@
         <v>5</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C200" t="s">
+        <v>578</v>
+      </c>
+      <c r="D200" t="s">
         <v>579</v>
       </c>
-      <c r="D200" t="s">
-        <v>580</v>
-      </c>
       <c r="I200" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5069,16 +5306,16 @@
         <v>7</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C201" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D201" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I201" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5086,10 +5323,10 @@
         <v>5</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5097,10 +5334,10 @@
         <v>7</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5108,13 +5345,13 @@
         <v>5</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C204" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E204" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5122,13 +5359,13 @@
         <v>7</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C205" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5136,19 +5373,19 @@
         <v>5</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C206" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E206" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="E206" s="1" t="s">
+      <c r="F206" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="F206" s="1" t="s">
+      <c r="J206" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="J206" s="1" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5156,19 +5393,19 @@
         <v>7</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C207" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E207" s="2" t="s">
+      <c r="F207" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="F207" s="2" t="s">
+      <c r="J207" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J207" s="2" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5176,10 +5413,10 @@
         <v>5</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="209" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5187,10 +5424,10 @@
         <v>7</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="210" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5198,16 +5435,16 @@
         <v>5</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C210" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D210" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E210" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="211" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5215,16 +5452,16 @@
         <v>7</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D211" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="212" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5232,10 +5469,10 @@
         <v>5</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5243,10 +5480,10 @@
         <v>7</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="214" spans="1:13" ht="33" x14ac:dyDescent="0.25">
@@ -5254,10 +5491,10 @@
         <v>5</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="215" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5265,10 +5502,10 @@
         <v>7</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="216" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5276,16 +5513,16 @@
         <v>5</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C216" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D216" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="E216" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="217" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5293,16 +5530,16 @@
         <v>7</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C217" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="D217" s="2" t="s">
+      <c r="E217" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="218" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5310,13 +5547,13 @@
         <v>5</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="219" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5324,13 +5561,13 @@
         <v>7</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="220" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5338,13 +5575,13 @@
         <v>5</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D220" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="M220" t="s">
         <v>539</v>
-      </c>
-      <c r="M220" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="221" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5352,13 +5589,13 @@
         <v>7</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D221" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="M221" t="s">
         <v>541</v>
-      </c>
-      <c r="M221" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="222" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5366,22 +5603,22 @@
         <v>5</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C222" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D222" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="E222" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="E222" s="1" t="s">
-        <v>533</v>
-      </c>
       <c r="F222" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="223" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5389,22 +5626,22 @@
         <v>7</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C223" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="D223" s="2" t="s">
+      <c r="E223" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="E223" s="2" t="s">
-        <v>538</v>
-      </c>
       <c r="F223" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="224" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5412,13 +5649,13 @@
         <v>5</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C224" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E224" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="225" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5426,13 +5663,13 @@
         <v>7</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C225" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="226" spans="1:12" ht="33" x14ac:dyDescent="0.25">
@@ -5440,10 +5677,10 @@
         <v>5</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="227" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5451,10 +5688,10 @@
         <v>7</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="228" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5462,22 +5699,22 @@
         <v>5</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C228" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D228" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="E228" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="E228" s="1" t="s">
+      <c r="F228" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="F228" s="1" t="s">
+      <c r="L228" s="4" t="s">
         <v>516</v>
-      </c>
-      <c r="L228" s="4" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5485,22 +5722,22 @@
         <v>7</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C229" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="D229" s="2" t="s">
+      <c r="E229" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="E229" s="2" t="s">
+      <c r="F229" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="F229" s="2" t="s">
+      <c r="L229" s="5" t="s">
         <v>521</v>
-      </c>
-      <c r="L229" s="5" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="230" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5508,13 +5745,13 @@
         <v>5</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C230" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="231" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5522,13 +5759,13 @@
         <v>7</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C231" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D231" s="5" t="s">
         <v>511</v>
-      </c>
-      <c r="D231" s="5" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="232" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5536,16 +5773,16 @@
         <v>5</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C232" t="s">
+        <v>503</v>
+      </c>
+      <c r="D232" t="s">
+        <v>502</v>
+      </c>
+      <c r="E232" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="D232" t="s">
-        <v>503</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="233" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5553,16 +5790,16 @@
         <v>7</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C233" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D233" t="s">
+        <v>505</v>
+      </c>
+      <c r="E233" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="D233" t="s">
-        <v>506</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="234" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5570,19 +5807,19 @@
         <v>5</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C234" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="E234" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E234" s="1" t="s">
+      <c r="F234" s="4" t="s">
         <v>497</v>
-      </c>
-      <c r="F234" s="4" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="235" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5590,19 +5827,19 @@
         <v>7</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="236" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5610,13 +5847,13 @@
         <v>5</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C236" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="237" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5624,13 +5861,13 @@
         <v>7</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C237" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="238" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5638,13 +5875,13 @@
         <v>5</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C238" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E238" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="239" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5652,13 +5889,13 @@
         <v>7</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C239" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E239" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5666,13 +5903,13 @@
         <v>5</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D240" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -5680,13 +5917,13 @@
         <v>7</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -5694,16 +5931,16 @@
         <v>5</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C242" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="E242" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="D242" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -5711,16 +5948,16 @@
         <v>7</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C243" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E243" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -5728,10 +5965,10 @@
         <v>5</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -5739,10 +5976,10 @@
         <v>7</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="33" x14ac:dyDescent="0.25">
@@ -5750,16 +5987,16 @@
         <v>5</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C246" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D246" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="E246" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="E246" s="4" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -5767,16 +6004,16 @@
         <v>7</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C247" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D247" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D247" s="2" t="s">
+      <c r="E247" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -5784,16 +6021,16 @@
         <v>5</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C248" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E248" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -5801,16 +6038,16 @@
         <v>7</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C249" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E249" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -5818,16 +6055,16 @@
         <v>5</v>
       </c>
       <c r="B250" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E250" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -5835,16 +6072,16 @@
         <v>7</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C251" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D251" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D251" s="2" t="s">
-        <v>462</v>
-      </c>
       <c r="E251" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/BasicTypes/Dictionary/RawData.xlsx
+++ b/BasicTypes/Dictionary/RawData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="696">
   <si>
     <t>a</t>
   </si>
@@ -1990,13 +1990,127 @@
   </si>
   <si>
     <t>gepatre, patre, patrine</t>
+  </si>
+  <si>
+    <t>kan</t>
+  </si>
+  <si>
+    <t>kapa </t>
+  </si>
+  <si>
+    <t>iki</t>
+  </si>
+  <si>
+    <t>pasila</t>
+  </si>
+  <si>
+    <t>kapesi</t>
+  </si>
+  <si>
+    <t>leko</t>
+  </si>
+  <si>
+    <t>stairs</t>
+  </si>
+  <si>
+    <t>majuno</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>tuli</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>po</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>kijetesantakalu</t>
+  </si>
+  <si>
+    <t>armadillo, pangolin</t>
+  </si>
+  <si>
+    <t>ipi</t>
+  </si>
+  <si>
+    <t>jalan</t>
+  </si>
+  <si>
+    <t>pu</t>
+  </si>
+  <si>
+    <t>study toki pona</t>
+  </si>
+  <si>
+    <t>toki pona text book</t>
+  </si>
+  <si>
+    <t>apeja</t>
+  </si>
+  <si>
+    <t>pake</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>disparagement</t>
+  </si>
+  <si>
+    <t>disparaging</t>
+  </si>
+  <si>
+    <t>disparage</t>
+  </si>
+  <si>
+    <t>disparagingly</t>
+  </si>
+  <si>
+    <t>monsuata</t>
+  </si>
+  <si>
+    <t>fear, monster</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>be scared</t>
+  </si>
+  <si>
+    <t>frighteningly</t>
+  </si>
+  <si>
+    <t>sound, noise</t>
+  </si>
+  <si>
+    <t>make a noise like</t>
+  </si>
+  <si>
+    <t>to bellow</t>
+  </si>
+  <si>
+    <t>say ah</t>
+  </si>
+  <si>
+    <t>laugh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2023,6 +2137,19 @@
       <name val="Lucida Sans Unicode"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF545454"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2044,7 +2171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2055,6 +2182,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2356,11 +2485,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N251"/>
+  <dimension ref="A1:N289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
+      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C255" sqref="C255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2423,6 +2552,15 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>695</v>
+      </c>
+      <c r="D2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" t="s">
+        <v>694</v>
+      </c>
       <c r="L2" t="s">
         <v>3</v>
       </c>
@@ -4226,6 +4364,15 @@
       <c r="B122" s="3" t="s">
         <v>279</v>
       </c>
+      <c r="C122" t="s">
+        <v>691</v>
+      </c>
+      <c r="E122" t="s">
+        <v>692</v>
+      </c>
+      <c r="F122" t="s">
+        <v>693</v>
+      </c>
       <c r="L122" s="1" t="s">
         <v>281</v>
       </c>
@@ -4636,6 +4783,9 @@
       <c r="D153" s="2" t="s">
         <v>344</v>
       </c>
+      <c r="I153" s="2" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="154" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
@@ -5912,7 +6062,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -5926,7 +6076,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>5</v>
       </c>
@@ -5943,7 +6093,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>7</v>
       </c>
@@ -5960,7 +6110,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>5</v>
       </c>
@@ -5971,7 +6121,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -5982,7 +6132,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -5999,7 +6149,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -6016,7 +6166,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>5</v>
       </c>
@@ -6033,7 +6183,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>7</v>
       </c>
@@ -6050,7 +6200,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>5</v>
       </c>
@@ -6067,7 +6217,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -6082,6 +6232,424 @@
       </c>
       <c r="E251" s="2" t="s">
         <v>459</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>5</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>7</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>5</v>
+      </c>
+      <c r="B254" t="s">
+        <v>660</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I254" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>7</v>
+      </c>
+      <c r="B255" t="s">
+        <v>660</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I255" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>5</v>
+      </c>
+      <c r="B256" t="s">
+        <v>658</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>7</v>
+      </c>
+      <c r="B257" t="s">
+        <v>658</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H257" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>5</v>
+      </c>
+      <c r="B258" t="s">
+        <v>661</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>7</v>
+      </c>
+      <c r="B259" t="s">
+        <v>661</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>5</v>
+      </c>
+      <c r="B260" t="s">
+        <v>662</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>7</v>
+      </c>
+      <c r="B261" t="s">
+        <v>662</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>5</v>
+      </c>
+      <c r="B262" t="s">
+        <v>663</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>7</v>
+      </c>
+      <c r="B263" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>5</v>
+      </c>
+      <c r="B264" t="s">
+        <v>665</v>
+      </c>
+      <c r="D264" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>7</v>
+      </c>
+      <c r="B265" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>5</v>
+      </c>
+      <c r="B266" t="s">
+        <v>667</v>
+      </c>
+      <c r="D266" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>7</v>
+      </c>
+      <c r="B267" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>5</v>
+      </c>
+      <c r="B268" t="s">
+        <v>669</v>
+      </c>
+      <c r="D268" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>7</v>
+      </c>
+      <c r="B269" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>5</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="C270" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>7</v>
+      </c>
+      <c r="B271" s="7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>5</v>
+      </c>
+      <c r="B272" t="s">
+        <v>673</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I272" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>7</v>
+      </c>
+      <c r="B273" t="s">
+        <v>673</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I273" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274" t="s">
+        <v>674</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>7</v>
+      </c>
+      <c r="B275" t="s">
+        <v>674</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>5</v>
+      </c>
+      <c r="B276" t="s">
+        <v>675</v>
+      </c>
+      <c r="C276" t="s">
+        <v>677</v>
+      </c>
+      <c r="F276" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>7</v>
+      </c>
+      <c r="B277" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>5</v>
+      </c>
+      <c r="B278" t="s">
+        <v>678</v>
+      </c>
+      <c r="C278" t="s">
+        <v>681</v>
+      </c>
+      <c r="D278" t="s">
+        <v>682</v>
+      </c>
+      <c r="E278" t="s">
+        <v>683</v>
+      </c>
+      <c r="G278" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>7</v>
+      </c>
+      <c r="B279" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>5</v>
+      </c>
+      <c r="B280" t="s">
+        <v>679</v>
+      </c>
+      <c r="E280" t="s">
+        <v>680</v>
+      </c>
+      <c r="F280" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>7</v>
+      </c>
+      <c r="B281" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>5</v>
+      </c>
+      <c r="B282" t="s">
+        <v>685</v>
+      </c>
+      <c r="C282" t="s">
+        <v>686</v>
+      </c>
+      <c r="D282" t="s">
+        <v>687</v>
+      </c>
+      <c r="E282" t="s">
+        <v>688</v>
+      </c>
+      <c r="F282" t="s">
+        <v>689</v>
+      </c>
+      <c r="G282" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>7</v>
+      </c>
+      <c r="B283" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B289">
+        <f>+(287-1)/2</f>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/BasicTypes/Dictionary/RawData.xlsx
+++ b/BasicTypes/Dictionary/RawData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="706">
   <si>
     <t>a</t>
   </si>
@@ -111,9 +111,6 @@
     <t>ĉiu(j), tuta, kompleta</t>
   </si>
   <si>
-    <t>ante </t>
-  </si>
-  <si>
     <t>difference</t>
   </si>
   <si>
@@ -2104,6 +2101,39 @@
   </si>
   <si>
     <t>laugh</t>
+  </si>
+  <si>
+    <t>makes blue</t>
+  </si>
+  <si>
+    <t>thing, something, stuff, anything, object</t>
+  </si>
+  <si>
+    <t>of something</t>
+  </si>
+  <si>
+    <t>objectify</t>
+  </si>
+  <si>
+    <t>aĵo, afero, io, objekto</t>
+  </si>
+  <si>
+    <t>de io, pri io</t>
+  </si>
+  <si>
+    <t> objektigi</t>
+  </si>
+  <si>
+    <t>ante</t>
+  </si>
+  <si>
+    <t>what sort</t>
+  </si>
+  <si>
+    <t>is what</t>
+  </si>
+  <si>
+    <t>in what way</t>
   </si>
 </sst>
 </file>
@@ -2485,11 +2515,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N289"/>
+  <dimension ref="A1:N283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C255" sqref="C255"/>
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2524,25 +2554,25 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
       </c>
       <c r="M1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2553,13 +2583,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L2" t="s">
         <v>3</v>
@@ -2629,10 +2659,10 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L7" t="s">
         <v>20</v>
@@ -2657,7 +2687,7 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2674,7 +2704,7 @@
         <v>28</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N10" s="3"/>
     </row>
@@ -2692,7 +2722,7 @@
         <v>30</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="N11" s="3"/>
     </row>
@@ -2710,7 +2740,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N12" s="3"/>
     </row>
@@ -2728,7 +2758,7 @@
         <v>30</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="N13" s="3"/>
     </row>
@@ -2737,25 +2767,25 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N14" s="3"/>
     </row>
@@ -2764,25 +2794,25 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>702</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="M15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N15" s="3"/>
     </row>
@@ -2791,13 +2821,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N16" s="3"/>
     </row>
@@ -2806,13 +2836,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="M17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N17" s="3"/>
     </row>
@@ -2821,16 +2851,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>611</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2843,16 +2873,16 @@
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>613</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2865,19 +2895,19 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2885,19 +2915,19 @@
         <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2905,10 +2935,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2916,10 +2946,10 @@
         <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2930,7 +2960,7 @@
         <v>5</v>
       </c>
       <c r="M24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2941,7 +2971,7 @@
         <v>5</v>
       </c>
       <c r="M25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2949,10 +2979,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2960,10 +2990,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2971,7 +3001,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2979,7 +3018,16 @@
         <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2987,25 +3035,25 @@
         <v>5</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3013,25 +3061,25 @@
         <v>7</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="F31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3039,10 +3087,10 @@
         <v>5</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3050,10 +3098,10 @@
         <v>7</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3061,16 +3109,16 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
         <v>74</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>75</v>
       </c>
-      <c r="D34" t="s">
-        <v>76</v>
-      </c>
       <c r="G34" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3078,16 +3126,16 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
         <v>77</v>
       </c>
-      <c r="D35" t="s">
-        <v>78</v>
-      </c>
       <c r="G35" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3095,22 +3143,22 @@
         <v>5</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" t="s">
         <v>85</v>
       </c>
-      <c r="D36" t="s">
-        <v>86</v>
-      </c>
       <c r="E36" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" t="s">
+        <v>632</v>
+      </c>
+      <c r="L36" t="s">
         <v>83</v>
-      </c>
-      <c r="G36" t="s">
-        <v>633</v>
-      </c>
-      <c r="L36" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3118,22 +3166,22 @@
         <v>7</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" t="s">
         <v>81</v>
       </c>
-      <c r="D37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" t="s">
-        <v>82</v>
-      </c>
       <c r="G37" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3141,22 +3189,22 @@
         <v>5</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
         <v>88</v>
       </c>
-      <c r="C38" t="s">
-        <v>89</v>
-      </c>
       <c r="D38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" t="s">
         <v>92</v>
       </c>
-      <c r="E38" t="s">
-        <v>93</v>
-      </c>
       <c r="G38" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3164,19 +3212,19 @@
         <v>7</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" t="s">
         <v>94</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>95</v>
       </c>
-      <c r="E39" t="s">
-        <v>96</v>
-      </c>
       <c r="G39" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3184,10 +3232,10 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" t="s">
         <v>97</v>
-      </c>
-      <c r="D40" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -3195,10 +3243,10 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3206,13 +3254,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" t="s">
         <v>100</v>
-      </c>
-      <c r="C42" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3220,13 +3268,13 @@
         <v>7</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" t="s">
         <v>104</v>
-      </c>
-      <c r="E43" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3234,10 +3282,10 @@
         <v>5</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" t="s">
         <v>106</v>
-      </c>
-      <c r="C44" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3245,10 +3293,10 @@
         <v>7</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3256,16 +3304,16 @@
         <v>5</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" t="s">
         <v>113</v>
-      </c>
-      <c r="F46" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3273,16 +3321,16 @@
         <v>7</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C47" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" t="s">
         <v>110</v>
-      </c>
-      <c r="E47" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3290,19 +3338,19 @@
         <v>5</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" t="s">
         <v>117</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" t="s">
         <v>118</v>
-      </c>
-      <c r="E48" t="s">
-        <v>116</v>
-      </c>
-      <c r="F48" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3310,19 +3358,19 @@
         <v>7</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" t="s">
         <v>121</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49" t="s">
         <v>122</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F49" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3330,10 +3378,10 @@
         <v>5</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" t="s">
         <v>124</v>
-      </c>
-      <c r="C50" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3341,10 +3389,10 @@
         <v>7</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3352,19 +3400,19 @@
         <v>5</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" t="s">
         <v>127</v>
       </c>
-      <c r="C52" t="s">
+      <c r="F52" t="s">
         <v>129</v>
       </c>
-      <c r="E52" t="s">
-        <v>128</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="K52" t="s">
         <v>130</v>
-      </c>
-      <c r="K52" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3372,19 +3420,19 @@
         <v>7</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" t="s">
+        <v>131</v>
+      </c>
+      <c r="F53" t="s">
         <v>133</v>
       </c>
-      <c r="E53" t="s">
-        <v>132</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="K53" t="s">
         <v>134</v>
-      </c>
-      <c r="K53" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3392,13 +3440,13 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" t="s">
         <v>136</v>
       </c>
-      <c r="E54" t="s">
+      <c r="H54" t="s">
         <v>137</v>
-      </c>
-      <c r="H54" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3406,13 +3454,13 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3420,10 +3468,10 @@
         <v>5</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" t="s">
         <v>142</v>
-      </c>
-      <c r="C56" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3431,10 +3479,10 @@
         <v>7</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3442,13 +3490,13 @@
         <v>5</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3456,16 +3504,16 @@
         <v>7</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="G59" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K59" t="s">
         <v>147</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K59" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3473,10 +3521,10 @@
         <v>5</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" t="s">
         <v>149</v>
-      </c>
-      <c r="D60" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3484,10 +3532,10 @@
         <v>7</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3495,16 +3543,16 @@
         <v>5</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" t="s">
+        <v>152</v>
+      </c>
+      <c r="D62" t="s">
         <v>151</v>
       </c>
-      <c r="C62" t="s">
-        <v>153</v>
-      </c>
-      <c r="D62" t="s">
-        <v>152</v>
-      </c>
       <c r="G62" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3512,16 +3560,16 @@
         <v>7</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G63" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3529,10 +3577,10 @@
         <v>5</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3540,10 +3588,10 @@
         <v>7</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3551,13 +3599,13 @@
         <v>5</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3565,13 +3613,13 @@
         <v>7</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s">
+        <v>161</v>
+      </c>
+      <c r="D67" t="s">
         <v>162</v>
-      </c>
-      <c r="D67" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3579,19 +3627,19 @@
         <v>5</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" t="s">
         <v>164</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>165</v>
       </c>
-      <c r="D68" t="s">
-        <v>166</v>
-      </c>
       <c r="E68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G68" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3599,19 +3647,19 @@
         <v>7</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C69" t="s">
+        <v>166</v>
+      </c>
+      <c r="D69" t="s">
         <v>167</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>168</v>
       </c>
-      <c r="E69" t="s">
-        <v>169</v>
-      </c>
       <c r="G69" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3619,16 +3667,16 @@
         <v>5</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" t="s">
+        <v>171</v>
+      </c>
+      <c r="E70" t="s">
         <v>170</v>
       </c>
-      <c r="D70" t="s">
-        <v>172</v>
-      </c>
-      <c r="E70" t="s">
-        <v>171</v>
-      </c>
       <c r="G70" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3636,16 +3684,16 @@
         <v>7</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D71" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G71" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3653,16 +3701,16 @@
         <v>5</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C72" t="s">
+        <v>174</v>
+      </c>
+      <c r="D72" t="s">
         <v>175</v>
       </c>
-      <c r="D72" t="s">
-        <v>176</v>
-      </c>
       <c r="G72" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3670,16 +3718,16 @@
         <v>7</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C73" t="s">
+        <v>176</v>
+      </c>
+      <c r="D73" t="s">
         <v>177</v>
       </c>
-      <c r="D73" t="s">
-        <v>178</v>
-      </c>
       <c r="G73" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3687,10 +3735,10 @@
         <v>5</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N74" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3698,10 +3746,10 @@
         <v>7</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N75" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3709,19 +3757,19 @@
         <v>5</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" t="s">
         <v>181</v>
       </c>
-      <c r="C76" t="s">
-        <v>182</v>
-      </c>
       <c r="D76" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G76" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3729,19 +3777,19 @@
         <v>7</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C77" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D77" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G77" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3749,10 +3797,16 @@
         <v>5</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+      <c r="E78" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3760,10 +3814,10 @@
         <v>7</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3771,19 +3825,19 @@
         <v>5</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" t="s">
         <v>190</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>191</v>
       </c>
-      <c r="E80" t="s">
-        <v>192</v>
-      </c>
       <c r="G80" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3791,19 +3845,19 @@
         <v>7</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C81" t="s">
+        <v>192</v>
+      </c>
+      <c r="D81" t="s">
         <v>193</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>194</v>
       </c>
-      <c r="E81" t="s">
-        <v>195</v>
-      </c>
       <c r="G81" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3811,10 +3865,10 @@
         <v>5</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C82" t="s">
         <v>196</v>
-      </c>
-      <c r="C82" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3822,10 +3876,10 @@
         <v>7</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C83" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3833,19 +3887,19 @@
         <v>5</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C84" t="s">
         <v>199</v>
       </c>
-      <c r="C84" t="s">
-        <v>200</v>
-      </c>
       <c r="D84" t="s">
+        <v>201</v>
+      </c>
+      <c r="E84" t="s">
         <v>202</v>
       </c>
-      <c r="E84" t="s">
-        <v>203</v>
-      </c>
       <c r="G84" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3853,19 +3907,19 @@
         <v>7</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D85" t="s">
+        <v>203</v>
+      </c>
+      <c r="E85" t="s">
         <v>204</v>
       </c>
-      <c r="E85" t="s">
-        <v>205</v>
-      </c>
       <c r="G85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3873,7 +3927,7 @@
         <v>5</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3881,7 +3935,7 @@
         <v>7</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3889,16 +3943,16 @@
         <v>5</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D88" t="s">
         <v>207</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>208</v>
       </c>
-      <c r="E88" t="s">
-        <v>209</v>
-      </c>
       <c r="G88" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3906,16 +3960,16 @@
         <v>7</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D89" t="s">
+        <v>209</v>
+      </c>
+      <c r="E89" t="s">
         <v>210</v>
       </c>
-      <c r="E89" t="s">
-        <v>211</v>
-      </c>
       <c r="G89" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3923,10 +3977,10 @@
         <v>5</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C90" t="s">
         <v>212</v>
-      </c>
-      <c r="C90" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3934,10 +3988,10 @@
         <v>7</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C91" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -3945,10 +3999,10 @@
         <v>5</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3956,10 +4010,10 @@
         <v>7</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3967,10 +4021,10 @@
         <v>5</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D94" t="s">
         <v>218</v>
-      </c>
-      <c r="D94" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3978,10 +4032,10 @@
         <v>7</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D95" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3989,13 +4043,13 @@
         <v>5</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4003,13 +4057,13 @@
         <v>7</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4017,10 +4071,10 @@
         <v>5</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C98" t="s">
         <v>221</v>
-      </c>
-      <c r="C98" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4028,10 +4082,10 @@
         <v>7</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C99" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4039,19 +4093,19 @@
         <v>5</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D100" t="s">
+        <v>226</v>
+      </c>
+      <c r="E100" t="s">
         <v>224</v>
       </c>
-      <c r="D100" t="s">
-        <v>227</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>225</v>
       </c>
-      <c r="F100" t="s">
-        <v>226</v>
-      </c>
       <c r="G100" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4059,19 +4113,19 @@
         <v>7</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D101" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E101" t="s">
+        <v>227</v>
+      </c>
+      <c r="F101" t="s">
         <v>228</v>
       </c>
-      <c r="F101" t="s">
-        <v>229</v>
-      </c>
       <c r="G101" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4079,10 +4133,10 @@
         <v>5</v>
       </c>
       <c r="B102" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4090,10 +4144,10 @@
         <v>7</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="33" x14ac:dyDescent="0.25">
@@ -4101,10 +4155,10 @@
         <v>5</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4112,10 +4166,10 @@
         <v>7</v>
       </c>
       <c r="B105" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4123,16 +4177,16 @@
         <v>5</v>
       </c>
       <c r="B106" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="G106" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4140,16 +4194,16 @@
         <v>7</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C107" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="G107" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4157,10 +4211,10 @@
         <v>5</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="33" x14ac:dyDescent="0.25">
@@ -4168,10 +4222,10 @@
         <v>7</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4179,13 +4233,13 @@
         <v>5</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4193,13 +4247,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C111" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4207,16 +4261,16 @@
         <v>5</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C112" t="s">
+        <v>252</v>
+      </c>
+      <c r="D112" t="s">
         <v>253</v>
       </c>
-      <c r="D112" t="s">
-        <v>254</v>
-      </c>
       <c r="I112" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4224,13 +4278,13 @@
         <v>7</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4238,13 +4292,13 @@
         <v>5</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C114" t="s">
         <v>255</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>256</v>
-      </c>
-      <c r="D114" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4252,13 +4306,13 @@
         <v>7</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C115" t="s">
+        <v>257</v>
+      </c>
+      <c r="D115" t="s">
         <v>258</v>
-      </c>
-      <c r="D115" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4266,13 +4320,13 @@
         <v>5</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C116" t="s">
         <v>260</v>
       </c>
-      <c r="C116" t="s">
+      <c r="E116" t="s">
         <v>261</v>
-      </c>
-      <c r="E116" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4280,13 +4334,13 @@
         <v>7</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C117" t="s">
+        <v>262</v>
+      </c>
+      <c r="E117" t="s">
         <v>263</v>
-      </c>
-      <c r="E117" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4294,19 +4348,19 @@
         <v>5</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C118" t="s">
         <v>265</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
+        <v>268</v>
+      </c>
+      <c r="E118" t="s">
+        <v>267</v>
+      </c>
+      <c r="F118" t="s">
         <v>266</v>
-      </c>
-      <c r="D118" t="s">
-        <v>269</v>
-      </c>
-      <c r="E118" t="s">
-        <v>268</v>
-      </c>
-      <c r="F118" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4314,19 +4368,19 @@
         <v>7</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C119" t="s">
+        <v>269</v>
+      </c>
+      <c r="D119" t="s">
+        <v>271</v>
+      </c>
+      <c r="E119" t="s">
+        <v>272</v>
+      </c>
+      <c r="F119" t="s">
         <v>270</v>
-      </c>
-      <c r="D119" t="s">
-        <v>272</v>
-      </c>
-      <c r="E119" t="s">
-        <v>273</v>
-      </c>
-      <c r="F119" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4334,13 +4388,13 @@
         <v>5</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4348,13 +4402,13 @@
         <v>7</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C121" t="s">
+        <v>276</v>
+      </c>
+      <c r="D121" t="s">
         <v>277</v>
-      </c>
-      <c r="D121" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4362,19 +4416,19 @@
         <v>5</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C122" t="s">
+        <v>690</v>
+      </c>
+      <c r="E122" t="s">
         <v>691</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>692</v>
       </c>
-      <c r="F122" t="s">
-        <v>693</v>
-      </c>
       <c r="L122" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4382,10 +4436,10 @@
         <v>7</v>
       </c>
       <c r="B123" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L123" t="s">
         <v>279</v>
-      </c>
-      <c r="L123" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4393,13 +4447,13 @@
         <v>5</v>
       </c>
       <c r="B124" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C124" t="s">
         <v>282</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>283</v>
-      </c>
-      <c r="D124" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4407,13 +4461,13 @@
         <v>7</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C125" t="s">
+        <v>284</v>
+      </c>
+      <c r="D125" t="s">
         <v>285</v>
-      </c>
-      <c r="D125" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4421,19 +4475,19 @@
         <v>5</v>
       </c>
       <c r="B126" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C126" t="s">
         <v>287</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>288</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
+        <v>290</v>
+      </c>
+      <c r="F126" t="s">
         <v>289</v>
-      </c>
-      <c r="E126" t="s">
-        <v>291</v>
-      </c>
-      <c r="F126" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4441,19 +4495,19 @@
         <v>7</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C127" t="s">
+        <v>291</v>
+      </c>
+      <c r="D127" t="s">
         <v>292</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
+        <v>294</v>
+      </c>
+      <c r="F127" t="s">
         <v>293</v>
-      </c>
-      <c r="E127" t="s">
-        <v>295</v>
-      </c>
-      <c r="F127" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4461,201 +4515,213 @@
         <v>5</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C128" t="s">
+        <v>297</v>
+      </c>
+      <c r="D128" t="s">
         <v>296</v>
       </c>
-      <c r="C128" t="s">
+      <c r="E128" t="s">
         <v>298</v>
       </c>
-      <c r="D128" t="s">
-        <v>297</v>
-      </c>
-      <c r="E128" t="s">
+    </row>
+    <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C129" t="s">
+        <v>300</v>
+      </c>
+      <c r="D129" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>7</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="E129" t="s">
         <v>301</v>
       </c>
-      <c r="D129" t="s">
-        <v>300</v>
-      </c>
-      <c r="E129" t="s">
+    </row>
+    <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B130" s="3" t="s">
+      <c r="C130" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C130" s="1" t="s">
+    </row>
+    <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>7</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B132" s="3" t="s">
+      <c r="C132" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C132" s="1" t="s">
+    </row>
+    <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>7</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C133" s="2" t="s">
+    <row r="134" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B134" s="3" t="s">
+      <c r="D134" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="E134" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E134" s="1" t="s">
+    </row>
+    <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>7</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D135" s="2" t="s">
+      <c r="E135" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E135" s="2" t="s">
+    </row>
+    <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B136" s="3" t="s">
+      <c r="C136" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C136" s="1" t="s">
+    </row>
+    <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>7</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C137" s="2" t="s">
+    <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B138" s="3" t="s">
+      <c r="C138" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C138" s="1" t="s">
+    </row>
+    <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>7</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C139" s="2" t="s">
+    <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B140" s="3" t="s">
+      <c r="C140" s="1" t="s">
         <v>319</v>
       </c>
       <c r="D140" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>7</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>319</v>
-      </c>
       <c r="D141" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B142" s="3" t="s">
+    <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>7</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B144" s="3" t="s">
+      <c r="C144" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4663,10 +4729,10 @@
         <v>7</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="146" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4674,13 +4740,13 @@
         <v>5</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L146" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="147" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4688,13 +4754,13 @@
         <v>7</v>
       </c>
       <c r="B147" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="L147" t="s">
         <v>328</v>
       </c>
-      <c r="L147" t="s">
-        <v>329</v>
-      </c>
       <c r="N147" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="148" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4702,10 +4768,10 @@
         <v>5</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C148" t="s">
         <v>331</v>
-      </c>
-      <c r="C148" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4713,10 +4779,10 @@
         <v>7</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C149" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4724,16 +4790,16 @@
         <v>5</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C150" t="s">
         <v>334</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
+        <v>334</v>
+      </c>
+      <c r="E150" t="s">
         <v>335</v>
-      </c>
-      <c r="D150" t="s">
-        <v>335</v>
-      </c>
-      <c r="E150" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="151" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4741,16 +4807,16 @@
         <v>7</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C151" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D151" t="s">
+        <v>336</v>
+      </c>
+      <c r="E151" t="s">
         <v>337</v>
-      </c>
-      <c r="E151" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4758,16 +4824,16 @@
         <v>5</v>
       </c>
       <c r="B152" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I152" t="s">
         <v>339</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="I152" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4775,16 +4841,16 @@
         <v>7</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C153" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="I153" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4792,10 +4858,10 @@
         <v>5</v>
       </c>
       <c r="B154" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4803,10 +4869,10 @@
         <v>7</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="156" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4814,19 +4880,19 @@
         <v>5</v>
       </c>
       <c r="B156" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="F156" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F156" s="1" t="s">
+      <c r="L156" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="L156" s="4" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="157" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4834,19 +4900,19 @@
         <v>7</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C157" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="L157" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="L157" s="2" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="158" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4854,19 +4920,19 @@
         <v>5</v>
       </c>
       <c r="B158" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="F158" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="159" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4874,19 +4940,19 @@
         <v>7</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C159" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="E159" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="F159" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="160" spans="1:14" ht="33" x14ac:dyDescent="0.25">
@@ -4894,10 +4960,10 @@
         <v>5</v>
       </c>
       <c r="B160" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C160" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="161" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4905,10 +4971,10 @@
         <v>7</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="162" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4916,10 +4982,10 @@
         <v>5</v>
       </c>
       <c r="B162" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4927,10 +4993,10 @@
         <v>7</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C163" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4938,13 +5004,13 @@
         <v>5</v>
       </c>
       <c r="B164" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4952,13 +5018,13 @@
         <v>7</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4966,10 +5032,10 @@
         <v>5</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C166" t="s">
         <v>376</v>
-      </c>
-      <c r="C166" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4977,10 +5043,10 @@
         <v>7</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C167" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4988,10 +5054,10 @@
         <v>5</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N168" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4999,7 +5065,7 @@
         <v>7</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5007,16 +5073,16 @@
         <v>5</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="E170" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F170" t="s">
         <v>380</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F170" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="171" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5024,16 +5090,16 @@
         <v>7</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C171" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F171" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5041,16 +5107,16 @@
         <v>5</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="E172" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="173" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5058,16 +5124,16 @@
         <v>7</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C173" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="174" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5075,16 +5141,16 @@
         <v>5</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C174" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5092,16 +5158,16 @@
         <v>7</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C175" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="E175" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5109,10 +5175,10 @@
         <v>5</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C176" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5120,10 +5186,10 @@
         <v>7</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C177" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5131,16 +5197,16 @@
         <v>5</v>
       </c>
       <c r="B178" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H178" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5148,16 +5214,16 @@
         <v>7</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C179" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H179" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5165,10 +5231,10 @@
         <v>5</v>
       </c>
       <c r="B180" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C180" t="s">
         <v>410</v>
-      </c>
-      <c r="C180" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5176,10 +5242,10 @@
         <v>7</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C181" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="33" x14ac:dyDescent="0.25">
@@ -5187,19 +5253,19 @@
         <v>5</v>
       </c>
       <c r="B182" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="E182" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="L182" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="L182" s="4" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5207,19 +5273,19 @@
         <v>7</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C183" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="E183" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="L183" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="L183" s="2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="33" x14ac:dyDescent="0.25">
@@ -5227,13 +5293,13 @@
         <v>5</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C184" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="H184" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5241,13 +5307,13 @@
         <v>7</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C185" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="H185" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="H185" s="2" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5255,16 +5321,16 @@
         <v>5</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C186" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="E186" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5272,16 +5338,16 @@
         <v>7</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C187" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="E187" s="2" t="s">
         <v>603</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5289,10 +5355,10 @@
         <v>5</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5300,10 +5366,10 @@
         <v>7</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5311,10 +5377,22 @@
         <v>5</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D190" t="s">
+        <v>703</v>
+      </c>
+      <c r="F190" t="s">
+        <v>704</v>
+      </c>
+      <c r="G190" t="s">
+        <v>705</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5322,10 +5400,13 @@
         <v>7</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
+      </c>
+      <c r="C191" t="s">
+        <v>595</v>
       </c>
       <c r="I191" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5333,13 +5414,13 @@
         <v>5</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C192" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5347,13 +5428,13 @@
         <v>7</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C193" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>593</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5361,10 +5442,10 @@
         <v>5</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5372,10 +5453,10 @@
         <v>7</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5383,13 +5464,13 @@
         <v>5</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C196" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5397,13 +5478,13 @@
         <v>7</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C197" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5411,13 +5492,13 @@
         <v>5</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D198" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E198" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5425,13 +5506,13 @@
         <v>7</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D199" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5439,16 +5520,16 @@
         <v>5</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C200" t="s">
+        <v>577</v>
+      </c>
+      <c r="D200" t="s">
         <v>578</v>
       </c>
-      <c r="D200" t="s">
-        <v>579</v>
-      </c>
       <c r="I200" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5456,13 +5537,13 @@
         <v>7</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C201" t="s">
         <v>23</v>
       </c>
       <c r="D201" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I201" t="s">
         <v>23</v>
@@ -5473,10 +5554,10 @@
         <v>5</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5484,10 +5565,10 @@
         <v>7</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5495,13 +5576,13 @@
         <v>5</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C204" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E204" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5509,13 +5590,13 @@
         <v>7</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C205" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5523,19 +5604,19 @@
         <v>5</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C206" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E206" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="E206" s="1" t="s">
+      <c r="F206" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="F206" s="1" t="s">
+      <c r="J206" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="J206" s="1" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5543,19 +5624,19 @@
         <v>7</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C207" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="E207" s="2" t="s">
+      <c r="F207" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="F207" s="2" t="s">
+      <c r="J207" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="J207" s="2" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5563,10 +5644,10 @@
         <v>5</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="209" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5574,10 +5655,10 @@
         <v>7</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="210" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5585,16 +5666,16 @@
         <v>5</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C210" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D210" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E210" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="211" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5602,16 +5683,16 @@
         <v>7</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D211" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="212" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5619,10 +5700,10 @@
         <v>5</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5630,10 +5711,10 @@
         <v>7</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="214" spans="1:13" ht="33" x14ac:dyDescent="0.25">
@@ -5641,10 +5722,10 @@
         <v>5</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="215" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5652,10 +5733,10 @@
         <v>7</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="216" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5663,16 +5744,16 @@
         <v>5</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C216" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D216" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="E216" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="217" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5680,16 +5761,16 @@
         <v>7</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C217" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="D217" s="2" t="s">
+      <c r="E217" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="218" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5697,13 +5778,13 @@
         <v>5</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="219" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5711,13 +5792,13 @@
         <v>7</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="220" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5725,13 +5806,13 @@
         <v>5</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D220" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="M220" t="s">
         <v>538</v>
-      </c>
-      <c r="M220" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="221" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5739,13 +5820,13 @@
         <v>7</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D221" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="M221" t="s">
         <v>540</v>
-      </c>
-      <c r="M221" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="222" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5753,22 +5834,22 @@
         <v>5</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C222" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D222" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="E222" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="E222" s="1" t="s">
-        <v>532</v>
-      </c>
       <c r="F222" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="223" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5776,22 +5857,22 @@
         <v>7</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C223" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="D223" s="2" t="s">
+      <c r="E223" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="E223" s="2" t="s">
-        <v>537</v>
-      </c>
       <c r="F223" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="224" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5799,13 +5880,13 @@
         <v>5</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C224" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E224" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="225" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5813,13 +5894,13 @@
         <v>7</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C225" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="226" spans="1:12" ht="33" x14ac:dyDescent="0.25">
@@ -5827,10 +5908,10 @@
         <v>5</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="227" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5838,10 +5919,10 @@
         <v>7</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="228" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5849,22 +5930,22 @@
         <v>5</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C228" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D228" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="E228" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="E228" s="1" t="s">
+      <c r="F228" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="F228" s="1" t="s">
+      <c r="L228" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="L228" s="4" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5872,22 +5953,22 @@
         <v>7</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C229" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D229" s="2" t="s">
+      <c r="E229" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="E229" s="2" t="s">
+      <c r="F229" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="F229" s="2" t="s">
+      <c r="L229" s="5" t="s">
         <v>520</v>
-      </c>
-      <c r="L229" s="5" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="230" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5895,13 +5976,13 @@
         <v>5</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C230" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="231" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5909,13 +5990,13 @@
         <v>7</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C231" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D231" s="5" t="s">
         <v>510</v>
-      </c>
-      <c r="D231" s="5" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="232" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5923,16 +6004,16 @@
         <v>5</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C232" t="s">
+        <v>502</v>
+      </c>
+      <c r="D232" t="s">
+        <v>501</v>
+      </c>
+      <c r="E232" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="D232" t="s">
-        <v>502</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="233" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5940,16 +6021,16 @@
         <v>7</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C233" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D233" t="s">
+        <v>504</v>
+      </c>
+      <c r="E233" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="D233" t="s">
-        <v>505</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="234" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5957,19 +6038,19 @@
         <v>5</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C234" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="E234" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="E234" s="1" t="s">
+      <c r="F234" s="4" t="s">
         <v>496</v>
-      </c>
-      <c r="F234" s="4" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="235" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5977,19 +6058,19 @@
         <v>7</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="236" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5997,13 +6078,13 @@
         <v>5</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C236" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="237" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6011,13 +6092,13 @@
         <v>7</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C237" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="238" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6025,13 +6106,13 @@
         <v>5</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C238" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E238" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="239" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6039,13 +6120,13 @@
         <v>7</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C239" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E239" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6053,13 +6134,13 @@
         <v>5</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D240" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6067,13 +6148,13 @@
         <v>7</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6081,16 +6162,16 @@
         <v>5</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C242" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="E242" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="D242" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6098,16 +6179,16 @@
         <v>7</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C243" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E243" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6115,10 +6196,10 @@
         <v>5</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6126,10 +6207,10 @@
         <v>7</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="33" x14ac:dyDescent="0.25">
@@ -6137,16 +6218,16 @@
         <v>5</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C246" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D246" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="E246" s="4" t="s">
         <v>469</v>
-      </c>
-      <c r="E246" s="4" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6154,16 +6235,16 @@
         <v>7</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C247" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D247" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D247" s="2" t="s">
+      <c r="E247" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6171,16 +6252,16 @@
         <v>5</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C248" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E248" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6188,16 +6269,16 @@
         <v>7</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C249" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E249" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6205,16 +6286,16 @@
         <v>5</v>
       </c>
       <c r="B250" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E250" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6222,16 +6303,16 @@
         <v>7</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C251" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D251" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="D251" s="2" t="s">
-        <v>461</v>
-      </c>
       <c r="E251" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6239,10 +6320,10 @@
         <v>5</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6250,10 +6331,10 @@
         <v>7</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6261,16 +6342,16 @@
         <v>5</v>
       </c>
       <c r="B254" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C254" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D254" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D254" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="I254" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6278,16 +6359,16 @@
         <v>7</v>
       </c>
       <c r="B255" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C255" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D255" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D255" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="I255" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6295,16 +6376,16 @@
         <v>5</v>
       </c>
       <c r="B256" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6312,16 +6393,16 @@
         <v>7</v>
       </c>
       <c r="B257" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C257" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H257" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="H257" s="2" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6329,16 +6410,16 @@
         <v>5</v>
       </c>
       <c r="B258" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C258" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D258" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D258" s="1" t="s">
-        <v>415</v>
-      </c>
       <c r="E258" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6346,16 +6427,16 @@
         <v>7</v>
       </c>
       <c r="B259" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C259" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D259" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D259" s="2" t="s">
-        <v>419</v>
-      </c>
       <c r="E259" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6363,16 +6444,16 @@
         <v>5</v>
       </c>
       <c r="B260" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C260" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E260" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6380,16 +6461,16 @@
         <v>7</v>
       </c>
       <c r="B261" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C261" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E261" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6397,10 +6478,10 @@
         <v>5</v>
       </c>
       <c r="B262" t="s">
+        <v>662</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -6408,7 +6489,7 @@
         <v>7</v>
       </c>
       <c r="B263" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -6416,10 +6497,10 @@
         <v>5</v>
       </c>
       <c r="B264" t="s">
+        <v>664</v>
+      </c>
+      <c r="D264" t="s">
         <v>665</v>
-      </c>
-      <c r="D264" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -6427,7 +6508,7 @@
         <v>7</v>
       </c>
       <c r="B265" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -6435,10 +6516,10 @@
         <v>5</v>
       </c>
       <c r="B266" t="s">
+        <v>666</v>
+      </c>
+      <c r="D266" t="s">
         <v>667</v>
-      </c>
-      <c r="D266" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -6446,7 +6527,7 @@
         <v>7</v>
       </c>
       <c r="B267" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -6454,10 +6535,10 @@
         <v>5</v>
       </c>
       <c r="B268" t="s">
+        <v>668</v>
+      </c>
+      <c r="D268" t="s">
         <v>669</v>
-      </c>
-      <c r="D268" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -6465,7 +6546,7 @@
         <v>7</v>
       </c>
       <c r="B269" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -6473,10 +6554,10 @@
         <v>5</v>
       </c>
       <c r="B270" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="C270" t="s">
         <v>671</v>
-      </c>
-      <c r="C270" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -6484,7 +6565,7 @@
         <v>7</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6492,16 +6573,16 @@
         <v>5</v>
       </c>
       <c r="B272" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C272" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D272" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="I272" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6509,16 +6590,16 @@
         <v>7</v>
       </c>
       <c r="B273" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C273" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D273" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D273" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="I273" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6526,10 +6607,10 @@
         <v>5</v>
       </c>
       <c r="B274" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6537,10 +6618,10 @@
         <v>7</v>
       </c>
       <c r="B275" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -6548,13 +6629,13 @@
         <v>5</v>
       </c>
       <c r="B276" t="s">
+        <v>674</v>
+      </c>
+      <c r="C276" t="s">
+        <v>676</v>
+      </c>
+      <c r="F276" t="s">
         <v>675</v>
-      </c>
-      <c r="C276" t="s">
-        <v>677</v>
-      </c>
-      <c r="F276" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -6562,7 +6643,7 @@
         <v>7</v>
       </c>
       <c r="B277" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -6570,19 +6651,19 @@
         <v>5</v>
       </c>
       <c r="B278" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C278" t="s">
+        <v>680</v>
+      </c>
+      <c r="D278" t="s">
         <v>681</v>
       </c>
-      <c r="D278" t="s">
+      <c r="E278" t="s">
         <v>682</v>
       </c>
-      <c r="E278" t="s">
+      <c r="G278" t="s">
         <v>683</v>
-      </c>
-      <c r="G278" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -6590,7 +6671,7 @@
         <v>7</v>
       </c>
       <c r="B279" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -6598,13 +6679,13 @@
         <v>5</v>
       </c>
       <c r="B280" t="s">
+        <v>678</v>
+      </c>
+      <c r="E280" t="s">
         <v>679</v>
       </c>
-      <c r="E280" t="s">
-        <v>680</v>
-      </c>
       <c r="F280" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -6612,7 +6693,7 @@
         <v>7</v>
       </c>
       <c r="B281" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -6620,22 +6701,22 @@
         <v>5</v>
       </c>
       <c r="B282" t="s">
+        <v>684</v>
+      </c>
+      <c r="C282" t="s">
         <v>685</v>
       </c>
-      <c r="C282" t="s">
+      <c r="D282" t="s">
         <v>686</v>
       </c>
-      <c r="D282" t="s">
+      <c r="E282" t="s">
         <v>687</v>
       </c>
-      <c r="E282" t="s">
+      <c r="F282" t="s">
         <v>688</v>
       </c>
-      <c r="F282" t="s">
+      <c r="G282" t="s">
         <v>689</v>
-      </c>
-      <c r="G282" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -6643,13 +6724,7 @@
         <v>7</v>
       </c>
       <c r="B283" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B289">
-        <f>+(287-1)/2</f>
-        <v>143</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>

--- a/BasicTypes/Dictionary/RawData.xlsx
+++ b/BasicTypes/Dictionary/RawData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="755">
   <si>
     <t>a</t>
   </si>
@@ -927,9 +927,6 @@
     <t>namako</t>
   </si>
   <si>
-    <t>extra, addtional, spice</t>
-  </si>
-  <si>
     <t>nanpa</t>
   </si>
   <si>
@@ -2134,6 +2131,156 @@
   </si>
   <si>
     <t>in what way</t>
+  </si>
+  <si>
+    <t>insect's, insect-like</t>
+  </si>
+  <si>
+    <t>make into an insect</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>similarly</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>sweetly</t>
+  </si>
+  <si>
+    <t>sunnily</t>
+  </si>
+  <si>
+    <t>greatly</t>
+  </si>
+  <si>
+    <t>only</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>kiss</t>
+  </si>
+  <si>
+    <t>whiten</t>
+  </si>
+  <si>
+    <t>bird like</t>
+  </si>
+  <si>
+    <t>bump-like</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>sunny, bright</t>
+  </si>
+  <si>
+    <t>illutrated</t>
+  </si>
+  <si>
+    <t>shell-like</t>
+  </si>
+  <si>
+    <t>surround</t>
+  </si>
+  <si>
+    <t>commecial</t>
+  </si>
+  <si>
+    <t>sell, buy, exchange</t>
+  </si>
+  <si>
+    <t>sell, buy</t>
+  </si>
+  <si>
+    <t>mechanical</t>
+  </si>
+  <si>
+    <t>mechanically</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>fruity</t>
+  </si>
+  <si>
+    <t>vegetable, plant-like</t>
+  </si>
+  <si>
+    <t>usage</t>
+  </si>
+  <si>
+    <t>usable</t>
+  </si>
+  <si>
+    <t>hearing</t>
+  </si>
+  <si>
+    <t>little one</t>
+  </si>
+  <si>
+    <t>make red</t>
+  </si>
+  <si>
+    <t>redden, is red</t>
+  </si>
+  <si>
+    <t>existence, reality</t>
+  </si>
+  <si>
+    <t>true, real</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>monetary</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>extra, additional, spice</t>
+  </si>
+  <si>
+    <t>extra, additional, spicy</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>eye's</t>
+  </si>
+  <si>
+    <t>leg's</t>
+  </si>
+  <si>
+    <t>word's</t>
+  </si>
+  <si>
+    <t>number's</t>
+  </si>
+  <si>
+    <t>finish</t>
+  </si>
+  <si>
+    <t>want</t>
   </si>
 </sst>
 </file>
@@ -2518,8 +2665,8 @@
   <dimension ref="A1:N283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A190" sqref="A190"/>
+      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F242" sqref="F242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2563,7 +2710,7 @@
         <v>102</v>
       </c>
       <c r="K1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -2583,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D2" t="s">
         <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="L2" t="s">
         <v>3</v>
@@ -2659,10 +2806,10 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L7" t="s">
         <v>20</v>
@@ -2704,7 +2851,7 @@
         <v>28</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N10" s="3"/>
     </row>
@@ -2722,7 +2869,7 @@
         <v>30</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N11" s="3"/>
     </row>
@@ -2740,7 +2887,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N12" s="3"/>
     </row>
@@ -2758,7 +2905,7 @@
         <v>30</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N13" s="3"/>
     </row>
@@ -2767,7 +2914,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>31</v>
@@ -2779,7 +2926,7 @@
         <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2794,7 +2941,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>36</v>
@@ -2806,7 +2953,7 @@
         <v>39</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2851,16 +2998,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>610</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2873,16 +3020,16 @@
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>612</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2907,7 +3054,7 @@
         <v>45</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2927,7 +3074,7 @@
         <v>48</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -2984,6 +3131,15 @@
       <c r="C26" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D26" t="s">
+        <v>726</v>
+      </c>
+      <c r="E26" t="s">
+        <v>727</v>
+      </c>
+      <c r="F26" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -3004,13 +3160,13 @@
         <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3021,13 +3177,13 @@
         <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>700</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3050,7 +3206,7 @@
         <v>64</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>61</v>
@@ -3076,7 +3232,7 @@
         <v>69</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>66</v>
@@ -3092,6 +3248,12 @@
       <c r="C32" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="D32" t="s">
+        <v>729</v>
+      </c>
+      <c r="G32" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -3118,7 +3280,7 @@
         <v>75</v>
       </c>
       <c r="G34" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3135,7 +3297,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3155,7 +3317,7 @@
         <v>82</v>
       </c>
       <c r="G36" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L36" t="s">
         <v>83</v>
@@ -3178,7 +3340,7 @@
         <v>81</v>
       </c>
       <c r="G37" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L37" t="s">
         <v>78</v>
@@ -3201,7 +3363,7 @@
         <v>92</v>
       </c>
       <c r="G38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I38" t="s">
         <v>90</v>
@@ -3224,7 +3386,7 @@
         <v>95</v>
       </c>
       <c r="G39" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3287,6 +3449,9 @@
       <c r="C44" t="s">
         <v>106</v>
       </c>
+      <c r="D44" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -3383,6 +3548,9 @@
       <c r="C50" t="s">
         <v>124</v>
       </c>
+      <c r="D50" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -3442,6 +3610,12 @@
       <c r="B54" t="s">
         <v>135</v>
       </c>
+      <c r="C54" t="s">
+        <v>734</v>
+      </c>
+      <c r="D54" t="s">
+        <v>735</v>
+      </c>
       <c r="E54" t="s">
         <v>136</v>
       </c>
@@ -3473,6 +3647,9 @@
       <c r="C56" t="s">
         <v>142</v>
       </c>
+      <c r="D56" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -3552,7 +3729,7 @@
         <v>151</v>
       </c>
       <c r="G62" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3569,7 +3746,7 @@
         <v>153</v>
       </c>
       <c r="G63" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3639,7 +3816,7 @@
         <v>164</v>
       </c>
       <c r="G68" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3659,7 +3836,7 @@
         <v>168</v>
       </c>
       <c r="G69" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3669,6 +3846,9 @@
       <c r="B70" s="3" t="s">
         <v>169</v>
       </c>
+      <c r="C70" t="s">
+        <v>736</v>
+      </c>
       <c r="D70" t="s">
         <v>171</v>
       </c>
@@ -3676,7 +3856,7 @@
         <v>170</v>
       </c>
       <c r="G70" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3693,7 +3873,7 @@
         <v>172</v>
       </c>
       <c r="G71" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3710,7 +3890,7 @@
         <v>175</v>
       </c>
       <c r="G72" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3727,7 +3907,7 @@
         <v>177</v>
       </c>
       <c r="G73" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3769,7 +3949,7 @@
         <v>181</v>
       </c>
       <c r="G76" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3783,13 +3963,13 @@
         <v>184</v>
       </c>
       <c r="D77" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F77" t="s">
         <v>182</v>
       </c>
       <c r="G77" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3806,7 +3986,7 @@
         <v>186</v>
       </c>
       <c r="E78" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3837,7 +4017,7 @@
         <v>191</v>
       </c>
       <c r="G80" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3857,7 +4037,7 @@
         <v>194</v>
       </c>
       <c r="G81" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3899,7 +4079,7 @@
         <v>202</v>
       </c>
       <c r="G84" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3919,7 +4099,7 @@
         <v>204</v>
       </c>
       <c r="G85" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3945,6 +4125,9 @@
       <c r="B88" s="3" t="s">
         <v>206</v>
       </c>
+      <c r="C88" t="s">
+        <v>737</v>
+      </c>
       <c r="D88" t="s">
         <v>207</v>
       </c>
@@ -3952,7 +4135,7 @@
         <v>208</v>
       </c>
       <c r="G88" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3969,7 +4152,7 @@
         <v>210</v>
       </c>
       <c r="G89" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4023,9 +4206,18 @@
       <c r="B94" s="3" t="s">
         <v>217</v>
       </c>
+      <c r="C94" t="s">
+        <v>218</v>
+      </c>
       <c r="D94" t="s">
         <v>218</v>
       </c>
+      <c r="E94" t="s">
+        <v>738</v>
+      </c>
+      <c r="F94" t="s">
+        <v>739</v>
+      </c>
     </row>
     <row r="95" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -4043,13 +4235,25 @@
         <v>5</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C96" t="s">
+        <v>740</v>
+      </c>
+      <c r="D96" t="s">
+        <v>741</v>
+      </c>
+      <c r="E96" t="s">
+        <v>742</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="G96" t="s">
+        <v>743</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4057,13 +4261,13 @@
         <v>7</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4105,7 +4309,7 @@
         <v>225</v>
       </c>
       <c r="G100" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4125,7 +4329,7 @@
         <v>228</v>
       </c>
       <c r="G101" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4186,7 +4390,7 @@
         <v>238</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4203,7 +4407,7 @@
         <v>240</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4216,6 +4420,9 @@
       <c r="C108" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="D108" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="109" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -4362,6 +4569,9 @@
       <c r="F118" t="s">
         <v>266</v>
       </c>
+      <c r="G118" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="119" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -4419,13 +4629,13 @@
         <v>278</v>
       </c>
       <c r="C122" t="s">
+        <v>689</v>
+      </c>
+      <c r="E122" t="s">
         <v>690</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>691</v>
-      </c>
-      <c r="F122" t="s">
-        <v>692</v>
       </c>
       <c r="L122" s="1" t="s">
         <v>280</v>
@@ -4552,7 +4762,10 @@
         <v>302</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>303</v>
+        <v>746</v>
+      </c>
+      <c r="D130" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4568,10 +4781,16 @@
         <v>5</v>
       </c>
       <c r="B132" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>305</v>
+      <c r="D132" t="s">
+        <v>752</v>
+      </c>
+      <c r="E132" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4579,10 +4798,10 @@
         <v>7</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="33" x14ac:dyDescent="0.25">
@@ -4590,13 +4809,13 @@
         <v>5</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D134" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="E134" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4604,13 +4823,13 @@
         <v>7</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4618,10 +4837,10 @@
         <v>5</v>
       </c>
       <c r="B136" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4629,10 +4848,10 @@
         <v>7</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4640,10 +4859,10 @@
         <v>5</v>
       </c>
       <c r="B138" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4651,10 +4870,10 @@
         <v>7</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4662,16 +4881,16 @@
         <v>5</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="D140" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4679,16 +4898,16 @@
         <v>7</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4696,10 +4915,13 @@
         <v>5</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
+      </c>
+      <c r="D142" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4707,10 +4929,10 @@
         <v>7</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4718,10 +4940,13 @@
         <v>5</v>
       </c>
       <c r="B144" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>325</v>
+      <c r="D144" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4729,10 +4954,10 @@
         <v>7</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="146" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4740,13 +4965,13 @@
         <v>5</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L146" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N146" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="147" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4754,13 +4979,13 @@
         <v>7</v>
       </c>
       <c r="B147" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="L147" t="s">
         <v>327</v>
       </c>
-      <c r="L147" t="s">
-        <v>328</v>
-      </c>
       <c r="N147" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="148" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4768,10 +4993,13 @@
         <v>5</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C148" t="s">
         <v>330</v>
       </c>
-      <c r="C148" t="s">
-        <v>331</v>
+      <c r="D148" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4779,10 +5007,10 @@
         <v>7</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C149" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4790,16 +5018,16 @@
         <v>5</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C150" t="s">
         <v>333</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
+        <v>333</v>
+      </c>
+      <c r="E150" t="s">
         <v>334</v>
-      </c>
-      <c r="D150" t="s">
-        <v>334</v>
-      </c>
-      <c r="E150" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="151" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4807,16 +5035,16 @@
         <v>7</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C151" t="s">
         <v>297</v>
       </c>
       <c r="D151" t="s">
+        <v>335</v>
+      </c>
+      <c r="E151" t="s">
         <v>336</v>
-      </c>
-      <c r="E151" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4824,16 +5052,16 @@
         <v>5</v>
       </c>
       <c r="B152" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I152" t="s">
         <v>338</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I152" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4841,16 +5069,16 @@
         <v>7</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C153" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="I153" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4858,10 +5086,10 @@
         <v>5</v>
       </c>
       <c r="B154" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4869,10 +5097,10 @@
         <v>7</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="156" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4880,19 +5108,19 @@
         <v>5</v>
       </c>
       <c r="B156" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="F156" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F156" s="1" t="s">
+      <c r="L156" s="4" t="s">
         <v>350</v>
-      </c>
-      <c r="L156" s="4" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="157" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4900,19 +5128,19 @@
         <v>7</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C157" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="L157" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="L157" s="2" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="158" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4920,19 +5148,19 @@
         <v>5</v>
       </c>
       <c r="B158" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="F158" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="159" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4940,19 +5168,19 @@
         <v>7</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C159" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="E159" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="F159" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="160" spans="1:14" ht="33" x14ac:dyDescent="0.25">
@@ -4960,10 +5188,10 @@
         <v>5</v>
       </c>
       <c r="B160" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C160" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="161" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4971,10 +5199,10 @@
         <v>7</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="162" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4982,10 +5210,10 @@
         <v>5</v>
       </c>
       <c r="B162" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4993,7 +5221,7 @@
         <v>7</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C163" t="s">
         <v>56</v>
@@ -5004,13 +5232,13 @@
         <v>5</v>
       </c>
       <c r="B164" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5018,13 +5246,13 @@
         <v>7</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5032,10 +5260,10 @@
         <v>5</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C166" t="s">
         <v>375</v>
-      </c>
-      <c r="C166" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5043,7 +5271,7 @@
         <v>7</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C167" t="s">
         <v>56</v>
@@ -5054,10 +5282,10 @@
         <v>5</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N168" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5065,7 +5293,7 @@
         <v>7</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5073,16 +5301,16 @@
         <v>5</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="E170" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F170" t="s">
         <v>379</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="F170" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="171" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5090,16 +5318,16 @@
         <v>7</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C171" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F171" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5107,16 +5335,16 @@
         <v>5</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="E172" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="173" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5124,16 +5352,16 @@
         <v>7</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C173" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="174" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5141,16 +5369,19 @@
         <v>5</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C174" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="E174" s="1" t="s">
-        <v>396</v>
+      <c r="F174" s="1" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5158,16 +5389,16 @@
         <v>7</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C175" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="E175" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5175,10 +5406,16 @@
         <v>5</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C176" t="s">
-        <v>400</v>
+        <v>399</v>
+      </c>
+      <c r="D176" t="s">
+        <v>705</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5186,10 +5423,10 @@
         <v>7</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C177" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5197,16 +5434,16 @@
         <v>5</v>
       </c>
       <c r="B178" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H178" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5214,16 +5451,16 @@
         <v>7</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C179" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H179" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5231,10 +5468,10 @@
         <v>5</v>
       </c>
       <c r="B180" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C180" t="s">
         <v>409</v>
-      </c>
-      <c r="C180" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5242,10 +5479,10 @@
         <v>7</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C181" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="33" x14ac:dyDescent="0.25">
@@ -5253,19 +5490,19 @@
         <v>5</v>
       </c>
       <c r="B182" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="E182" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="L182" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="L182" s="4" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5273,19 +5510,19 @@
         <v>7</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C183" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="E183" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="L183" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="L183" s="2" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="33" x14ac:dyDescent="0.25">
@@ -5293,13 +5530,22 @@
         <v>5</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C184" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D184" t="s">
+        <v>707</v>
+      </c>
+      <c r="E184" t="s">
+        <v>708</v>
+      </c>
+      <c r="G184" t="s">
+        <v>709</v>
+      </c>
+      <c r="H184" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5307,13 +5553,13 @@
         <v>7</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C185" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="H185" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="H185" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5321,16 +5567,16 @@
         <v>5</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C186" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="E186" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5338,16 +5584,16 @@
         <v>7</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C187" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="E187" s="2" t="s">
         <v>602</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5355,10 +5601,16 @@
         <v>5</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
+      </c>
+      <c r="D188" t="s">
+        <v>724</v>
+      </c>
+      <c r="E188" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5366,10 +5618,10 @@
         <v>7</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5377,22 +5629,22 @@
         <v>5</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D190" t="s">
+        <v>702</v>
+      </c>
+      <c r="F190" t="s">
         <v>703</v>
       </c>
-      <c r="F190" t="s">
+      <c r="G190" t="s">
         <v>704</v>
       </c>
-      <c r="G190" t="s">
-        <v>705</v>
-      </c>
       <c r="I190" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5400,13 +5652,13 @@
         <v>7</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C191" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I191" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5414,13 +5666,13 @@
         <v>5</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C192" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5428,13 +5680,13 @@
         <v>7</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C193" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5442,10 +5694,10 @@
         <v>5</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5453,10 +5705,10 @@
         <v>7</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5464,13 +5716,16 @@
         <v>5</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C196" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>585</v>
+      <c r="E196" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5478,13 +5733,13 @@
         <v>7</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C197" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>586</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5492,13 +5747,13 @@
         <v>5</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D198" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E198" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5506,13 +5761,13 @@
         <v>7</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D199" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5520,16 +5775,16 @@
         <v>5</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C200" t="s">
+        <v>576</v>
+      </c>
+      <c r="D200" t="s">
         <v>577</v>
       </c>
-      <c r="D200" t="s">
-        <v>578</v>
-      </c>
       <c r="I200" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5537,13 +5792,13 @@
         <v>7</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C201" t="s">
         <v>23</v>
       </c>
       <c r="D201" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I201" t="s">
         <v>23</v>
@@ -5554,10 +5809,13 @@
         <v>5</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
+      </c>
+      <c r="D202" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5565,10 +5823,10 @@
         <v>7</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5576,13 +5834,16 @@
         <v>5</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C204" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D204" t="s">
+        <v>723</v>
+      </c>
+      <c r="E204" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5590,13 +5851,13 @@
         <v>7</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C205" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5604,19 +5865,19 @@
         <v>5</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C206" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E206" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="E206" s="1" t="s">
+      <c r="F206" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="F206" s="1" t="s">
+      <c r="J206" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="J206" s="1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5624,19 +5885,19 @@
         <v>7</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C207" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="E207" s="2" t="s">
+      <c r="F207" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="F207" s="2" t="s">
+      <c r="J207" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="J207" s="2" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5644,10 +5905,10 @@
         <v>5</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="209" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5655,10 +5916,10 @@
         <v>7</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="210" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5666,16 +5927,19 @@
         <v>5</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C210" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D210" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E210" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="E210" s="1" t="s">
-        <v>556</v>
+      <c r="G210" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="211" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5683,16 +5947,16 @@
         <v>7</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D211" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="212" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5700,10 +5964,16 @@
         <v>5</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
+      </c>
+      <c r="D212" t="s">
+        <v>722</v>
+      </c>
+      <c r="G212" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5711,10 +5981,10 @@
         <v>7</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="214" spans="1:13" ht="33" x14ac:dyDescent="0.25">
@@ -5722,10 +5992,10 @@
         <v>5</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="215" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5733,10 +6003,10 @@
         <v>7</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="216" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5744,16 +6014,19 @@
         <v>5</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C216" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D216" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="E216" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="E216" s="1" t="s">
-        <v>547</v>
+      <c r="G216" s="1" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="217" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5761,16 +6034,16 @@
         <v>7</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C217" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="D217" s="2" t="s">
+      <c r="E217" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="218" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5778,13 +6051,13 @@
         <v>5</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="219" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5792,13 +6065,13 @@
         <v>7</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="220" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5806,13 +6079,16 @@
         <v>5</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D220" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G220" t="s">
+        <v>715</v>
+      </c>
+      <c r="M220" t="s">
         <v>537</v>
-      </c>
-      <c r="M220" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="221" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5820,13 +6096,13 @@
         <v>7</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D221" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="M221" t="s">
         <v>539</v>
-      </c>
-      <c r="M221" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="222" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5834,22 +6110,22 @@
         <v>5</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C222" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D222" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="E222" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="E222" s="1" t="s">
-        <v>531</v>
-      </c>
       <c r="F222" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="223" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5857,22 +6133,22 @@
         <v>7</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C223" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="D223" s="2" t="s">
+      <c r="E223" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E223" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="F223" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="224" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5880,13 +6156,16 @@
         <v>5</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C224" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D224" t="s">
+        <v>721</v>
+      </c>
+      <c r="E224" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="225" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5894,13 +6173,13 @@
         <v>7</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C225" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="226" spans="1:12" ht="33" x14ac:dyDescent="0.25">
@@ -5908,10 +6187,13 @@
         <v>5</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
+      </c>
+      <c r="E226" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="227" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5919,10 +6201,10 @@
         <v>7</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="228" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5930,22 +6212,22 @@
         <v>5</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C228" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D228" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="E228" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="E228" s="1" t="s">
+      <c r="F228" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="F228" s="1" t="s">
+      <c r="L228" s="4" t="s">
         <v>514</v>
-      </c>
-      <c r="L228" s="4" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5953,22 +6235,22 @@
         <v>7</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C229" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="D229" s="2" t="s">
+      <c r="E229" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E229" s="2" t="s">
+      <c r="F229" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="F229" s="2" t="s">
+      <c r="L229" s="5" t="s">
         <v>519</v>
-      </c>
-      <c r="L229" s="5" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="230" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5976,13 +6258,13 @@
         <v>5</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C230" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="231" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5990,13 +6272,13 @@
         <v>7</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C231" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D231" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="D231" s="5" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="232" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6004,16 +6286,16 @@
         <v>5</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C232" t="s">
+        <v>501</v>
+      </c>
+      <c r="D232" t="s">
+        <v>500</v>
+      </c>
+      <c r="E232" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="D232" t="s">
-        <v>501</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="233" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6021,16 +6303,16 @@
         <v>7</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C233" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D233" t="s">
+        <v>503</v>
+      </c>
+      <c r="E233" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="D233" t="s">
-        <v>504</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="234" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6038,19 +6320,19 @@
         <v>5</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C234" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="E234" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="E234" s="1" t="s">
+      <c r="F234" s="4" t="s">
         <v>495</v>
-      </c>
-      <c r="F234" s="4" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="235" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6058,19 +6340,19 @@
         <v>7</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="236" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6078,13 +6360,16 @@
         <v>5</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C236" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>490</v>
+      <c r="E236" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="237" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6092,13 +6377,13 @@
         <v>7</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C237" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="238" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6106,13 +6391,13 @@
         <v>5</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C238" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E238" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="239" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6120,13 +6405,13 @@
         <v>7</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C239" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E239" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6134,13 +6419,16 @@
         <v>5</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D240" t="s">
-        <v>481</v>
+        <v>480</v>
+      </c>
+      <c r="E240" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6148,13 +6436,13 @@
         <v>7</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6162,16 +6450,16 @@
         <v>5</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C242" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="E242" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="D242" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6179,16 +6467,16 @@
         <v>7</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C243" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E243" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6196,10 +6484,13 @@
         <v>5</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
+      </c>
+      <c r="D244" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6207,10 +6498,10 @@
         <v>7</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="33" x14ac:dyDescent="0.25">
@@ -6218,16 +6509,16 @@
         <v>5</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C246" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D246" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="E246" s="4" t="s">
         <v>468</v>
-      </c>
-      <c r="E246" s="4" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6235,16 +6526,16 @@
         <v>7</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C247" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D247" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D247" s="2" t="s">
+      <c r="E247" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6252,16 +6543,16 @@
         <v>5</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C248" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E248" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6269,16 +6560,16 @@
         <v>7</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C249" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E249" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6286,16 +6577,19 @@
         <v>5</v>
       </c>
       <c r="B250" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E250" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C250" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>455</v>
+      <c r="F250" s="1" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6303,16 +6597,16 @@
         <v>7</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C251" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D251" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D251" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="E251" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6320,10 +6614,13 @@
         <v>5</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6331,10 +6628,10 @@
         <v>7</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6342,16 +6639,16 @@
         <v>5</v>
       </c>
       <c r="B254" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C254" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D254" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D254" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="I254" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6359,16 +6656,16 @@
         <v>7</v>
       </c>
       <c r="B255" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C255" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D255" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D255" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="I255" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6376,16 +6673,16 @@
         <v>5</v>
       </c>
       <c r="B256" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6393,16 +6690,16 @@
         <v>7</v>
       </c>
       <c r="B257" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C257" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H257" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H257" s="2" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6410,16 +6707,16 @@
         <v>5</v>
       </c>
       <c r="B258" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C258" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D258" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D258" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="E258" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6427,16 +6724,16 @@
         <v>7</v>
       </c>
       <c r="B259" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C259" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D259" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="D259" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="E259" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6444,16 +6741,16 @@
         <v>5</v>
       </c>
       <c r="B260" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C260" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E260" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6461,16 +6758,16 @@
         <v>7</v>
       </c>
       <c r="B261" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C261" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E261" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6478,10 +6775,10 @@
         <v>5</v>
       </c>
       <c r="B262" t="s">
+        <v>661</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -6489,7 +6786,7 @@
         <v>7</v>
       </c>
       <c r="B263" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -6497,10 +6794,10 @@
         <v>5</v>
       </c>
       <c r="B264" t="s">
+        <v>663</v>
+      </c>
+      <c r="D264" t="s">
         <v>664</v>
-      </c>
-      <c r="D264" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -6508,7 +6805,7 @@
         <v>7</v>
       </c>
       <c r="B265" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -6516,10 +6813,10 @@
         <v>5</v>
       </c>
       <c r="B266" t="s">
+        <v>665</v>
+      </c>
+      <c r="D266" t="s">
         <v>666</v>
-      </c>
-      <c r="D266" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -6527,7 +6824,7 @@
         <v>7</v>
       </c>
       <c r="B267" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -6535,10 +6832,10 @@
         <v>5</v>
       </c>
       <c r="B268" t="s">
+        <v>667</v>
+      </c>
+      <c r="D268" t="s">
         <v>668</v>
-      </c>
-      <c r="D268" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -6546,7 +6843,7 @@
         <v>7</v>
       </c>
       <c r="B269" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -6554,10 +6851,13 @@
         <v>5</v>
       </c>
       <c r="B270" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="C270" t="s">
         <v>670</v>
       </c>
-      <c r="C270" t="s">
-        <v>671</v>
+      <c r="D270" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -6565,7 +6865,7 @@
         <v>7</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6573,16 +6873,16 @@
         <v>5</v>
       </c>
       <c r="B272" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C272" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D272" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="I272" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6590,16 +6890,16 @@
         <v>7</v>
       </c>
       <c r="B273" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C273" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D273" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D273" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="I273" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6607,10 +6907,10 @@
         <v>5</v>
       </c>
       <c r="B274" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6618,10 +6918,10 @@
         <v>7</v>
       </c>
       <c r="B275" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -6629,13 +6929,13 @@
         <v>5</v>
       </c>
       <c r="B276" t="s">
+        <v>673</v>
+      </c>
+      <c r="C276" t="s">
+        <v>675</v>
+      </c>
+      <c r="F276" t="s">
         <v>674</v>
-      </c>
-      <c r="C276" t="s">
-        <v>676</v>
-      </c>
-      <c r="F276" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -6643,7 +6943,7 @@
         <v>7</v>
       </c>
       <c r="B277" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -6651,19 +6951,19 @@
         <v>5</v>
       </c>
       <c r="B278" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C278" t="s">
+        <v>679</v>
+      </c>
+      <c r="D278" t="s">
         <v>680</v>
       </c>
-      <c r="D278" t="s">
+      <c r="E278" t="s">
         <v>681</v>
       </c>
-      <c r="E278" t="s">
+      <c r="G278" t="s">
         <v>682</v>
-      </c>
-      <c r="G278" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -6671,7 +6971,7 @@
         <v>7</v>
       </c>
       <c r="B279" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -6679,13 +6979,13 @@
         <v>5</v>
       </c>
       <c r="B280" t="s">
+        <v>677</v>
+      </c>
+      <c r="E280" t="s">
         <v>678</v>
       </c>
-      <c r="E280" t="s">
-        <v>679</v>
-      </c>
       <c r="F280" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -6693,7 +6993,7 @@
         <v>7</v>
       </c>
       <c r="B281" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -6701,22 +7001,22 @@
         <v>5</v>
       </c>
       <c r="B282" t="s">
+        <v>683</v>
+      </c>
+      <c r="C282" t="s">
         <v>684</v>
       </c>
-      <c r="C282" t="s">
+      <c r="D282" t="s">
         <v>685</v>
       </c>
-      <c r="D282" t="s">
+      <c r="E282" t="s">
         <v>686</v>
       </c>
-      <c r="E282" t="s">
+      <c r="F282" t="s">
         <v>687</v>
       </c>
-      <c r="F282" t="s">
+      <c r="G282" t="s">
         <v>688</v>
-      </c>
-      <c r="G282" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -6724,7 +7024,7 @@
         <v>7</v>
       </c>
       <c r="B283" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>

--- a/BasicTypes/Dictionary/RawData.xlsx
+++ b/BasicTypes/Dictionary/RawData.xlsx
@@ -2665,8 +2665,8 @@
   <dimension ref="A1:N283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F242" sqref="F242"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BasicTypes/Dictionary/RawData.xlsx
+++ b/BasicTypes/Dictionary/RawData.xlsx
@@ -2067,9 +2067,6 @@
     <t>disparagingly</t>
   </si>
   <si>
-    <t>monsuata</t>
-  </si>
-  <si>
     <t>fear, monster</t>
   </si>
   <si>
@@ -2281,6 +2278,9 @@
   </si>
   <si>
     <t>want</t>
+  </si>
+  <si>
+    <t>monsuta</t>
   </si>
 </sst>
 </file>
@@ -2665,8 +2665,8 @@
   <dimension ref="A1:N283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G141" sqref="G141"/>
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B282" sqref="B282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2730,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D2" t="s">
         <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L2" t="s">
         <v>3</v>
@@ -2914,7 +2914,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>31</v>
@@ -2941,7 +2941,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>36</v>
@@ -3132,13 +3132,13 @@
         <v>54</v>
       </c>
       <c r="D26" t="s">
+        <v>725</v>
+      </c>
+      <c r="E26" t="s">
         <v>726</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>727</v>
-      </c>
-      <c r="F26" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3160,13 +3160,13 @@
         <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3177,13 +3177,13 @@
         <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3249,10 +3249,10 @@
         <v>70</v>
       </c>
       <c r="D32" t="s">
+        <v>728</v>
+      </c>
+      <c r="G32" t="s">
         <v>729</v>
-      </c>
-      <c r="G32" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3450,7 +3450,7 @@
         <v>106</v>
       </c>
       <c r="D44" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3549,7 +3549,7 @@
         <v>124</v>
       </c>
       <c r="D50" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3611,10 +3611,10 @@
         <v>135</v>
       </c>
       <c r="C54" t="s">
+        <v>733</v>
+      </c>
+      <c r="D54" t="s">
         <v>734</v>
-      </c>
-      <c r="D54" t="s">
-        <v>735</v>
       </c>
       <c r="E54" t="s">
         <v>136</v>
@@ -3648,7 +3648,7 @@
         <v>142</v>
       </c>
       <c r="D56" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3847,7 +3847,7 @@
         <v>169</v>
       </c>
       <c r="C70" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D70" t="s">
         <v>171</v>
@@ -3986,7 +3986,7 @@
         <v>186</v>
       </c>
       <c r="E78" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4126,7 +4126,7 @@
         <v>206</v>
       </c>
       <c r="C88" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D88" t="s">
         <v>207</v>
@@ -4213,10 +4213,10 @@
         <v>218</v>
       </c>
       <c r="E94" t="s">
+        <v>737</v>
+      </c>
+      <c r="F94" t="s">
         <v>738</v>
-      </c>
-      <c r="F94" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4238,19 +4238,19 @@
         <v>612</v>
       </c>
       <c r="C96" t="s">
+        <v>739</v>
+      </c>
+      <c r="D96" t="s">
         <v>740</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>741</v>
-      </c>
-      <c r="E96" t="s">
-        <v>742</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>614</v>
       </c>
       <c r="G96" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>613</v>
@@ -4421,7 +4421,7 @@
         <v>242</v>
       </c>
       <c r="D108" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="33" x14ac:dyDescent="0.25">
@@ -4570,7 +4570,7 @@
         <v>266</v>
       </c>
       <c r="G118" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4629,13 +4629,13 @@
         <v>278</v>
       </c>
       <c r="C122" t="s">
+        <v>688</v>
+      </c>
+      <c r="E122" t="s">
         <v>689</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>690</v>
-      </c>
-      <c r="F122" t="s">
-        <v>691</v>
       </c>
       <c r="L122" s="1" t="s">
         <v>280</v>
@@ -4762,10 +4762,10 @@
         <v>302</v>
       </c>
       <c r="C130" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D130" t="s">
         <v>746</v>
-      </c>
-      <c r="D130" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4787,10 +4787,10 @@
         <v>304</v>
       </c>
       <c r="D132" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E132" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4921,7 +4921,7 @@
         <v>320</v>
       </c>
       <c r="D142" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4946,7 +4946,7 @@
         <v>324</v>
       </c>
       <c r="D144" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4999,7 +4999,7 @@
         <v>330</v>
       </c>
       <c r="D148" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5381,7 +5381,7 @@
         <v>395</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5412,10 +5412,10 @@
         <v>399</v>
       </c>
       <c r="D176" t="s">
+        <v>704</v>
+      </c>
+      <c r="E176" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5536,13 +5536,13 @@
         <v>603</v>
       </c>
       <c r="D184" t="s">
+        <v>706</v>
+      </c>
+      <c r="E184" t="s">
         <v>707</v>
       </c>
-      <c r="E184" t="s">
+      <c r="G184" t="s">
         <v>708</v>
-      </c>
-      <c r="G184" t="s">
-        <v>709</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>604</v>
@@ -5607,10 +5607,10 @@
         <v>595</v>
       </c>
       <c r="D188" t="s">
+        <v>723</v>
+      </c>
+      <c r="E188" t="s">
         <v>724</v>
-      </c>
-      <c r="E188" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5635,13 +5635,13 @@
         <v>593</v>
       </c>
       <c r="D190" t="s">
+        <v>701</v>
+      </c>
+      <c r="F190" t="s">
         <v>702</v>
       </c>
-      <c r="F190" t="s">
+      <c r="G190" t="s">
         <v>703</v>
-      </c>
-      <c r="G190" t="s">
-        <v>704</v>
       </c>
       <c r="I190" s="1" t="s">
         <v>593</v>
@@ -5725,7 +5725,7 @@
         <v>584</v>
       </c>
       <c r="E196" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5815,7 +5815,7 @@
         <v>574</v>
       </c>
       <c r="D202" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5840,7 +5840,7 @@
         <v>570</v>
       </c>
       <c r="D204" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>571</v>
@@ -5939,7 +5939,7 @@
         <v>555</v>
       </c>
       <c r="G210" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="211" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5970,10 +5970,10 @@
         <v>552</v>
       </c>
       <c r="D212" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G212" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -6026,7 +6026,7 @@
         <v>546</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="217" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -6085,7 +6085,7 @@
         <v>536</v>
       </c>
       <c r="G220" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M220" t="s">
         <v>537</v>
@@ -6162,7 +6162,7 @@
         <v>522</v>
       </c>
       <c r="D224" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>523</v>
@@ -6193,7 +6193,7 @@
         <v>520</v>
       </c>
       <c r="E226" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="227" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6369,7 +6369,7 @@
         <v>489</v>
       </c>
       <c r="E236" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="237" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6428,7 +6428,7 @@
         <v>480</v>
       </c>
       <c r="E240" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6490,7 +6490,7 @@
         <v>472</v>
       </c>
       <c r="D244" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6589,7 +6589,7 @@
         <v>454</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6620,7 +6620,7 @@
         <v>315</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -7001,22 +7001,22 @@
         <v>5</v>
       </c>
       <c r="B282" t="s">
+        <v>754</v>
+      </c>
+      <c r="C282" t="s">
         <v>683</v>
       </c>
-      <c r="C282" t="s">
+      <c r="D282" t="s">
         <v>684</v>
       </c>
-      <c r="D282" t="s">
+      <c r="E282" t="s">
         <v>685</v>
       </c>
-      <c r="E282" t="s">
+      <c r="F282" t="s">
         <v>686</v>
       </c>
-      <c r="F282" t="s">
+      <c r="G282" t="s">
         <v>687</v>
-      </c>
-      <c r="G282" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -7024,7 +7024,7 @@
         <v>7</v>
       </c>
       <c r="B283" t="s">
-        <v>683</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>

--- a/BasicTypes/Dictionary/RawData.xlsx
+++ b/BasicTypes/Dictionary/RawData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="759">
   <si>
     <t>a</t>
   </si>
@@ -201,9 +201,6 @@
     <t>bad, negative, wrong, evil, overly complex, unhealthy</t>
   </si>
   <si>
-    <t>oh dear! woe! alas!</t>
-  </si>
-  <si>
     <t>negativity, badness, evil</t>
   </si>
   <si>
@@ -267,9 +264,6 @@
     <t>pollute, dirty</t>
   </si>
   <si>
-    <t>ew! yuck!</t>
-  </si>
-  <si>
     <t>dirt, pollution, garbage, filth</t>
   </si>
   <si>
@@ -855,12 +849,6 @@
     <t>mu</t>
   </si>
   <si>
-    <t>blek! ŭa! miaŭ! ra!</t>
-  </si>
-  <si>
-    <t>woof! meow! moo! </t>
-  </si>
-  <si>
     <t>mun</t>
   </si>
   <si>
@@ -1068,9 +1056,6 @@
     <t>screw up, fall apart, break</t>
   </si>
   <si>
-    <t>damn! fuck!</t>
-  </si>
-  <si>
     <t>fuŝo, akcidento, katastrofo, detruo, eraro, damaĝo, rompo </t>
   </si>
   <si>
@@ -1260,9 +1245,6 @@
     <t>good, simple, positive, nice, correct, right</t>
   </si>
   <si>
-    <t>great! good! thanks! OK! cool! yay!</t>
-  </si>
-  <si>
     <t>improve, fix, repair, make good</t>
   </si>
   <si>
@@ -1272,9 +1254,6 @@
     <t>bona, simpla, pozitiva, afabla, ĝusta</t>
   </si>
   <si>
-    <t>bone! bonege! dankon! en ordo!</t>
-  </si>
-  <si>
     <t>bonigi,plibonigi, ripari</t>
   </si>
   <si>
@@ -1560,9 +1539,6 @@
     <t>talk, chat, communicate</t>
   </si>
   <si>
-    <t>hello! hi!</t>
-  </si>
-  <si>
     <t>lingvo, parolado, komunikado </t>
   </si>
   <si>
@@ -2281,6 +2257,42 @@
   </si>
   <si>
     <t>monsuta</t>
+  </si>
+  <si>
+    <t>emotionally</t>
+  </si>
+  <si>
+    <t>darkly</t>
+  </si>
+  <si>
+    <t>finally, completely</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>damn!, fuck!</t>
+  </si>
+  <si>
+    <t>great!, good!, thanks!, OK!, cool!, yay!</t>
+  </si>
+  <si>
+    <t>bone!, bonege!, dankon!, en ordo!</t>
+  </si>
+  <si>
+    <t>hello!, hi!</t>
+  </si>
+  <si>
+    <t>oh dear!, woe!, alas!</t>
+  </si>
+  <si>
+    <t>ew!, yuck!</t>
+  </si>
+  <si>
+    <t>woof!, meow!, moo! </t>
+  </si>
+  <si>
+    <t>blek!, ŭa!, miaŭ!, ra!</t>
   </si>
 </sst>
 </file>
@@ -2665,8 +2677,8 @@
   <dimension ref="A1:N283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B282" sqref="B282"/>
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2701,16 +2713,16 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -2730,13 +2742,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F2" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="L2" t="s">
         <v>3</v>
@@ -2806,10 +2818,10 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G7" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="L7" t="s">
         <v>20</v>
@@ -2851,7 +2863,7 @@
         <v>28</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="N10" s="3"/>
     </row>
@@ -2869,7 +2881,7 @@
         <v>30</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="N11" s="3"/>
     </row>
@@ -2887,7 +2899,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="N12" s="3"/>
     </row>
@@ -2905,7 +2917,7 @@
         <v>30</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="N13" s="3"/>
     </row>
@@ -2914,7 +2926,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>31</v>
@@ -2926,7 +2938,7 @@
         <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2941,7 +2953,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>36</v>
@@ -2953,7 +2965,7 @@
         <v>39</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2998,16 +3010,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -3020,16 +3032,16 @@
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -3054,7 +3066,7 @@
         <v>45</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3074,7 +3086,7 @@
         <v>48</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3132,13 +3144,13 @@
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E26" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="F26" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3160,13 +3172,13 @@
         <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3177,13 +3189,13 @@
         <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3194,22 +3206,22 @@
         <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>61</v>
+        <v>755</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3220,22 +3232,22 @@
         <v>59</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="F31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3243,16 +3255,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="G32" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3260,10 +3272,10 @@
         <v>7</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3271,16 +3283,16 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
         <v>73</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>74</v>
       </c>
-      <c r="D34" t="s">
-        <v>75</v>
-      </c>
       <c r="G34" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3288,16 +3300,16 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
         <v>76</v>
       </c>
-      <c r="D35" t="s">
-        <v>77</v>
-      </c>
       <c r="G35" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3305,22 +3317,22 @@
         <v>5</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="L36" t="s">
-        <v>83</v>
+        <v>756</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3328,22 +3340,22 @@
         <v>7</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" t="s">
         <v>80</v>
       </c>
-      <c r="D37" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" t="s">
-        <v>81</v>
-      </c>
       <c r="G37" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="L37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3351,22 +3363,22 @@
         <v>5</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" t="s">
+        <v>625</v>
+      </c>
+      <c r="I38" t="s">
         <v>88</v>
-      </c>
-      <c r="D38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G38" t="s">
-        <v>633</v>
-      </c>
-      <c r="I38" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3374,19 +3386,19 @@
         <v>7</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" t="s">
         <v>93</v>
       </c>
-      <c r="D39" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" t="s">
-        <v>95</v>
-      </c>
       <c r="G39" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3394,10 +3406,10 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -3405,10 +3417,10 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" t="s">
         <v>96</v>
-      </c>
-      <c r="D41" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3416,13 +3428,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" t="s">
         <v>99</v>
       </c>
-      <c r="C42" t="s">
-        <v>101</v>
-      </c>
       <c r="E42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3430,13 +3442,13 @@
         <v>7</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3444,13 +3456,13 @@
         <v>5</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D44" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3458,10 +3470,10 @@
         <v>7</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
         <v>105</v>
-      </c>
-      <c r="C45" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3469,16 +3481,16 @@
         <v>5</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F46" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3486,16 +3498,16 @@
         <v>7</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C47" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" t="s">
         <v>109</v>
       </c>
-      <c r="E47" t="s">
-        <v>111</v>
-      </c>
       <c r="F47" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -3503,19 +3515,19 @@
         <v>5</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" t="s">
         <v>116</v>
-      </c>
-      <c r="D48" t="s">
-        <v>117</v>
-      </c>
-      <c r="E48" t="s">
-        <v>115</v>
-      </c>
-      <c r="F48" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3523,19 +3535,19 @@
         <v>7</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" t="s">
+        <v>119</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F49" t="s">
         <v>120</v>
-      </c>
-      <c r="D49" t="s">
-        <v>121</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F49" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3543,13 +3555,13 @@
         <v>5</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3557,10 +3569,10 @@
         <v>7</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" t="s">
         <v>123</v>
-      </c>
-      <c r="C51" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3568,19 +3580,19 @@
         <v>5</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" t="s">
         <v>126</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E52" t="s">
+        <v>125</v>
+      </c>
+      <c r="F52" t="s">
+        <v>127</v>
+      </c>
+      <c r="K52" t="s">
         <v>128</v>
-      </c>
-      <c r="E52" t="s">
-        <v>127</v>
-      </c>
-      <c r="F52" t="s">
-        <v>129</v>
-      </c>
-      <c r="K52" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3588,19 +3600,19 @@
         <v>7</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C53" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" t="s">
+        <v>129</v>
+      </c>
+      <c r="F53" t="s">
+        <v>131</v>
+      </c>
+      <c r="K53" t="s">
         <v>132</v>
-      </c>
-      <c r="E53" t="s">
-        <v>131</v>
-      </c>
-      <c r="F53" t="s">
-        <v>133</v>
-      </c>
-      <c r="K53" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3608,19 +3620,19 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" t="s">
+        <v>725</v>
+      </c>
+      <c r="D54" t="s">
+        <v>726</v>
+      </c>
+      <c r="E54" t="s">
+        <v>134</v>
+      </c>
+      <c r="H54" t="s">
         <v>135</v>
-      </c>
-      <c r="C54" t="s">
-        <v>733</v>
-      </c>
-      <c r="D54" t="s">
-        <v>734</v>
-      </c>
-      <c r="E54" t="s">
-        <v>136</v>
-      </c>
-      <c r="H54" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3628,13 +3640,13 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H55" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3642,13 +3654,13 @@
         <v>5</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3656,10 +3668,10 @@
         <v>7</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" t="s">
         <v>141</v>
-      </c>
-      <c r="C57" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3667,13 +3679,13 @@
         <v>5</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3681,16 +3693,16 @@
         <v>7</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K59" t="s">
         <v>145</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K59" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3698,10 +3710,10 @@
         <v>5</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D60" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3709,7 +3721,7 @@
         <v>7</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D61" t="s">
         <v>56</v>
@@ -3720,16 +3732,16 @@
         <v>5</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" t="s">
         <v>150</v>
       </c>
-      <c r="C62" t="s">
-        <v>152</v>
-      </c>
       <c r="D62" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G62" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3737,16 +3749,16 @@
         <v>7</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C63" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D63" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G63" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3754,10 +3766,10 @@
         <v>5</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3765,10 +3777,10 @@
         <v>7</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3776,13 +3788,13 @@
         <v>5</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3790,13 +3802,13 @@
         <v>7</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C67" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D67" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3804,19 +3816,19 @@
         <v>5</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" t="s">
         <v>163</v>
       </c>
-      <c r="C68" t="s">
-        <v>164</v>
-      </c>
-      <c r="D68" t="s">
-        <v>165</v>
-      </c>
       <c r="E68" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G68" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3824,19 +3836,19 @@
         <v>7</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C69" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69" t="s">
+        <v>165</v>
+      </c>
+      <c r="E69" t="s">
         <v>166</v>
       </c>
-      <c r="D69" t="s">
-        <v>167</v>
-      </c>
-      <c r="E69" t="s">
-        <v>168</v>
-      </c>
       <c r="G69" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3844,19 +3856,19 @@
         <v>5</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C70" t="s">
+        <v>727</v>
+      </c>
+      <c r="D70" t="s">
         <v>169</v>
       </c>
-      <c r="C70" t="s">
-        <v>735</v>
-      </c>
-      <c r="D70" t="s">
-        <v>171</v>
-      </c>
       <c r="E70" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G70" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3864,16 +3876,16 @@
         <v>7</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D71" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E71" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G71" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3881,16 +3893,16 @@
         <v>5</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C72" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D72" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G72" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3898,16 +3910,16 @@
         <v>7</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C73" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D73" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G73" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3915,10 +3927,10 @@
         <v>5</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N74" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3926,10 +3938,10 @@
         <v>7</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N75" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3937,19 +3949,19 @@
         <v>5</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C76" t="s">
+        <v>179</v>
+      </c>
+      <c r="D76" t="s">
         <v>181</v>
       </c>
-      <c r="D76" t="s">
-        <v>183</v>
-      </c>
       <c r="F76" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G76" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3957,19 +3969,19 @@
         <v>7</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C77" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" t="s">
+        <v>635</v>
+      </c>
+      <c r="F77" t="s">
         <v>180</v>
       </c>
-      <c r="C77" t="s">
-        <v>184</v>
-      </c>
-      <c r="D77" t="s">
-        <v>643</v>
-      </c>
-      <c r="F77" t="s">
-        <v>182</v>
-      </c>
       <c r="G77" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3977,16 +3989,16 @@
         <v>5</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E78" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -3994,10 +4006,10 @@
         <v>7</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4005,19 +4017,19 @@
         <v>5</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" t="s">
         <v>188</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="E80" t="s">
         <v>189</v>
       </c>
-      <c r="D80" t="s">
-        <v>190</v>
-      </c>
-      <c r="E80" t="s">
-        <v>191</v>
-      </c>
       <c r="G80" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4025,19 +4037,19 @@
         <v>7</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C81" t="s">
+        <v>190</v>
+      </c>
+      <c r="D81" t="s">
+        <v>191</v>
+      </c>
+      <c r="E81" t="s">
         <v>192</v>
       </c>
-      <c r="D81" t="s">
-        <v>193</v>
-      </c>
-      <c r="E81" t="s">
-        <v>194</v>
-      </c>
       <c r="G81" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4045,10 +4057,10 @@
         <v>5</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4056,10 +4068,10 @@
         <v>7</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" t="s">
         <v>195</v>
-      </c>
-      <c r="C83" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4067,19 +4079,19 @@
         <v>5</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C84" t="s">
+        <v>197</v>
+      </c>
+      <c r="D84" t="s">
         <v>199</v>
       </c>
-      <c r="D84" t="s">
-        <v>201</v>
-      </c>
       <c r="E84" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G84" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4087,19 +4099,19 @@
         <v>7</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85" t="s">
         <v>198</v>
       </c>
-      <c r="C85" t="s">
-        <v>200</v>
-      </c>
       <c r="D85" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E85" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G85" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4107,7 +4119,7 @@
         <v>5</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4115,7 +4127,7 @@
         <v>7</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4123,19 +4135,19 @@
         <v>5</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" t="s">
+        <v>728</v>
+      </c>
+      <c r="D88" t="s">
+        <v>205</v>
+      </c>
+      <c r="E88" t="s">
         <v>206</v>
       </c>
-      <c r="C88" t="s">
-        <v>736</v>
-      </c>
-      <c r="D88" t="s">
-        <v>207</v>
-      </c>
-      <c r="E88" t="s">
-        <v>208</v>
-      </c>
       <c r="G88" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4143,16 +4155,16 @@
         <v>7</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D89" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E89" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G89" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4160,10 +4172,10 @@
         <v>5</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C90" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4171,10 +4183,10 @@
         <v>7</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C91" t="s">
         <v>211</v>
-      </c>
-      <c r="C91" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -4182,10 +4194,10 @@
         <v>5</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4193,10 +4205,10 @@
         <v>7</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4204,19 +4216,19 @@
         <v>5</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C94" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D94" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E94" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="F94" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4224,10 +4236,10 @@
         <v>7</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D95" t="s">
         <v>217</v>
-      </c>
-      <c r="D95" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4235,25 +4247,25 @@
         <v>5</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="C96" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="D96" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="E96" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G96" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4261,13 +4273,13 @@
         <v>7</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4275,10 +4287,10 @@
         <v>5</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C98" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4286,10 +4298,10 @@
         <v>7</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C99" t="s">
         <v>220</v>
-      </c>
-      <c r="C99" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4297,19 +4309,19 @@
         <v>5</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D100" t="s">
+        <v>224</v>
+      </c>
+      <c r="E100" t="s">
+        <v>222</v>
+      </c>
+      <c r="F100" t="s">
         <v>223</v>
       </c>
-      <c r="D100" t="s">
-        <v>226</v>
-      </c>
-      <c r="E100" t="s">
-        <v>224</v>
-      </c>
-      <c r="F100" t="s">
-        <v>225</v>
-      </c>
       <c r="G100" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4317,19 +4329,19 @@
         <v>7</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D101" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E101" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F101" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G101" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4337,10 +4349,10 @@
         <v>5</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4348,10 +4360,10 @@
         <v>7</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="33" x14ac:dyDescent="0.25">
@@ -4359,10 +4371,10 @@
         <v>5</v>
       </c>
       <c r="B104" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4370,10 +4382,10 @@
         <v>7</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4381,16 +4393,16 @@
         <v>5</v>
       </c>
       <c r="B106" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="G106" s="1" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4398,16 +4410,16 @@
         <v>7</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4415,13 +4427,13 @@
         <v>5</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D108" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="33" x14ac:dyDescent="0.25">
@@ -4429,10 +4441,10 @@
         <v>7</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4440,13 +4452,13 @@
         <v>5</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4454,13 +4466,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4468,16 +4480,16 @@
         <v>5</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C112" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D112" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I112" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4485,13 +4497,13 @@
         <v>7</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4499,13 +4511,13 @@
         <v>5</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C114" t="s">
+        <v>253</v>
+      </c>
+      <c r="D114" t="s">
         <v>254</v>
-      </c>
-      <c r="C114" t="s">
-        <v>255</v>
-      </c>
-      <c r="D114" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4513,13 +4525,13 @@
         <v>7</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C115" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D115" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4527,13 +4539,13 @@
         <v>5</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C116" t="s">
+        <v>258</v>
+      </c>
+      <c r="E116" t="s">
         <v>259</v>
-      </c>
-      <c r="C116" t="s">
-        <v>260</v>
-      </c>
-      <c r="E116" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4541,13 +4553,13 @@
         <v>7</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C117" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E117" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4555,22 +4567,22 @@
         <v>5</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C118" t="s">
+        <v>263</v>
+      </c>
+      <c r="D118" t="s">
+        <v>266</v>
+      </c>
+      <c r="E118" t="s">
+        <v>265</v>
+      </c>
+      <c r="F118" t="s">
         <v>264</v>
       </c>
-      <c r="C118" t="s">
-        <v>265</v>
-      </c>
-      <c r="D118" t="s">
-        <v>268</v>
-      </c>
-      <c r="E118" t="s">
-        <v>267</v>
-      </c>
-      <c r="F118" t="s">
-        <v>266</v>
-      </c>
       <c r="G118" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4578,19 +4590,19 @@
         <v>7</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C119" t="s">
+        <v>267</v>
+      </c>
+      <c r="D119" t="s">
         <v>269</v>
       </c>
-      <c r="D119" t="s">
-        <v>271</v>
-      </c>
       <c r="E119" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F119" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4598,13 +4610,13 @@
         <v>5</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4612,13 +4624,13 @@
         <v>7</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C121" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D121" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4626,19 +4638,19 @@
         <v>5</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C122" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="E122" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F122" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>280</v>
+        <v>757</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4646,10 +4658,10 @@
         <v>7</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L123" t="s">
-        <v>279</v>
+        <v>758</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4657,13 +4669,13 @@
         <v>5</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C124" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D124" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4671,13 +4683,13 @@
         <v>7</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C125" t="s">
+        <v>280</v>
+      </c>
+      <c r="D125" t="s">
         <v>281</v>
-      </c>
-      <c r="C125" t="s">
-        <v>284</v>
-      </c>
-      <c r="D125" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4685,19 +4697,19 @@
         <v>5</v>
       </c>
       <c r="B126" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C126" t="s">
+        <v>283</v>
+      </c>
+      <c r="D126" t="s">
+        <v>284</v>
+      </c>
+      <c r="E126" t="s">
         <v>286</v>
       </c>
-      <c r="C126" t="s">
-        <v>287</v>
-      </c>
-      <c r="D126" t="s">
-        <v>288</v>
-      </c>
-      <c r="E126" t="s">
-        <v>290</v>
-      </c>
       <c r="F126" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4705,19 +4717,19 @@
         <v>7</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C127" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D127" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E127" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F127" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -4725,16 +4737,16 @@
         <v>5</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C128" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D128" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E128" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4742,16 +4754,16 @@
         <v>7</v>
       </c>
       <c r="B129" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C129" t="s">
+        <v>296</v>
+      </c>
+      <c r="D129" t="s">
         <v>295</v>
       </c>
-      <c r="C129" t="s">
-        <v>300</v>
-      </c>
-      <c r="D129" t="s">
-        <v>299</v>
-      </c>
       <c r="E129" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4759,13 +4771,13 @@
         <v>5</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="D130" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4773,7 +4785,7 @@
         <v>7</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4781,16 +4793,16 @@
         <v>5</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D132" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="E132" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4798,10 +4810,10 @@
         <v>7</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="33" x14ac:dyDescent="0.25">
@@ -4809,13 +4821,13 @@
         <v>5</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4823,13 +4835,13 @@
         <v>7</v>
       </c>
       <c r="B135" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4837,10 +4849,10 @@
         <v>5</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4848,10 +4860,10 @@
         <v>7</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4859,10 +4871,10 @@
         <v>5</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4870,10 +4882,10 @@
         <v>7</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4881,16 +4893,16 @@
         <v>5</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>318</v>
+        <v>750</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>318</v>
+        <v>750</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4898,16 +4910,16 @@
         <v>7</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4915,13 +4927,13 @@
         <v>5</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D142" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4929,10 +4941,10 @@
         <v>7</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4940,13 +4952,13 @@
         <v>5</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D144" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4954,10 +4966,10 @@
         <v>7</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="146" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4965,13 +4977,13 @@
         <v>5</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L146" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="N146" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="147" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4979,13 +4991,13 @@
         <v>7</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L147" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="N147" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="148" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -4993,13 +5005,13 @@
         <v>5</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C148" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D148" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5007,10 +5019,10 @@
         <v>7</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C149" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5018,16 +5030,16 @@
         <v>5</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C150" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D150" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E150" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="151" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5035,16 +5047,16 @@
         <v>7</v>
       </c>
       <c r="B151" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C151" t="s">
+        <v>293</v>
+      </c>
+      <c r="D151" t="s">
+        <v>331</v>
+      </c>
+      <c r="E151" t="s">
         <v>332</v>
-      </c>
-      <c r="C151" t="s">
-        <v>297</v>
-      </c>
-      <c r="D151" t="s">
-        <v>335</v>
-      </c>
-      <c r="E151" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5052,16 +5064,16 @@
         <v>5</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I152" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5069,16 +5081,16 @@
         <v>7</v>
       </c>
       <c r="B153" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="D153" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5086,10 +5098,10 @@
         <v>5</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5097,10 +5109,10 @@
         <v>7</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="156" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5108,19 +5120,19 @@
         <v>5</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L156" s="4" t="s">
-        <v>350</v>
+        <v>751</v>
       </c>
     </row>
     <row r="157" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5128,19 +5140,19 @@
         <v>7</v>
       </c>
       <c r="B157" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>351</v>
-      </c>
       <c r="E157" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="158" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5148,19 +5160,19 @@
         <v>5</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="159" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5168,19 +5180,19 @@
         <v>7</v>
       </c>
       <c r="B159" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>360</v>
-      </c>
       <c r="D159" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="160" spans="1:14" ht="33" x14ac:dyDescent="0.25">
@@ -5188,10 +5200,10 @@
         <v>5</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="161" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5199,10 +5211,10 @@
         <v>7</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="162" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5210,10 +5222,10 @@
         <v>5</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5221,7 +5233,7 @@
         <v>7</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C163" t="s">
         <v>56</v>
@@ -5232,13 +5244,13 @@
         <v>5</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5246,13 +5258,13 @@
         <v>7</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5260,10 +5272,10 @@
         <v>5</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C166" t="s">
-        <v>375</v>
+        <v>371</v>
+      </c>
+      <c r="N166" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5271,10 +5283,7 @@
         <v>7</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C167" t="s">
-        <v>56</v>
+        <v>371</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5282,10 +5291,19 @@
         <v>5</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="N168" t="s">
-        <v>376</v>
+        <v>372</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F168" t="s">
+        <v>374</v>
+      </c>
+      <c r="G168" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5293,7 +5311,16 @@
         <v>7</v>
       </c>
       <c r="B169" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C169" s="2" t="s">
         <v>376</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5301,16 +5328,19 @@
         <v>5</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F170" t="s">
-        <v>379</v>
+        <v>382</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="171" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5318,16 +5348,16 @@
         <v>7</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5335,16 +5365,22 @@
         <v>5</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="173" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5352,16 +5388,16 @@
         <v>7</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="174" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5369,19 +5405,16 @@
         <v>5</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D174" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C174" t="s">
         <v>394</v>
       </c>
+      <c r="D174" t="s">
+        <v>696</v>
+      </c>
       <c r="E174" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>752</v>
+        <v>697</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5389,16 +5422,10 @@
         <v>7</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>398</v>
+        <v>387</v>
+      </c>
+      <c r="C175" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -5406,16 +5433,16 @@
         <v>5</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C176" t="s">
+        <v>396</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D176" t="s">
-        <v>704</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>705</v>
+      <c r="D176" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5423,10 +5450,16 @@
         <v>7</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C177" t="s">
+        <v>396</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>400</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5434,16 +5467,10 @@
         <v>5</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C178" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C178" t="s">
         <v>404</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5451,27 +5478,30 @@
         <v>7</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C179" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C179" t="s">
         <v>405</v>
       </c>
-      <c r="D179" s="2" t="s">
+    </row>
+    <row r="180" spans="1:12" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="H179" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B180" s="3" t="s">
+      <c r="D180" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C180" t="s">
+      <c r="E180" s="1" t="s">
         <v>409</v>
+      </c>
+      <c r="L180" s="4" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5479,10 +5509,19 @@
         <v>7</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C181" t="s">
+        <v>406</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>410</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="L181" s="2" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="33" x14ac:dyDescent="0.25">
@@ -5490,19 +5529,22 @@
         <v>5</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D182" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="E182" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="L182" s="4" t="s">
-        <v>414</v>
+      <c r="C182" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="D182" t="s">
+        <v>698</v>
+      </c>
+      <c r="E182" t="s">
+        <v>699</v>
+      </c>
+      <c r="G182" t="s">
+        <v>700</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5510,42 +5552,30 @@
         <v>7</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="L183" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" ht="33" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>5</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D184" t="s">
-        <v>706</v>
-      </c>
-      <c r="E184" t="s">
-        <v>707</v>
-      </c>
-      <c r="G184" t="s">
-        <v>708</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>604</v>
+        <v>414</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5553,13 +5583,16 @@
         <v>7</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="H185" s="2" t="s">
-        <v>606</v>
+        <v>592</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5567,16 +5600,16 @@
         <v>5</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>599</v>
+        <v>587</v>
+      </c>
+      <c r="D186" t="s">
+        <v>715</v>
+      </c>
+      <c r="E186" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5584,16 +5617,10 @@
         <v>7</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5601,16 +5628,22 @@
         <v>5</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="D188" t="s">
-        <v>723</v>
-      </c>
-      <c r="E188" t="s">
-        <v>724</v>
+        <v>693</v>
+      </c>
+      <c r="F188" t="s">
+        <v>694</v>
+      </c>
+      <c r="G188" t="s">
+        <v>695</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5618,10 +5651,13 @@
         <v>7</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>596</v>
+        <v>416</v>
+      </c>
+      <c r="C189" t="s">
+        <v>586</v>
+      </c>
+      <c r="I189" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5629,22 +5665,13 @@
         <v>5</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="D190" t="s">
-        <v>701</v>
-      </c>
-      <c r="F190" t="s">
-        <v>702</v>
-      </c>
-      <c r="G190" t="s">
-        <v>703</v>
-      </c>
-      <c r="I190" s="1" t="s">
-        <v>593</v>
+        <v>581</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5652,13 +5679,13 @@
         <v>7</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="C191" t="s">
-        <v>594</v>
-      </c>
-      <c r="I191" t="s">
-        <v>594</v>
+        <v>417</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -5666,13 +5693,10 @@
         <v>5</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5680,13 +5704,10 @@
         <v>7</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5694,10 +5715,16 @@
         <v>5</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>587</v>
+        <v>419</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E194" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5705,10 +5732,13 @@
         <v>7</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>588</v>
+        <v>577</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5716,16 +5746,13 @@
         <v>5</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>583</v>
+        <v>420</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="E196" t="s">
-        <v>709</v>
+        <v>571</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5733,13 +5760,13 @@
         <v>7</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>585</v>
+        <v>420</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>586</v>
+        <v>573</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5747,13 +5774,16 @@
         <v>5</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>580</v>
+        <v>421</v>
+      </c>
+      <c r="C198" t="s">
+        <v>568</v>
+      </c>
+      <c r="D198" t="s">
+        <v>569</v>
+      </c>
+      <c r="I198" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5761,13 +5791,16 @@
         <v>7</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>582</v>
+        <v>421</v>
+      </c>
+      <c r="C199" t="s">
+        <v>23</v>
+      </c>
+      <c r="D199" t="s">
+        <v>570</v>
+      </c>
+      <c r="I199" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5775,16 +5808,13 @@
         <v>5</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="C200" t="s">
-        <v>576</v>
+        <v>422</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>566</v>
       </c>
       <c r="D200" t="s">
-        <v>577</v>
-      </c>
-      <c r="I200" t="s">
-        <v>576</v>
+        <v>702</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5792,16 +5822,10 @@
         <v>7</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="C201" t="s">
-        <v>23</v>
-      </c>
-      <c r="D201" t="s">
-        <v>578</v>
-      </c>
-      <c r="I201" t="s">
-        <v>23</v>
+        <v>422</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5809,13 +5833,16 @@
         <v>5</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="D202" t="s">
-        <v>710</v>
+        <v>714</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5823,10 +5850,13 @@
         <v>7</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>575</v>
+        <v>564</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5834,16 +5864,19 @@
         <v>5</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D204" t="s">
-        <v>722</v>
+        <v>554</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>571</v>
+        <v>555</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5851,13 +5884,19 @@
         <v>7</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>573</v>
+        <v>559</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="J205" s="2" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5865,19 +5904,10 @@
         <v>5</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="J206" s="1" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5885,19 +5915,10 @@
         <v>7</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="J207" s="2" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -5905,10 +5926,19 @@
         <v>5</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>560</v>
+        <v>426</v>
+      </c>
+      <c r="C208" t="s">
+        <v>548</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G208" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="209" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5916,10 +5946,16 @@
         <v>7</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>561</v>
+        <v>551</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="210" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5927,19 +5963,16 @@
         <v>5</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C210" t="s">
-        <v>556</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>555</v>
+        <v>427</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D210" t="s">
+        <v>713</v>
       </c>
       <c r="G210" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
     </row>
     <row r="211" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5947,33 +5980,21 @@
         <v>7</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>5</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="D212" t="s">
-        <v>721</v>
-      </c>
-      <c r="G212" t="s">
-        <v>712</v>
+        <v>428</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5981,21 +6002,30 @@
         <v>7</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>5</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>550</v>
+        <v>429</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="215" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -6003,10 +6033,16 @@
         <v>7</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>551</v>
+        <v>539</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="216" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -6014,19 +6050,13 @@
         <v>5</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="G216" s="1" t="s">
-        <v>711</v>
+        <v>535</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="217" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -6034,16 +6064,13 @@
         <v>7</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>549</v>
+        <v>534</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="218" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -6051,13 +6078,16 @@
         <v>5</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="H218" s="1" t="s">
-        <v>540</v>
+        <v>431</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G218" t="s">
+        <v>706</v>
+      </c>
+      <c r="M218" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="219" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -6065,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="H219" s="2" t="s">
-        <v>541</v>
+        <v>431</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="M219" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="220" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -6079,16 +6109,22 @@
         <v>5</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>520</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="G220" t="s">
-        <v>714</v>
-      </c>
-      <c r="M220" t="s">
-        <v>537</v>
+        <v>521</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="221" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -6096,13 +6132,22 @@
         <v>7</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="M221" t="s">
-        <v>539</v>
+        <v>526</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="H221" s="2" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="222" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -6110,22 +6155,16 @@
         <v>5</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>529</v>
+        <v>514</v>
+      </c>
+      <c r="D222" t="s">
+        <v>712</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="F222" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H222" s="1" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
     </row>
     <row r="223" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -6133,39 +6172,27 @@
         <v>7</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="H223" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>5</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D224" t="s">
-        <v>720</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>523</v>
+        <v>434</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="E224" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="225" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6173,27 +6200,33 @@
         <v>7</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12" ht="33" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>5</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="E226" t="s">
-        <v>715</v>
+        <v>435</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="L226" s="4" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="227" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6201,10 +6234,22 @@
         <v>7</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>521</v>
+        <v>507</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="L227" s="5" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="228" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6212,22 +6257,13 @@
         <v>5</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="L228" s="4" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6235,22 +6271,13 @@
         <v>7</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="L229" s="5" t="s">
-        <v>519</v>
+        <v>501</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="230" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6258,13 +6285,16 @@
         <v>5</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>507</v>
+        <v>437</v>
+      </c>
+      <c r="C230" t="s">
+        <v>494</v>
+      </c>
+      <c r="D230" t="s">
+        <v>493</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="231" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6272,13 +6302,16 @@
         <v>7</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="D231" s="5" t="s">
-        <v>509</v>
+        <v>497</v>
+      </c>
+      <c r="D231" t="s">
+        <v>496</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="232" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6286,16 +6319,19 @@
         <v>5</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C232" t="s">
-        <v>501</v>
-      </c>
-      <c r="D232" t="s">
-        <v>500</v>
+        <v>438</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>486</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>502</v>
+        <v>487</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="233" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6303,16 +6339,19 @@
         <v>7</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D233" t="s">
-        <v>503</v>
+        <v>492</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>491</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>505</v>
+        <v>490</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="234" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6320,19 +6359,16 @@
         <v>5</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="F234" s="4" t="s">
-        <v>495</v>
+        <v>482</v>
+      </c>
+      <c r="E234" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="235" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6340,19 +6376,13 @@
         <v>7</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
     </row>
     <row r="236" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6360,16 +6390,13 @@
         <v>5</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="E236" t="s">
-        <v>716</v>
+        <v>477</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="237" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6377,13 +6404,13 @@
         <v>7</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>491</v>
+        <v>479</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="238" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6391,13 +6418,16 @@
         <v>5</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>485</v>
+        <v>474</v>
+      </c>
+      <c r="D238" t="s">
+        <v>473</v>
+      </c>
+      <c r="E238" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="239" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6405,13 +6435,13 @@
         <v>7</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>487</v>
+        <v>476</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -6419,16 +6449,16 @@
         <v>5</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D240" t="s">
-        <v>480</v>
-      </c>
-      <c r="E240" t="s">
-        <v>717</v>
+        <v>468</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6436,13 +6466,16 @@
         <v>7</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>482</v>
+        <v>470</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6450,16 +6483,13 @@
         <v>5</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="D242" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>476</v>
+        <v>465</v>
+      </c>
+      <c r="D242" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6467,30 +6497,27 @@
         <v>7</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>5</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D244" t="s">
-        <v>718</v>
+        <v>459</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6498,27 +6525,33 @@
         <v>7</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>5</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="E246" s="4" t="s">
-        <v>468</v>
+        <v>453</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6526,16 +6559,16 @@
         <v>7</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6543,16 +6576,19 @@
         <v>5</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>462</v>
+        <v>447</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6560,78 +6596,75 @@
         <v>7</v>
       </c>
       <c r="B249" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D249" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>463</v>
-      </c>
       <c r="E249" s="2" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>5</v>
       </c>
-      <c r="B250" s="3" t="s">
-        <v>453</v>
+      <c r="B250" s="6" t="s">
+        <v>649</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>455</v>
+        <v>311</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="F250" s="1" t="s">
-        <v>753</v>
+        <v>711</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>7</v>
       </c>
-      <c r="B251" s="3" t="s">
-        <v>453</v>
+      <c r="B251" s="6" t="s">
+        <v>649</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>457</v>
+        <v>312</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>5</v>
       </c>
-      <c r="B252" s="6" t="s">
-        <v>657</v>
+      <c r="B252" t="s">
+        <v>650</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>719</v>
+        <v>336</v>
+      </c>
+      <c r="I252" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>7</v>
       </c>
-      <c r="B253" s="6" t="s">
-        <v>657</v>
+      <c r="B253" t="s">
+        <v>650</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>316</v>
+        <v>337</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I253" s="2" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6639,16 +6672,16 @@
         <v>5</v>
       </c>
       <c r="B254" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>339</v>
+        <v>399</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="I254" t="s">
-        <v>338</v>
+        <v>398</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6656,16 +6689,16 @@
         <v>7</v>
       </c>
       <c r="B255" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="I255" s="2" t="s">
-        <v>341</v>
+        <v>402</v>
+      </c>
+      <c r="H255" s="2" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6673,16 +6706,16 @@
         <v>5</v>
       </c>
       <c r="B256" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="H256" s="1" t="s">
-        <v>402</v>
+        <v>408</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6690,16 +6723,16 @@
         <v>7</v>
       </c>
       <c r="B257" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H257" s="2" t="s">
-        <v>406</v>
+        <v>411</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6707,16 +6740,16 @@
         <v>5</v>
       </c>
       <c r="B258" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6724,16 +6757,16 @@
         <v>7</v>
       </c>
       <c r="B259" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6741,44 +6774,29 @@
         <v>5</v>
       </c>
       <c r="B260" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>7</v>
       </c>
       <c r="B261" t="s">
-        <v>660</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>5</v>
       </c>
       <c r="B262" t="s">
-        <v>661</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>662</v>
+        <v>655</v>
+      </c>
+      <c r="D262" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -6786,7 +6804,7 @@
         <v>7</v>
       </c>
       <c r="B263" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -6794,10 +6812,10 @@
         <v>5</v>
       </c>
       <c r="B264" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D264" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -6805,7 +6823,7 @@
         <v>7</v>
       </c>
       <c r="B265" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -6813,10 +6831,10 @@
         <v>5</v>
       </c>
       <c r="B266" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D266" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -6824,48 +6842,63 @@
         <v>7</v>
       </c>
       <c r="B267" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>5</v>
       </c>
-      <c r="B268" t="s">
-        <v>667</v>
+      <c r="B268" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C268" t="s">
+        <v>662</v>
       </c>
       <c r="D268" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>7</v>
       </c>
-      <c r="B269" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B269" s="7" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>5</v>
       </c>
-      <c r="B270" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="C270" t="s">
-        <v>670</v>
-      </c>
-      <c r="D270" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B270" t="s">
+        <v>663</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I270" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>7</v>
       </c>
-      <c r="B271" s="7" t="s">
-        <v>669</v>
+      <c r="B271" t="s">
+        <v>663</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I271" s="2" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -6873,158 +6906,146 @@
         <v>5</v>
       </c>
       <c r="B272" t="s">
+        <v>664</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>7</v>
+      </c>
+      <c r="B273" t="s">
+        <v>664</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274" t="s">
+        <v>665</v>
+      </c>
+      <c r="C274" t="s">
+        <v>667</v>
+      </c>
+      <c r="F274" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>7</v>
+      </c>
+      <c r="B275" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>5</v>
+      </c>
+      <c r="B276" t="s">
+        <v>668</v>
+      </c>
+      <c r="C276" t="s">
         <v>671</v>
       </c>
-      <c r="C272" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="I272" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>7</v>
-      </c>
-      <c r="B273" t="s">
-        <v>671</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="I273" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>5</v>
-      </c>
-      <c r="B274" t="s">
+      <c r="D276" t="s">
         <v>672</v>
       </c>
-      <c r="C274" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>7</v>
-      </c>
-      <c r="B275" t="s">
-        <v>672</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>5</v>
-      </c>
-      <c r="B276" t="s">
+      <c r="E276" t="s">
         <v>673</v>
       </c>
-      <c r="C276" t="s">
+      <c r="G276" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>7</v>
+      </c>
+      <c r="B277" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>5</v>
+      </c>
+      <c r="B278" t="s">
+        <v>669</v>
+      </c>
+      <c r="E278" t="s">
+        <v>670</v>
+      </c>
+      <c r="F278" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>7</v>
+      </c>
+      <c r="B279" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>5</v>
+      </c>
+      <c r="B280" t="s">
+        <v>746</v>
+      </c>
+      <c r="C280" t="s">
         <v>675</v>
       </c>
-      <c r="F276" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>7</v>
-      </c>
-      <c r="B277" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>5</v>
-      </c>
-      <c r="B278" t="s">
+      <c r="D280" t="s">
         <v>676</v>
       </c>
-      <c r="C278" t="s">
-        <v>679</v>
-      </c>
-      <c r="D278" t="s">
-        <v>680</v>
-      </c>
-      <c r="E278" t="s">
-        <v>681</v>
-      </c>
-      <c r="G278" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>7</v>
-      </c>
-      <c r="B279" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>5</v>
-      </c>
-      <c r="B280" t="s">
+      <c r="E280" t="s">
         <v>677</v>
-      </c>
-      <c r="E280" t="s">
-        <v>678</v>
       </c>
       <c r="F280" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G280" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>7</v>
       </c>
       <c r="B281" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>5</v>
       </c>
-      <c r="B282" t="s">
-        <v>754</v>
+      <c r="B282" s="3" t="s">
+        <v>369</v>
       </c>
       <c r="C282" t="s">
-        <v>683</v>
-      </c>
-      <c r="D282" t="s">
-        <v>684</v>
-      </c>
-      <c r="E282" t="s">
-        <v>685</v>
-      </c>
-      <c r="F282" t="s">
-        <v>686</v>
-      </c>
-      <c r="G282" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>7</v>
       </c>
-      <c r="B283" t="s">
-        <v>754</v>
+      <c r="B283" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C283" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
